--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2025.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2025.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>139.0753753269904</v>
+        <v>145.6006515690921</v>
       </c>
       <c r="C2">
-        <v>129.7737416547702</v>
+        <v>136.8810572263557</v>
       </c>
       <c r="D2">
-        <v>129.2980909611154</v>
+        <v>132.9453046438109</v>
       </c>
       <c r="E2">
-        <v>108.1539774005977</v>
+        <v>113.2022233457374</v>
       </c>
       <c r="F2">
-        <v>134.2865720706421</v>
+        <v>137.5726434813119</v>
       </c>
       <c r="G2">
-        <v>137.4827245988889</v>
+        <v>143.906679624644</v>
       </c>
       <c r="H2">
-        <v>149.9185405886383</v>
+        <v>159.88405598048</v>
       </c>
       <c r="I2">
-        <v>145.7926912204515</v>
+        <v>149.9479762792412</v>
       </c>
       <c r="J2">
-        <v>125.2869634943281</v>
+        <v>131.688149912861</v>
       </c>
       <c r="K2">
-        <v>128.9557559943293</v>
+        <v>133.2131797579668</v>
       </c>
       <c r="L2">
-        <v>172.4421039732868</v>
+        <v>176.2158677511258</v>
       </c>
       <c r="M2">
-        <v>144.1023441359473</v>
+        <v>153.1441681045285</v>
       </c>
       <c r="N2">
-        <v>108.8399634740857</v>
+        <v>114.0532288613636</v>
       </c>
       <c r="O2">
-        <v>138.2934765106178</v>
+        <v>148.6510440659887</v>
       </c>
       <c r="P2">
-        <v>117.7854983163157</v>
+        <v>122.2476029472405</v>
       </c>
       <c r="Q2">
-        <v>114.1131891404362</v>
+        <v>119.3682214391407</v>
       </c>
       <c r="R2">
-        <v>133.9578243768941</v>
+        <v>142.1956208850648</v>
       </c>
       <c r="S2">
-        <v>172.6401944538366</v>
+        <v>173.7293642670139</v>
       </c>
       <c r="T2">
-        <v>155.6796324449633</v>
+        <v>159.5396889725089</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>14.10691213310112</v>
+        <v>14.76879421233414</v>
       </c>
       <c r="C3">
-        <v>11.82743891897376</v>
+        <v>12.47519199851755</v>
       </c>
       <c r="D3">
-        <v>10.83107558996709</v>
+        <v>11.13659631959578</v>
       </c>
       <c r="E3">
-        <v>12.05277729801588</v>
+        <v>12.61535840307327</v>
       </c>
       <c r="F3">
-        <v>17.4598586489783</v>
+        <v>17.88711166062388</v>
       </c>
       <c r="G3">
-        <v>11.1130933669473</v>
+        <v>11.63235869424257</v>
       </c>
       <c r="H3">
-        <v>11.14498311842525</v>
+        <v>11.88582211253763</v>
       </c>
       <c r="I3">
-        <v>12.88818263755172</v>
+        <v>13.25551293580236</v>
       </c>
       <c r="J3">
-        <v>11.96049661875249</v>
+        <v>12.57158468713187</v>
       </c>
       <c r="K3">
-        <v>13.05848760041914</v>
+        <v>13.48960845267202</v>
       </c>
       <c r="L3">
-        <v>16.00053508153867</v>
+        <v>16.35069457464081</v>
       </c>
       <c r="M3">
-        <v>13.7483743480633</v>
+        <v>14.6110277729935</v>
       </c>
       <c r="N3">
-        <v>10.62726524841199</v>
+        <v>11.13629476581124</v>
       </c>
       <c r="O3">
-        <v>14.04704543007031</v>
+        <v>15.09910678297257</v>
       </c>
       <c r="P3">
-        <v>9.623853370591647</v>
+        <v>9.988436798145134</v>
       </c>
       <c r="Q3">
-        <v>8.430707340094058</v>
+        <v>8.8189502742092</v>
       </c>
       <c r="R3">
-        <v>9.660105968696556</v>
+        <v>10.25415851909923</v>
       </c>
       <c r="S3">
-        <v>19.42847990821645</v>
+        <v>19.55105225528137</v>
       </c>
       <c r="T3">
-        <v>19.51031858689536</v>
+        <v>19.99407443493453</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.13164076570914</v>
+        <v>14.79468308742561</v>
       </c>
       <c r="C4">
-        <v>10.90071130499777</v>
+        <v>11.4977103142848</v>
       </c>
       <c r="D4">
-        <v>10.67048042929487</v>
+        <v>10.97147112400174</v>
       </c>
       <c r="E4">
-        <v>12.94536471499526</v>
+        <v>13.54960865036872</v>
       </c>
       <c r="F4">
-        <v>12.8879895490468</v>
+        <v>13.20336623448229</v>
       </c>
       <c r="G4">
-        <v>11.86216197990424</v>
+        <v>12.41642794524243</v>
       </c>
       <c r="H4">
-        <v>11.60732434016141</v>
+        <v>12.37889648137756</v>
       </c>
       <c r="I4">
-        <v>13.2743107050678</v>
+        <v>13.65264616534884</v>
       </c>
       <c r="J4">
-        <v>12.6699105850222</v>
+        <v>13.31724417264277</v>
       </c>
       <c r="K4">
-        <v>11.8060919233219</v>
+        <v>12.19586542294179</v>
       </c>
       <c r="L4">
-        <v>13.13657445700457</v>
+        <v>13.42405835860675</v>
       </c>
       <c r="M4">
-        <v>14.72388308300958</v>
+        <v>15.64774563201119</v>
       </c>
       <c r="N4">
-        <v>10.76376086467107</v>
+        <v>11.27932831031878</v>
       </c>
       <c r="O4">
-        <v>17.8754152500218</v>
+        <v>19.21420450967421</v>
       </c>
       <c r="P4">
-        <v>9.920215568886782</v>
+        <v>10.29602617768369</v>
       </c>
       <c r="Q4">
-        <v>9.952171125357014</v>
+        <v>10.41047906591963</v>
       </c>
       <c r="R4">
-        <v>12.08024820869508</v>
+        <v>12.82312849190599</v>
       </c>
       <c r="S4">
-        <v>15.16817807348756</v>
+        <v>15.26387260007683</v>
       </c>
       <c r="T4">
-        <v>12.226706535525</v>
+        <v>12.52986615654686</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.43357823190687</v>
+        <v>21.39230109901613</v>
       </c>
       <c r="C5">
-        <v>15.89819880721057</v>
+        <v>16.76889510140574</v>
       </c>
       <c r="D5">
-        <v>14.67982168193918</v>
+        <v>15.09390704159077</v>
       </c>
       <c r="E5">
-        <v>13.93404407877865</v>
+        <v>14.58443607739694</v>
       </c>
       <c r="F5">
-        <v>14.6878184992732</v>
+        <v>15.04723805784364</v>
       </c>
       <c r="G5">
-        <v>16.22600206456164</v>
+        <v>16.98417082950767</v>
       </c>
       <c r="H5">
-        <v>16.3019275068906</v>
+        <v>17.3855633857401</v>
       </c>
       <c r="I5">
-        <v>18.85617804908026</v>
+        <v>19.39360413167274</v>
       </c>
       <c r="J5">
-        <v>13.26195553907137</v>
+        <v>13.93953800505344</v>
       </c>
       <c r="K5">
-        <v>17.08951531712929</v>
+        <v>17.65371897022868</v>
       </c>
       <c r="L5">
-        <v>22.30141428994476</v>
+        <v>22.78946371350673</v>
       </c>
       <c r="M5">
-        <v>15.24151644319216</v>
+        <v>16.19785833700319</v>
       </c>
       <c r="N5">
-        <v>16.28101809673897</v>
+        <v>17.0608536038832</v>
       </c>
       <c r="O5">
-        <v>23.40231483618201</v>
+        <v>25.15504434290754</v>
       </c>
       <c r="P5">
-        <v>12.7963616866925</v>
+        <v>13.28113023254386</v>
       </c>
       <c r="Q5">
-        <v>11.98374071866023</v>
+        <v>12.53560457427782</v>
       </c>
       <c r="R5">
-        <v>16.66159714496546</v>
+        <v>17.68620953636392</v>
       </c>
       <c r="S5">
-        <v>22.68588733694759</v>
+        <v>22.82901034344508</v>
       </c>
       <c r="T5">
-        <v>25.01765960842286</v>
+        <v>25.63796927102144</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>25.06401468775688</v>
+        <v>26.23999295989293</v>
       </c>
       <c r="C6">
-        <v>25.0799547812512</v>
+        <v>26.45350809703397</v>
       </c>
       <c r="D6">
-        <v>25.56943935018087</v>
+        <v>26.29069678224053</v>
       </c>
       <c r="E6">
-        <v>18.61051882324002</v>
+        <v>19.47919215772478</v>
       </c>
       <c r="F6">
-        <v>18.69329668677215</v>
+        <v>19.15073265275434</v>
       </c>
       <c r="G6">
-        <v>26.44571084724838</v>
+        <v>27.68140105925499</v>
       </c>
       <c r="H6">
-        <v>25.07521214357244</v>
+        <v>26.74203341590681</v>
       </c>
       <c r="I6">
-        <v>27.03050923839567</v>
+        <v>27.80091460117169</v>
       </c>
       <c r="J6">
-        <v>20.0218163694948</v>
+        <v>21.04477498740857</v>
       </c>
       <c r="K6">
-        <v>22.73341825727846</v>
+        <v>23.48395315485608</v>
       </c>
       <c r="L6">
-        <v>28.64872713904973</v>
+        <v>29.27568265784395</v>
       </c>
       <c r="M6">
-        <v>29.90806416181335</v>
+        <v>31.78467104849264</v>
       </c>
       <c r="N6">
-        <v>20.05217566944889</v>
+        <v>21.01264377344676</v>
       </c>
       <c r="O6">
-        <v>26.73416716665898</v>
+        <v>28.73643762403655</v>
       </c>
       <c r="P6">
-        <v>27.42066731401454</v>
+        <v>28.45945297399728</v>
       </c>
       <c r="Q6">
-        <v>22.53319194235011</v>
+        <v>23.5708691148304</v>
       </c>
       <c r="R6">
-        <v>24.05660738464876</v>
+        <v>25.53597924839394</v>
       </c>
       <c r="S6">
-        <v>27.84671477068244</v>
+        <v>28.02239692407863</v>
       </c>
       <c r="T6">
-        <v>34.09392139899376</v>
+        <v>34.93927580906624</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.451046112701235</v>
+        <v>7.800641675997031</v>
       </c>
       <c r="C7">
-        <v>6.705558448442034</v>
+        <v>7.072801616197588</v>
       </c>
       <c r="D7">
-        <v>7.974380391999728</v>
+        <v>8.199320057083153</v>
       </c>
       <c r="E7">
-        <v>6.137784128080725</v>
+        <v>6.424274228412023</v>
       </c>
       <c r="F7">
-        <v>7.420599697582329</v>
+        <v>7.602186137240813</v>
       </c>
       <c r="G7">
-        <v>8.203103067274624</v>
+        <v>8.586397516301219</v>
       </c>
       <c r="H7">
-        <v>7.984584905484883</v>
+        <v>8.515343165675059</v>
       </c>
       <c r="I7">
-        <v>8.71568273997296</v>
+        <v>8.964091257323116</v>
       </c>
       <c r="J7">
-        <v>6.922543195463292</v>
+        <v>7.276231147095332</v>
       </c>
       <c r="K7">
-        <v>6.343202317601857</v>
+        <v>6.552620657064781</v>
       </c>
       <c r="L7">
-        <v>8.335667677603162</v>
+        <v>8.518087400055142</v>
       </c>
       <c r="M7">
-        <v>10.25899252380594</v>
+        <v>10.9027017226496</v>
       </c>
       <c r="N7">
-        <v>6.137827465551812</v>
+        <v>6.431819878429303</v>
       </c>
       <c r="O7">
-        <v>7.619029450828962</v>
+        <v>8.189660938549663</v>
       </c>
       <c r="P7">
-        <v>7.566662335097681</v>
+        <v>7.853312555444936</v>
       </c>
       <c r="Q7">
-        <v>6.760093792533615</v>
+        <v>7.071403216883474</v>
       </c>
       <c r="R7">
-        <v>7.140796924717603</v>
+        <v>7.579923435211613</v>
       </c>
       <c r="S7">
-        <v>7.959974499916778</v>
+        <v>8.010193187206827</v>
       </c>
       <c r="T7">
-        <v>9.638870457007988</v>
+        <v>9.877865014236876</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>247</v>
+        <v>211.67</v>
       </c>
       <c r="C8">
-        <v>249</v>
+        <v>207.87</v>
       </c>
       <c r="D8">
-        <v>230</v>
+        <v>208.28</v>
       </c>
       <c r="E8">
-        <v>320</v>
+        <v>288.26</v>
       </c>
       <c r="F8">
-        <v>235</v>
+        <v>216.28</v>
       </c>
       <c r="G8">
-        <v>264</v>
+        <v>229.61</v>
       </c>
       <c r="H8">
-        <v>226</v>
+        <v>174.55</v>
       </c>
       <c r="I8">
-        <v>246</v>
+        <v>224.51</v>
       </c>
       <c r="J8">
-        <v>295</v>
+        <v>258.98</v>
       </c>
       <c r="K8">
-        <v>247</v>
+        <v>222.14</v>
       </c>
       <c r="L8">
-        <v>188</v>
+        <v>170.23</v>
       </c>
       <c r="M8">
-        <v>217</v>
+        <v>167.87</v>
       </c>
       <c r="N8">
-        <v>291</v>
+        <v>257.04</v>
       </c>
       <c r="O8">
-        <v>234</v>
+        <v>176.63</v>
       </c>
       <c r="P8">
-        <v>263</v>
+        <v>235.08</v>
       </c>
       <c r="Q8">
-        <v>334</v>
+        <v>303.33</v>
       </c>
       <c r="R8">
-        <v>231</v>
+        <v>183.71</v>
       </c>
       <c r="S8">
-        <v>236</v>
+        <v>231.18</v>
       </c>
       <c r="T8">
-        <v>220</v>
+        <v>200.66</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>8.514377314845698</v>
+        <v>8.913863304930024</v>
       </c>
       <c r="C9">
-        <v>7.195355761197801</v>
+        <v>7.589423647293762</v>
       </c>
       <c r="D9">
-        <v>8.490183568148916</v>
+        <v>8.729672902045277</v>
       </c>
       <c r="E9">
-        <v>8.455379526553513</v>
+        <v>8.850046800337054</v>
       </c>
       <c r="F9">
-        <v>11.38613494344288</v>
+        <v>11.66476036323537</v>
       </c>
       <c r="G9">
-        <v>10.13266105396391</v>
+        <v>10.60611514859138</v>
       </c>
       <c r="H9">
-        <v>7.334267581485764</v>
+        <v>7.821797383898479</v>
       </c>
       <c r="I9">
-        <v>7.221367118685731</v>
+        <v>7.427185658978245</v>
       </c>
       <c r="J9">
-        <v>6.98122770157356</v>
+        <v>7.337913973645447</v>
       </c>
       <c r="K9">
-        <v>5.712749892132892</v>
+        <v>5.901354091758953</v>
       </c>
       <c r="L9">
-        <v>9.104310265600589</v>
+        <v>9.303551144196307</v>
       </c>
       <c r="M9">
-        <v>8.396804491698218</v>
+        <v>8.9236691209155</v>
       </c>
       <c r="N9">
-        <v>5.923014692422766</v>
+        <v>6.206717906745303</v>
       </c>
       <c r="O9">
-        <v>8.465937447116199</v>
+        <v>9.099998584637158</v>
       </c>
       <c r="P9">
-        <v>10.13965933403662</v>
+        <v>10.52378319917407</v>
       </c>
       <c r="Q9">
-        <v>5.763037847312054</v>
+        <v>6.028431797427761</v>
       </c>
       <c r="R9">
-        <v>4.545932220563085</v>
+        <v>4.825486361929051</v>
       </c>
       <c r="S9">
-        <v>6.363660915888457</v>
+        <v>6.403808619572463</v>
       </c>
       <c r="T9">
-        <v>6.52036419530141</v>
+        <v>6.68203578957978</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>20.63063452300196</v>
+        <v>21.59860307240124</v>
       </c>
       <c r="C10">
-        <v>24.6974464036705</v>
+        <v>26.05005089179696</v>
       </c>
       <c r="D10">
-        <v>22.33301175259448</v>
+        <v>22.96297670748585</v>
       </c>
       <c r="E10">
-        <v>19.60133356361904</v>
+        <v>20.5162546331915</v>
       </c>
       <c r="F10">
-        <v>18.07737652670799</v>
+        <v>18.51974056406743</v>
       </c>
       <c r="G10">
-        <v>21.56492942622824</v>
+        <v>22.57256247373909</v>
       </c>
       <c r="H10">
-        <v>23.25864308723542</v>
+        <v>24.80471180408071</v>
       </c>
       <c r="I10">
-        <v>19.66473022245893</v>
+        <v>20.22520111434307</v>
       </c>
       <c r="J10">
-        <v>20.10650034033747</v>
+        <v>21.13378564850621</v>
       </c>
       <c r="K10">
-        <v>20.68580160670625</v>
+        <v>21.36873524275236</v>
       </c>
       <c r="L10">
-        <v>21.49794647142317</v>
+        <v>21.96841261526208</v>
       </c>
       <c r="M10">
-        <v>16.61271994645275</v>
+        <v>17.65509916863567</v>
       </c>
       <c r="N10">
-        <v>26.44583918077593</v>
+        <v>27.71255384731916</v>
       </c>
       <c r="O10">
-        <v>24.18715814628493</v>
+        <v>25.99866893329846</v>
       </c>
       <c r="P10">
-        <v>18.86085226859957</v>
+        <v>19.57536379551857</v>
       </c>
       <c r="Q10">
-        <v>21.74317493657346</v>
+        <v>22.74447099558954</v>
       </c>
       <c r="R10">
-        <v>24.84915477836535</v>
+        <v>26.37726469965131</v>
       </c>
       <c r="S10">
-        <v>22.15165012545915</v>
+        <v>22.29140268253338</v>
       </c>
       <c r="T10">
-        <v>17.13049211722116</v>
+        <v>17.55524047305072</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>34.65640583035805</v>
+        <v>36.28244941334152</v>
       </c>
       <c r="C11">
-        <v>41.70507499707548</v>
+        <v>43.98913589538402</v>
       </c>
       <c r="D11">
-        <v>40.02616824734388</v>
+        <v>41.1552180841391</v>
       </c>
       <c r="E11">
-        <v>31.15585632265122</v>
+        <v>32.61010173394673</v>
       </c>
       <c r="F11">
-        <v>25.30385352792769</v>
+        <v>25.9230537083758</v>
       </c>
       <c r="G11">
-        <v>36.42565658766347</v>
+        <v>38.12766518827453</v>
       </c>
       <c r="H11">
-        <v>47.18360146462</v>
+        <v>50.32003078678369</v>
       </c>
       <c r="I11">
-        <v>46.42494981359334</v>
+        <v>47.74812245483223</v>
       </c>
       <c r="J11">
-        <v>36.86129825574412</v>
+        <v>38.74462302620073</v>
       </c>
       <c r="K11">
-        <v>37.08297959770705</v>
+        <v>38.30725964126482</v>
       </c>
       <c r="L11">
-        <v>43.49256706389323</v>
+        <v>44.44436868547621</v>
       </c>
       <c r="M11">
-        <v>38.44053543121932</v>
+        <v>40.85251947430464</v>
       </c>
       <c r="N11">
-        <v>33.70770431683285</v>
+        <v>35.32225105674773</v>
       </c>
       <c r="O11">
-        <v>30.38812736214315</v>
+        <v>32.66406321954021</v>
       </c>
       <c r="P11">
-        <v>36.494780118303</v>
+        <v>37.87732321315105</v>
       </c>
       <c r="Q11">
-        <v>33.26312118891137</v>
+        <v>34.79492288089923</v>
       </c>
       <c r="R11">
-        <v>47.32538960434191</v>
+        <v>50.23568566986769</v>
       </c>
       <c r="S11">
-        <v>27.37965708878237</v>
+        <v>27.55239262172468</v>
       </c>
       <c r="T11">
-        <v>31.17769219785481</v>
+        <v>31.95073907876059</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.31493087661648</v>
+        <v>10.79889702252732</v>
       </c>
       <c r="C12">
-        <v>11.58565008680385</v>
+        <v>12.22016112284945</v>
       </c>
       <c r="D12">
-        <v>11.43390077436231</v>
+        <v>11.75642587153004</v>
       </c>
       <c r="E12">
-        <v>9.89319976762078</v>
+        <v>10.35497941559767</v>
       </c>
       <c r="F12">
-        <v>8.956805232995272</v>
+        <v>9.175983525755624</v>
       </c>
       <c r="G12">
-        <v>9.734074085601497</v>
+        <v>10.18890398750888</v>
       </c>
       <c r="H12">
-        <v>10.89221525325462</v>
+        <v>11.61625204237601</v>
       </c>
       <c r="I12">
-        <v>10.18605842107419</v>
+        <v>10.47637459543611</v>
       </c>
       <c r="J12">
-        <v>8.918559245061946</v>
+        <v>9.374228045072064</v>
       </c>
       <c r="K12">
-        <v>10.1847075260422</v>
+        <v>10.52095165498963</v>
       </c>
       <c r="L12">
-        <v>10.95502251631284</v>
+        <v>11.19476481940998</v>
       </c>
       <c r="M12">
-        <v>12.64123653712674</v>
+        <v>13.43442165982028</v>
       </c>
       <c r="N12">
-        <v>9.460712549891747</v>
+        <v>9.913866002916185</v>
       </c>
       <c r="O12">
-        <v>11.32091301159469</v>
+        <v>12.16879914667979</v>
       </c>
       <c r="P12">
-        <v>12.11314501581364</v>
+        <v>12.5720310522336</v>
       </c>
       <c r="Q12">
-        <v>11.04048765572863</v>
+        <v>11.54891371639109</v>
       </c>
       <c r="R12">
-        <v>11.87640533384643</v>
+        <v>12.60675020801755</v>
       </c>
       <c r="S12">
-        <v>8.38064631614869</v>
+        <v>8.433518980080413</v>
       </c>
       <c r="T12">
-        <v>12.23899056754328</v>
+        <v>12.54245476956416</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.436543081658058</v>
+        <v>2.550863223855905</v>
       </c>
       <c r="C13">
-        <v>2.620026895217351</v>
+        <v>2.763517848879522</v>
       </c>
       <c r="D13">
-        <v>2.590091409068166</v>
+        <v>2.663152169334349</v>
       </c>
       <c r="E13">
-        <v>2.090533687135926</v>
+        <v>2.188112421297241</v>
       </c>
       <c r="F13">
-        <v>2.347846109505272</v>
+        <v>2.405299284890812</v>
       </c>
       <c r="G13">
-        <v>1.834874492289018</v>
+        <v>1.92061000015562</v>
       </c>
       <c r="H13">
-        <v>2.445289126033589</v>
+        <v>2.607834507861015</v>
       </c>
       <c r="I13">
-        <v>2.43801261829653</v>
+        <v>2.507499211356466</v>
       </c>
       <c r="J13">
-        <v>1.898703767314537</v>
+        <v>1.995712717241729</v>
       </c>
       <c r="K13">
-        <v>2.153594542951655</v>
+        <v>2.224694623081506</v>
       </c>
       <c r="L13">
-        <v>2.421182693584127</v>
+        <v>2.474168428146923</v>
       </c>
       <c r="M13">
-        <v>2.456537724922675</v>
+        <v>2.610675270804477</v>
       </c>
       <c r="N13">
-        <v>1.798311097271287</v>
+        <v>1.884447408785156</v>
       </c>
       <c r="O13">
-        <v>2.466874868591765</v>
+        <v>2.651632846674154</v>
       </c>
       <c r="P13">
-        <v>2.625784158940614</v>
+        <v>2.725257556115135</v>
       </c>
       <c r="Q13">
-        <v>2.192978240173105</v>
+        <v>2.293967193065161</v>
       </c>
       <c r="R13">
-        <v>2.246993852096193</v>
+        <v>2.385173747110014</v>
       </c>
       <c r="S13">
-        <v>2.057772971796028</v>
+        <v>2.07075525677516</v>
       </c>
       <c r="T13">
-        <v>3.156177293229294</v>
+        <v>3.234434304576799</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>6.787236881129947</v>
+        <v>7.105687185260519</v>
       </c>
       <c r="C14">
-        <v>6.048608084507713</v>
+        <v>6.379872066552724</v>
       </c>
       <c r="D14">
-        <v>6.084420594729157</v>
+        <v>6.256048666570092</v>
       </c>
       <c r="E14">
-        <v>6.412535916720313</v>
+        <v>6.711850460833111</v>
       </c>
       <c r="F14">
-        <v>4.630984653556331</v>
+        <v>4.744307572137473</v>
       </c>
       <c r="G14">
-        <v>5.481716179834732</v>
+        <v>5.737852347531085</v>
       </c>
       <c r="H14">
-        <v>6.548767443518807</v>
+        <v>6.984082798775967</v>
       </c>
       <c r="I14">
-        <v>5.559471916096522</v>
+        <v>5.717924239010199</v>
       </c>
       <c r="J14">
-        <v>5.205835681275539</v>
+        <v>5.471813271686242</v>
       </c>
       <c r="K14">
-        <v>7.028577592406156</v>
+        <v>7.260623328059831</v>
       </c>
       <c r="L14">
-        <v>6.418621654463948</v>
+        <v>6.559088288453879</v>
       </c>
       <c r="M14">
-        <v>6.28750911447993</v>
+        <v>6.682024213834206</v>
       </c>
       <c r="N14">
-        <v>4.787788856650515</v>
+        <v>5.017116514720828</v>
       </c>
       <c r="O14">
-        <v>7.249783849479239</v>
+        <v>7.792760480607989</v>
       </c>
       <c r="P14">
-        <v>6.25980307391328</v>
+        <v>6.496945138802912</v>
       </c>
       <c r="Q14">
-        <v>5.043168903255231</v>
+        <v>5.27541213187811</v>
       </c>
       <c r="R14">
-        <v>5.140146006318821</v>
+        <v>5.456241591024694</v>
       </c>
       <c r="S14">
-        <v>5.640681216508896</v>
+        <v>5.676267713188964</v>
       </c>
       <c r="T14">
-        <v>5.852112853507143</v>
+        <v>5.997215241438974</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.403349900504609</v>
+        <v>1.469193661440636</v>
       </c>
       <c r="C15">
-        <v>1.541695351102673</v>
+        <v>1.62612934549795</v>
       </c>
       <c r="D15">
-        <v>1.317196761178527</v>
+        <v>1.354351973714628</v>
       </c>
       <c r="E15">
-        <v>1.126055258103178</v>
+        <v>1.178615543238759</v>
       </c>
       <c r="F15">
-        <v>1.64325261900386</v>
+        <v>1.683463977210071</v>
       </c>
       <c r="G15">
-        <v>1.610382981372259</v>
+        <v>1.68562900138502</v>
       </c>
       <c r="H15">
-        <v>1.576599564086426</v>
+        <v>1.681400659141008</v>
       </c>
       <c r="I15">
-        <v>1.196224753164816</v>
+        <v>1.230318745134991</v>
       </c>
       <c r="J15">
-        <v>1.285116399629949</v>
+        <v>1.350775821920262</v>
       </c>
       <c r="K15">
-        <v>1.485237615828727</v>
+        <v>1.534272153849315</v>
       </c>
       <c r="L15">
-        <v>1.372279917082784</v>
+        <v>1.402311215268204</v>
       </c>
       <c r="M15">
-        <v>2.214275621873102</v>
+        <v>2.353212226346442</v>
       </c>
       <c r="N15">
-        <v>1.014393650887163</v>
+        <v>1.062981532952224</v>
       </c>
       <c r="O15">
-        <v>1.805375301918432</v>
+        <v>1.940589898616944</v>
       </c>
       <c r="P15">
-        <v>1.765353450913262</v>
+        <v>1.8322308842233</v>
       </c>
       <c r="Q15">
-        <v>1.273561897243387</v>
+        <v>1.332210761190016</v>
       </c>
       <c r="R15">
-        <v>1.03967736554083</v>
+        <v>1.103612791569992</v>
       </c>
       <c r="S15">
-        <v>1.170043473664046</v>
+        <v>1.177425161547633</v>
       </c>
       <c r="T15">
-        <v>2.033416766758779</v>
+        <v>2.083835074796106</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.591097035458125</v>
+        <v>2.712668693177561</v>
       </c>
       <c r="C16">
-        <v>2.523622344770184</v>
+        <v>2.661833512600275</v>
       </c>
       <c r="D16">
-        <v>3.041023633615769</v>
+        <v>3.126804196371789</v>
       </c>
       <c r="E16">
-        <v>2.822967859441976</v>
+        <v>2.954734035704753</v>
       </c>
       <c r="F16">
-        <v>3.127532330286879</v>
+        <v>3.204064886133899</v>
       </c>
       <c r="G16">
-        <v>2.473988079490811</v>
+        <v>2.589586517063758</v>
       </c>
       <c r="H16">
-        <v>2.814042245792008</v>
+        <v>3.001099705153762</v>
       </c>
       <c r="I16">
-        <v>2.27352206153468</v>
+        <v>2.338320455569666</v>
       </c>
       <c r="J16">
-        <v>2.098528224829252</v>
+        <v>2.205746645621238</v>
       </c>
       <c r="K16">
-        <v>2.254931067781635</v>
+        <v>2.329376733578517</v>
       </c>
       <c r="L16">
-        <v>2.363969814865872</v>
+        <v>2.415703489262629</v>
       </c>
       <c r="M16">
-        <v>3.032313989837161</v>
+        <v>3.222579106466407</v>
       </c>
       <c r="N16">
-        <v>2.288352735971924</v>
+        <v>2.397961281689282</v>
       </c>
       <c r="O16">
-        <v>2.675066537437885</v>
+        <v>2.875417147428501</v>
       </c>
       <c r="P16">
-        <v>2.24647070921427</v>
+        <v>2.331574457112863</v>
       </c>
       <c r="Q16">
-        <v>2.150753193312629</v>
+        <v>2.24979763841608</v>
       </c>
       <c r="R16">
-        <v>2.514586815217981</v>
+        <v>2.669222459550436</v>
       </c>
       <c r="S16">
-        <v>1.92901220675166</v>
+        <v>1.941182152872789</v>
       </c>
       <c r="T16">
-        <v>2.005572960850685</v>
+        <v>2.055300885290239</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>18.39192050220798</v>
+        <v>19.25485084927706</v>
       </c>
       <c r="C17">
-        <v>18.76701163906577</v>
+        <v>19.79482414068331</v>
       </c>
       <c r="D17">
-        <v>17.0547313978899</v>
+        <v>17.53580771732129</v>
       </c>
       <c r="E17">
-        <v>19.1941884260495</v>
+        <v>20.09010539758305</v>
       </c>
       <c r="F17">
-        <v>18.71167043992581</v>
+        <v>19.16955602245576</v>
       </c>
       <c r="G17">
-        <v>15.65790109816005</v>
+        <v>16.38952503670044</v>
       </c>
       <c r="H17">
-        <v>18.87200076889449</v>
+        <v>20.12647678899737</v>
       </c>
       <c r="I17">
-        <v>17.2027776639764</v>
+        <v>17.69307964275471</v>
       </c>
       <c r="J17">
-        <v>16.49183190068468</v>
+        <v>17.33443585112818</v>
       </c>
       <c r="K17">
-        <v>20.17215693123215</v>
+        <v>20.83813278954614</v>
       </c>
       <c r="L17">
-        <v>19.00296745601405</v>
+        <v>19.41883288913396</v>
       </c>
       <c r="M17">
-        <v>18.44745160688152</v>
+        <v>19.60495262533119</v>
       </c>
       <c r="N17">
-        <v>19.32867431550731</v>
+        <v>20.25448782714995</v>
       </c>
       <c r="O17">
-        <v>19.19370060973421</v>
+        <v>20.63122359143193</v>
       </c>
       <c r="P17">
-        <v>16.20264171137221</v>
+        <v>16.81645142179489</v>
       </c>
       <c r="Q17">
-        <v>15.6614060903791</v>
+        <v>16.38263030177839</v>
       </c>
       <c r="R17">
-        <v>15.09224312006886</v>
+        <v>16.0203473816398</v>
       </c>
       <c r="S17">
-        <v>23.08896451447779</v>
+        <v>23.23463049479163</v>
       </c>
       <c r="T17">
-        <v>22.16448843831106</v>
+        <v>22.7140540875379</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>19.3462911669234</v>
+        <v>20.25399962233828</v>
       </c>
       <c r="C18">
-        <v>19.20938413264994</v>
+        <v>20.26142403860985</v>
       </c>
       <c r="D18">
-        <v>20.46124746613899</v>
+        <v>21.03841408297606</v>
       </c>
       <c r="E18">
-        <v>17.87310210554413</v>
+        <v>18.70735543029409</v>
       </c>
       <c r="F18">
-        <v>21.11144237356101</v>
+        <v>21.62805178693756</v>
       </c>
       <c r="G18">
-        <v>17.96924736872137</v>
+        <v>18.80887021792019</v>
       </c>
       <c r="H18">
-        <v>18.86800127735699</v>
+        <v>20.12221143978595</v>
       </c>
       <c r="I18">
-        <v>19.90026834364374</v>
+        <v>20.46745238436642</v>
       </c>
       <c r="J18">
-        <v>18.26053834433723</v>
+        <v>19.1935093956323</v>
       </c>
       <c r="K18">
-        <v>20.7778553964373</v>
+        <v>21.46382815228781</v>
       </c>
       <c r="L18">
-        <v>19.13646417302332</v>
+        <v>19.55525107986399</v>
       </c>
       <c r="M18">
-        <v>21.20277925889867</v>
+        <v>22.53316565096724</v>
       </c>
       <c r="N18">
-        <v>19.19068694387928</v>
+        <v>20.10989107450572</v>
       </c>
       <c r="O18">
-        <v>18.74432085660221</v>
+        <v>20.14818728942632</v>
       </c>
       <c r="P18">
-        <v>21.11410989838548</v>
+        <v>21.91398228422391</v>
       </c>
       <c r="Q18">
-        <v>14.95652022746632</v>
+        <v>15.64528370400745</v>
       </c>
       <c r="R18">
-        <v>21.8623450870501</v>
+        <v>23.20677980638247</v>
       </c>
       <c r="S18">
-        <v>20.01230201059154</v>
+        <v>20.1385576332238</v>
       </c>
       <c r="T18">
-        <v>17.13458679456059</v>
+        <v>17.55943667738982</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>18.68789132373511</v>
+        <v>19.56470832302803</v>
       </c>
       <c r="C19">
-        <v>20.2216319123452</v>
+        <v>21.32910956954195</v>
       </c>
       <c r="D19">
-        <v>20.16616374726836</v>
+        <v>20.73500670387963</v>
       </c>
       <c r="E19">
-        <v>16.79971947013351</v>
+        <v>17.58387108187181</v>
       </c>
       <c r="F19">
-        <v>23.82596468730681</v>
+        <v>24.40900005847855</v>
       </c>
       <c r="G19">
-        <v>19.44065941476421</v>
+        <v>20.34903479149484</v>
       </c>
       <c r="H19">
-        <v>17.5481690699787</v>
+        <v>18.71464620001798</v>
       </c>
       <c r="I19">
-        <v>16.22664590929575</v>
+        <v>16.68912683846122</v>
       </c>
       <c r="J19">
-        <v>17.25918753121517</v>
+        <v>18.1409973679164</v>
       </c>
       <c r="K19">
-        <v>21.75641038811612</v>
+        <v>22.47468975365207</v>
       </c>
       <c r="L19">
-        <v>17.85870988164895</v>
+        <v>18.24953411144809</v>
       </c>
       <c r="M19">
-        <v>22.50695691364887</v>
+        <v>23.91917504029966</v>
       </c>
       <c r="N19">
-        <v>15.89241582312705</v>
+        <v>16.65363788427429</v>
       </c>
       <c r="O19">
-        <v>17.32468936375338</v>
+        <v>18.6222316989995</v>
       </c>
       <c r="P19">
-        <v>25.17721301394322</v>
+        <v>26.1310091975922</v>
       </c>
       <c r="Q19">
-        <v>16.37037824814935</v>
+        <v>17.1242513725799</v>
       </c>
       <c r="R19">
-        <v>25.06401618698962</v>
+        <v>26.60533910699317</v>
       </c>
       <c r="S19">
-        <v>17.15077395264898</v>
+        <v>17.25897647941831</v>
       </c>
       <c r="T19">
-        <v>12.14317511780072</v>
+        <v>12.44426358802926</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.121989866761356</v>
+        <v>3.26847048029745</v>
       </c>
       <c r="C20">
-        <v>4.378632484826149</v>
+        <v>4.618436951005776</v>
       </c>
       <c r="D20">
-        <v>7.998113666975917</v>
+        <v>8.22372279534828</v>
       </c>
       <c r="E20">
-        <v>5.411756085561608</v>
+        <v>5.664357759320028</v>
       </c>
       <c r="F20">
-        <v>3.649986006917178</v>
+        <v>3.739303311557032</v>
       </c>
       <c r="G20">
-        <v>7.827423395944537</v>
+        <v>8.193164008154499</v>
       </c>
       <c r="H20">
-        <v>2.928427703764793</v>
+        <v>3.12308869260032</v>
       </c>
       <c r="I20">
-        <v>3.466657790159367</v>
+        <v>3.565462134868286</v>
       </c>
       <c r="J20">
-        <v>9.1079839166837</v>
+        <v>9.573330839632563</v>
       </c>
       <c r="K20">
-        <v>7.108254402005301</v>
+        <v>7.342930636313206</v>
       </c>
       <c r="L20">
-        <v>7.16653493857795</v>
+        <v>7.323369083723922</v>
       </c>
       <c r="M20">
-        <v>5.789256722541308</v>
+        <v>6.152508552398848</v>
       </c>
       <c r="N20">
-        <v>6.687539319010518</v>
+        <v>7.007862076801207</v>
       </c>
       <c r="O20">
-        <v>3.855081203878914</v>
+        <v>4.143809674722953</v>
       </c>
       <c r="P20">
-        <v>7.955779114538622</v>
+        <v>8.257170366747467</v>
       </c>
       <c r="Q20">
-        <v>4.686299152369918</v>
+        <v>4.902108153876203</v>
       </c>
       <c r="R20">
-        <v>3.65894025162704</v>
+        <v>3.883948423928005</v>
       </c>
       <c r="S20">
-        <v>3.480539437721072</v>
+        <v>3.502497814801981</v>
       </c>
       <c r="T20">
-        <v>2.800759300167147</v>
+        <v>2.870203767943086</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>32.48955939808111</v>
+        <v>34.0139367334519</v>
       </c>
       <c r="C21">
-        <v>29.56898602546039</v>
+        <v>31.18839001377889</v>
       </c>
       <c r="D21">
-        <v>29.51153632372598</v>
+        <v>30.34399160807837</v>
       </c>
       <c r="E21">
-        <v>27.52713969445273</v>
+        <v>28.8120094207791</v>
       </c>
       <c r="F21">
-        <v>30.36941738650983</v>
+        <v>31.11257489432089</v>
       </c>
       <c r="G21">
-        <v>25.37212219300021</v>
+        <v>26.55764839166498</v>
       </c>
       <c r="H21">
-        <v>31.78475914689915</v>
+        <v>33.89758325298178</v>
       </c>
       <c r="I21">
-        <v>31.94669179401041</v>
+        <v>32.85721487975746</v>
       </c>
       <c r="J21">
-        <v>25.76621239165573</v>
+        <v>27.08266483186487</v>
       </c>
       <c r="K21">
-        <v>30.82486901851205</v>
+        <v>31.84253999301432</v>
       </c>
       <c r="L21">
-        <v>33.12294008924833</v>
+        <v>33.84781034218669</v>
       </c>
       <c r="M21">
-        <v>31.84212328449244</v>
+        <v>33.84008435341595</v>
       </c>
       <c r="N21">
-        <v>25.13682384452079</v>
+        <v>26.34083870736979</v>
       </c>
       <c r="O21">
-        <v>30.39834053835069</v>
+        <v>32.67504131731306</v>
       </c>
       <c r="P21">
-        <v>33.70912627478587</v>
+        <v>34.98613957952403</v>
       </c>
       <c r="Q21">
-        <v>23.18359387383002</v>
+        <v>24.2512227388606</v>
       </c>
       <c r="R21">
-        <v>29.38800365578698</v>
+        <v>31.19523212507458</v>
       </c>
       <c r="S21">
-        <v>20.6976931636538</v>
+        <v>20.82827285089046</v>
       </c>
       <c r="T21">
-        <v>25.50492621181451</v>
+        <v>26.13731758737411</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>71.19759712730792</v>
+        <v>74.53811652506062</v>
       </c>
       <c r="C22">
-        <v>63.85246555020802</v>
+        <v>67.34947208560092</v>
       </c>
       <c r="D22">
-        <v>71.13258064946982</v>
+        <v>73.1390737036341</v>
       </c>
       <c r="E22">
-        <v>70.08733062224245</v>
+        <v>73.35875984863947</v>
       </c>
       <c r="F22">
-        <v>77.24725255217122</v>
+        <v>79.13753826168318</v>
       </c>
       <c r="G22">
-        <v>75.55666495484419</v>
+        <v>79.08709118826415</v>
       </c>
       <c r="H22">
-        <v>69.30558905689509</v>
+        <v>73.91253034497939</v>
       </c>
       <c r="I22">
-        <v>78.01640378548896</v>
+        <v>80.23997476340692</v>
       </c>
       <c r="J22">
-        <v>63.03013092982726</v>
+        <v>66.25047889591575</v>
       </c>
       <c r="K22">
-        <v>71.36025251176264</v>
+        <v>73.71618329189867</v>
       </c>
       <c r="L22">
-        <v>73.0135833103575</v>
+        <v>74.61142983181693</v>
       </c>
       <c r="M22">
-        <v>86.10721928690991</v>
+        <v>91.51008989171946</v>
       </c>
       <c r="N22">
-        <v>61.25147544915723</v>
+        <v>64.18532609267402</v>
       </c>
       <c r="O22">
-        <v>76.30735322020688</v>
+        <v>82.02243527535474</v>
       </c>
       <c r="P22">
-        <v>59.72867154189872</v>
+        <v>61.99139136476143</v>
       </c>
       <c r="Q22">
-        <v>55.9093672889847</v>
+        <v>58.48405241624169</v>
       </c>
       <c r="R22">
-        <v>67.04541691016405</v>
+        <v>71.16840490194772</v>
       </c>
       <c r="S22">
-        <v>51.51790187492607</v>
+        <v>51.8429231930375</v>
       </c>
       <c r="T22">
-        <v>62.59533248779996</v>
+        <v>64.14737573179234</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>11.7422366399601</v>
+        <v>12.29317053171281</v>
       </c>
       <c r="C23">
-        <v>11.74502857746247</v>
+        <v>12.3882682916982</v>
       </c>
       <c r="D23">
-        <v>12.25665430687022</v>
+        <v>12.60238746472116</v>
       </c>
       <c r="E23">
-        <v>16.2836701261861</v>
+        <v>17.04373437589955</v>
       </c>
       <c r="F23">
-        <v>24.97951684182386</v>
+        <v>25.59078031277672</v>
       </c>
       <c r="G23">
-        <v>11.75526126042007</v>
+        <v>12.30453223154214</v>
       </c>
       <c r="H23">
-        <v>9.993929453929887</v>
+        <v>10.6582546094915</v>
       </c>
       <c r="I23">
-        <v>7.810598549715269</v>
+        <v>8.033210967266172</v>
       </c>
       <c r="J23">
-        <v>11.4249076452651</v>
+        <v>12.00863129545297</v>
       </c>
       <c r="K23">
-        <v>10.31776006246019</v>
+        <v>10.65839686877196</v>
       </c>
       <c r="L23">
-        <v>7.323248475936649</v>
+        <v>7.483512177189597</v>
       </c>
       <c r="M23">
-        <v>10.31955804956833</v>
+        <v>10.96706748376411</v>
       </c>
       <c r="N23">
-        <v>19.67550743878859</v>
+        <v>20.61793371893141</v>
       </c>
       <c r="O23">
-        <v>7.360557529884156</v>
+        <v>7.911830617990492</v>
       </c>
       <c r="P23">
-        <v>8.504011476270334</v>
+        <v>8.826171585384946</v>
       </c>
       <c r="Q23">
-        <v>10.26885897681058</v>
+        <v>10.74175072578773</v>
       </c>
       <c r="R23">
-        <v>7.350149066454061</v>
+        <v>7.802149780826768</v>
       </c>
       <c r="S23">
-        <v>25.44504658789834</v>
+        <v>25.60557685563874</v>
       </c>
       <c r="T23">
-        <v>28.29585828636703</v>
+        <v>28.99745046490336</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.392495204825039</v>
+        <v>2.504748665099234</v>
       </c>
       <c r="C24">
-        <v>2.398451920399267</v>
+        <v>2.529807882431253</v>
       </c>
       <c r="D24">
-        <v>3.095610166061005</v>
+        <v>3.182930494381585</v>
       </c>
       <c r="E24">
-        <v>1.812934729702146</v>
+        <v>1.897556124291479</v>
       </c>
       <c r="F24">
-        <v>2.58910147700122</v>
+        <v>2.652458313144308</v>
       </c>
       <c r="G24">
-        <v>1.569149846714079</v>
+        <v>1.642469226100624</v>
       </c>
       <c r="H24">
-        <v>2.655662380906613</v>
+        <v>2.832191876381607</v>
       </c>
       <c r="I24">
-        <v>1.96616411979188</v>
+        <v>2.022202404850669</v>
       </c>
       <c r="J24">
-        <v>2.575432692206377</v>
+        <v>2.707017210750029</v>
       </c>
       <c r="K24">
-        <v>3.331728339257463</v>
+        <v>3.441724045119271</v>
       </c>
       <c r="L24">
-        <v>3.343222130318905</v>
+        <v>3.416385993934381</v>
       </c>
       <c r="M24">
-        <v>2.568785832668977</v>
+        <v>2.729966481403367</v>
       </c>
       <c r="N24">
-        <v>1.876628254141252</v>
+        <v>1.966515835961615</v>
       </c>
       <c r="O24">
-        <v>2.451162289810926</v>
+        <v>2.634743465485146</v>
       </c>
       <c r="P24">
-        <v>3.037524006953703</v>
+        <v>3.152595472725952</v>
       </c>
       <c r="Q24">
-        <v>2.002284480158052</v>
+        <v>2.094491784972538</v>
       </c>
       <c r="R24">
-        <v>2.91833737428115</v>
+        <v>3.097801840379661</v>
       </c>
       <c r="S24">
-        <v>0.8493411955100593</v>
+        <v>0.8546996046230937</v>
       </c>
       <c r="T24">
-        <v>2.987476586844957</v>
+        <v>3.061550685805958</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>22.44509794061475</v>
+        <v>23.49819928223748</v>
       </c>
       <c r="C25">
-        <v>22.81056056548281</v>
+        <v>24.05982601962171</v>
       </c>
       <c r="D25">
-        <v>24.31632243143806</v>
+        <v>25.00223220184175</v>
       </c>
       <c r="E25">
-        <v>22.43996085142908</v>
+        <v>23.48737902411196</v>
       </c>
       <c r="F25">
-        <v>23.34345395231492</v>
+        <v>23.91468200197156</v>
       </c>
       <c r="G25">
-        <v>21.23430077239505</v>
+        <v>22.22648501636606</v>
       </c>
       <c r="H25">
-        <v>24.32410763282807</v>
+        <v>25.94100083400249</v>
       </c>
       <c r="I25">
-        <v>22.14985046499242</v>
+        <v>22.7811505797042</v>
       </c>
       <c r="J25">
-        <v>21.72218136299362</v>
+        <v>22.83201536681636</v>
       </c>
       <c r="K25">
-        <v>23.46366008506092</v>
+        <v>24.23830363049866</v>
       </c>
       <c r="L25">
-        <v>25.99952210274791</v>
+        <v>26.5685017921147</v>
       </c>
       <c r="M25">
-        <v>22.97210015150405</v>
+        <v>24.41350408565909</v>
       </c>
       <c r="N25">
-        <v>22.28085819066275</v>
+        <v>23.34807672966826</v>
       </c>
       <c r="O25">
-        <v>20.69110936754819</v>
+        <v>22.24078161874433</v>
       </c>
       <c r="P25">
-        <v>20.19938382578498</v>
+        <v>20.96460335959219</v>
       </c>
       <c r="Q25">
-        <v>19.34383880609835</v>
+        <v>20.23464291448129</v>
       </c>
       <c r="R25">
-        <v>24.41785788486318</v>
+        <v>25.9194450101885</v>
       </c>
       <c r="S25">
-        <v>27.21490729002995</v>
+        <v>27.38660343288065</v>
       </c>
       <c r="T25">
-        <v>23.52310237953249</v>
+        <v>24.10635468725064</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.42558062923779</v>
+        <v>6.727062387047844</v>
       </c>
       <c r="C26">
-        <v>7.175919359897968</v>
+        <v>7.568922773043912</v>
       </c>
       <c r="D26">
-        <v>7.039289357937855</v>
+        <v>7.237852169437092</v>
       </c>
       <c r="E26">
-        <v>5.517101330946736</v>
+        <v>5.774620148952986</v>
       </c>
       <c r="F26">
-        <v>7.206505530400495</v>
+        <v>7.382852959850294</v>
       </c>
       <c r="G26">
-        <v>5.858923004300305</v>
+        <v>6.132684365873522</v>
       </c>
       <c r="H26">
-        <v>6.510372324758713</v>
+        <v>6.943135446346354</v>
       </c>
       <c r="I26">
-        <v>5.621252406899095</v>
+        <v>5.781465555737636</v>
       </c>
       <c r="J26">
-        <v>6.8438019594166</v>
+        <v>7.193466848179986</v>
       </c>
       <c r="K26">
-        <v>6.583006307657537</v>
+        <v>6.800341681905037</v>
       </c>
       <c r="L26">
-        <v>6.701369359433877</v>
+        <v>6.84802371105597</v>
       </c>
       <c r="M26">
-        <v>6.211600322191065</v>
+        <v>6.601352459904023</v>
       </c>
       <c r="N26">
-        <v>6.516733329265548</v>
+        <v>6.828874745149693</v>
       </c>
       <c r="O26">
-        <v>5.599963077491116</v>
+        <v>6.019375455762218</v>
       </c>
       <c r="P26">
-        <v>7.141348645941304</v>
+        <v>7.411886575649147</v>
       </c>
       <c r="Q26">
-        <v>6.357593749073272</v>
+        <v>6.650367623373689</v>
       </c>
       <c r="R26">
-        <v>6.66149070547887</v>
+        <v>7.071142064987447</v>
       </c>
       <c r="S26">
-        <v>6.508416807025293</v>
+        <v>6.549477761226681</v>
       </c>
       <c r="T26">
-        <v>6.657126418438226</v>
+        <v>6.822189014505656</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>11.99570512419221</v>
+        <v>12.55853150140032</v>
       </c>
       <c r="C27">
-        <v>12.39964657324081</v>
+        <v>13.07873773643308</v>
       </c>
       <c r="D27">
-        <v>12.94096373535035</v>
+        <v>13.3059997513657</v>
       </c>
       <c r="E27">
-        <v>15.89431979358026</v>
+        <v>16.63621054394532</v>
       </c>
       <c r="F27">
-        <v>19.22294009289736</v>
+        <v>19.69333674458237</v>
       </c>
       <c r="G27">
-        <v>13.33891906192129</v>
+        <v>13.96218730450209</v>
       </c>
       <c r="H27">
-        <v>10.98740315184736</v>
+        <v>11.71776735360775</v>
       </c>
       <c r="I27">
-        <v>11.23709902085296</v>
+        <v>11.55737124626162</v>
       </c>
       <c r="J27">
-        <v>14.25736361739746</v>
+        <v>14.98580367058705</v>
       </c>
       <c r="K27">
-        <v>13.37177991000801</v>
+        <v>13.81324398512461</v>
       </c>
       <c r="L27">
-        <v>10.68637073798364</v>
+        <v>10.92023380204025</v>
       </c>
       <c r="M27">
-        <v>14.21836282797947</v>
+        <v>15.11050607924209</v>
       </c>
       <c r="N27">
-        <v>12.08993138766914</v>
+        <v>12.66902034384015</v>
       </c>
       <c r="O27">
-        <v>12.28723660661631</v>
+        <v>13.20749608980374</v>
       </c>
       <c r="P27">
-        <v>12.33862159924937</v>
+        <v>12.80604943513953</v>
       </c>
       <c r="Q27">
-        <v>11.86660026607956</v>
+        <v>12.41306968073521</v>
       </c>
       <c r="R27">
-        <v>10.1669585223743</v>
+        <v>10.79218019795697</v>
       </c>
       <c r="S27">
-        <v>14.2300639281643</v>
+        <v>14.31983998593098</v>
       </c>
       <c r="T27">
-        <v>13.97022014665245</v>
+        <v>14.31660996413483</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>21.95825298614453</v>
+        <v>22.98851205387426</v>
       </c>
       <c r="C28">
-        <v>27.25527681472839</v>
+        <v>28.74796594307697</v>
       </c>
       <c r="D28">
-        <v>28.20699730920142</v>
+        <v>29.00265442810514</v>
       </c>
       <c r="E28">
-        <v>23.31902421663605</v>
+        <v>24.40747396463021</v>
       </c>
       <c r="F28">
-        <v>27.55024456567142</v>
+        <v>28.22441525621961</v>
       </c>
       <c r="G28">
-        <v>24.22370303511311</v>
+        <v>25.35556872448477</v>
       </c>
       <c r="H28">
-        <v>23.98415085213973</v>
+        <v>25.57844615103196</v>
       </c>
       <c r="I28">
-        <v>21.57451964439346</v>
+        <v>22.18942206767995</v>
       </c>
       <c r="J28">
-        <v>31.05524636007494</v>
+        <v>32.64192717410317</v>
       </c>
       <c r="K28">
-        <v>28.21255264942162</v>
+        <v>29.14397902241581</v>
       </c>
       <c r="L28">
-        <v>22.29726842916807</v>
+        <v>22.7852271237325</v>
       </c>
       <c r="M28">
-        <v>24.07843042209711</v>
+        <v>25.58925198868412</v>
       </c>
       <c r="N28">
-        <v>30.95094039501009</v>
+        <v>32.43344242013639</v>
       </c>
       <c r="O28">
-        <v>22.43834812797752</v>
+        <v>24.11888080696194</v>
       </c>
       <c r="P28">
-        <v>32.87056453304492</v>
+        <v>34.11581034276354</v>
       </c>
       <c r="Q28">
-        <v>26.58134804781251</v>
+        <v>27.80544706376808</v>
       </c>
       <c r="R28">
-        <v>30.48592184271314</v>
+        <v>32.36066728346984</v>
       </c>
       <c r="S28">
-        <v>25.4298512181105</v>
+        <v>25.59028561977449</v>
       </c>
       <c r="T28">
-        <v>24.69336116314034</v>
+        <v>25.30562988736487</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>4.251006499270846</v>
+        <v>4.450459433692146</v>
       </c>
       <c r="C29">
-        <v>4.147728037384145</v>
+        <v>4.374886564917581</v>
       </c>
       <c r="D29">
-        <v>4.60267312704905</v>
+        <v>4.732504374217241</v>
       </c>
       <c r="E29">
-        <v>3.323357775021327</v>
+        <v>3.478480386461293</v>
       </c>
       <c r="F29">
-        <v>4.677318465856879</v>
+        <v>4.791775200080199</v>
       </c>
       <c r="G29">
-        <v>3.753742407029884</v>
+        <v>3.929138061075751</v>
       </c>
       <c r="H29">
-        <v>4.243460521298067</v>
+        <v>4.525535513314585</v>
       </c>
       <c r="I29">
-        <v>3.543883403662584</v>
+        <v>3.644888780777582</v>
       </c>
       <c r="J29">
-        <v>3.825635524909964</v>
+        <v>4.021095654849336</v>
       </c>
       <c r="K29">
-        <v>4.215135296172258</v>
+        <v>4.35429633662756</v>
       </c>
       <c r="L29">
-        <v>3.777708339715509</v>
+        <v>3.860380602273075</v>
       </c>
       <c r="M29">
-        <v>4.440664348898681</v>
+        <v>4.719297604915785</v>
       </c>
       <c r="N29">
-        <v>4.432005201155532</v>
+        <v>4.644291374119203</v>
       </c>
       <c r="O29">
-        <v>4.340599888206849</v>
+        <v>4.665691553463279</v>
       </c>
       <c r="P29">
-        <v>4.184513583561594</v>
+        <v>4.343036811856084</v>
       </c>
       <c r="Q29">
-        <v>3.593896327140831</v>
+        <v>3.759399030374178</v>
       </c>
       <c r="R29">
-        <v>4.102829755158477</v>
+        <v>4.355135111623293</v>
       </c>
       <c r="S29">
-        <v>4.309886725615546</v>
+        <v>4.337077372235266</v>
       </c>
       <c r="T29">
-        <v>4.341995850726962</v>
+        <v>4.449655081179603</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>9.801811750000256</v>
+        <v>10.26170286437942</v>
       </c>
       <c r="C30">
-        <v>14.36661038478381</v>
+        <v>15.15342621051771</v>
       </c>
       <c r="D30">
-        <v>16.02154282725977</v>
+        <v>16.47347517817937</v>
       </c>
       <c r="E30">
-        <v>10.01349264917542</v>
+        <v>10.48088714430017</v>
       </c>
       <c r="F30">
-        <v>12.28724770680523</v>
+        <v>12.58792388598352</v>
       </c>
       <c r="G30">
-        <v>13.43971116886351</v>
+        <v>14.06768897741951</v>
       </c>
       <c r="H30">
-        <v>13.41989390496092</v>
+        <v>14.31195274399223</v>
       </c>
       <c r="I30">
-        <v>11.54909049940596</v>
+        <v>11.87825489573518</v>
       </c>
       <c r="J30">
-        <v>17.99237243666878</v>
+        <v>18.91164230215646</v>
       </c>
       <c r="K30">
-        <v>13.60075404244827</v>
+        <v>14.04977760884305</v>
       </c>
       <c r="L30">
-        <v>10.47824852699405</v>
+        <v>10.7075569953742</v>
       </c>
       <c r="M30">
-        <v>11.26276517077467</v>
+        <v>11.96945693685406</v>
       </c>
       <c r="N30">
-        <v>17.98012746197497</v>
+        <v>18.84134767157817</v>
       </c>
       <c r="O30">
-        <v>15.72043507022969</v>
+        <v>16.89782587960185</v>
       </c>
       <c r="P30">
-        <v>20.62922212865578</v>
+        <v>21.41072536044964</v>
       </c>
       <c r="Q30">
-        <v>15.7295110046702</v>
+        <v>16.45387151895433</v>
       </c>
       <c r="R30">
-        <v>18.39071990960831</v>
+        <v>19.52166548116277</v>
       </c>
       <c r="S30">
-        <v>10.99824870118111</v>
+        <v>11.06763555817023</v>
       </c>
       <c r="T30">
-        <v>16.561331967041</v>
+        <v>16.97196806991609</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.533175221696666</v>
+        <v>1.605110255670826</v>
       </c>
       <c r="C31">
-        <v>1.940530305775225</v>
+        <v>2.046807285104832</v>
       </c>
       <c r="D31">
-        <v>1.63047599086423</v>
+        <v>1.676468118814323</v>
       </c>
       <c r="E31">
-        <v>2.659967445974449</v>
+        <v>2.784125338232139</v>
       </c>
       <c r="F31">
-        <v>2.583509465171844</v>
+        <v>2.646729461496048</v>
       </c>
       <c r="G31">
-        <v>1.54318824341078</v>
+        <v>1.615294552773412</v>
       </c>
       <c r="H31">
-        <v>1.842165802177087</v>
+        <v>1.964619846779169</v>
       </c>
       <c r="I31">
-        <v>1.350675980171248</v>
+        <v>1.389172036953582</v>
       </c>
       <c r="J31">
-        <v>3.103593247198801</v>
+        <v>3.262162649701073</v>
       </c>
       <c r="K31">
-        <v>1.762946107538369</v>
+        <v>1.821149082615932</v>
       </c>
       <c r="L31">
-        <v>1.275266774908352</v>
+        <v>1.303175014551359</v>
       </c>
       <c r="M31">
-        <v>1.948594848862069</v>
+        <v>2.070861087590796</v>
       </c>
       <c r="N31">
-        <v>3.614523258969994</v>
+        <v>3.787653315210646</v>
       </c>
       <c r="O31">
-        <v>1.075526017548448</v>
+        <v>1.156078142387553</v>
       </c>
       <c r="P31">
-        <v>2.683095932656722</v>
+        <v>2.784740489562795</v>
       </c>
       <c r="Q31">
-        <v>2.395930884760554</v>
+        <v>2.506266020249452</v>
       </c>
       <c r="R31">
-        <v>1.300186985521159</v>
+        <v>1.380142567504639</v>
       </c>
       <c r="S31">
-        <v>1.076471986023107</v>
+        <v>1.083263340699326</v>
       </c>
       <c r="T31">
-        <v>1.402836456487229</v>
+        <v>1.437619606575002</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.638271910280712</v>
+        <v>1.715137974809553</v>
       </c>
       <c r="C32">
-        <v>2.073475290666076</v>
+        <v>2.187033264973793</v>
       </c>
       <c r="D32">
-        <v>1.742022383252322</v>
+        <v>1.791160988660427</v>
       </c>
       <c r="E32">
-        <v>2.842186248802776</v>
+        <v>2.974849471651306</v>
       </c>
       <c r="F32">
-        <v>2.76005726721358</v>
+        <v>2.827597492105395</v>
       </c>
       <c r="G32">
-        <v>1.648561809759463</v>
+        <v>1.725591756277979</v>
       </c>
       <c r="H32">
-        <v>1.969349633069904</v>
+        <v>2.100257951702264</v>
       </c>
       <c r="I32">
-        <v>1.443346716375107</v>
+        <v>1.484484012044737</v>
       </c>
       <c r="J32">
-        <v>3.316046016154967</v>
+        <v>3.485470097717949</v>
       </c>
       <c r="K32">
-        <v>1.883621663824454</v>
+        <v>1.945808695116189</v>
       </c>
       <c r="L32">
-        <v>1.363159023374077</v>
+        <v>1.392990717764911</v>
       </c>
       <c r="M32">
-        <v>2.081839005539335</v>
+        <v>2.212465762042716</v>
       </c>
       <c r="N32">
-        <v>3.862900527900454</v>
+        <v>4.047927469970272</v>
       </c>
       <c r="O32">
-        <v>1.149375137818393</v>
+        <v>1.235458233975887</v>
       </c>
       <c r="P32">
-        <v>2.867096890376857</v>
+        <v>2.975712012736859</v>
       </c>
       <c r="Q32">
-        <v>2.560744777344992</v>
+        <v>2.678669765815219</v>
       </c>
       <c r="R32">
-        <v>1.389122293852812</v>
+        <v>1.474546992521602</v>
       </c>
       <c r="S32">
-        <v>1.150049566048461</v>
+        <v>1.157305114357824</v>
       </c>
       <c r="T32">
-        <v>1.499470841697674</v>
+        <v>1.536650028977717</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.754151456717196</v>
+        <v>2.883373463311909</v>
       </c>
       <c r="C33">
-        <v>3.745005802451627</v>
+        <v>3.950108450460728</v>
       </c>
       <c r="D33">
-        <v>4.056016693430815</v>
+        <v>4.170427969510449</v>
       </c>
       <c r="E33">
-        <v>3.461445461539669</v>
+        <v>3.623013518818007</v>
       </c>
       <c r="F33">
-        <v>4.162054518721492</v>
+        <v>4.26390244106197</v>
       </c>
       <c r="G33">
-        <v>2.968022118821228</v>
+        <v>3.10670456537865</v>
       </c>
       <c r="H33">
-        <v>4.875380184224641</v>
+        <v>5.199460688718642</v>
       </c>
       <c r="I33">
-        <v>2.959285509443238</v>
+        <v>3.043629071244213</v>
       </c>
       <c r="J33">
-        <v>6.089817482177064</v>
+        <v>6.400959646301914</v>
       </c>
       <c r="K33">
-        <v>2.784820529678864</v>
+        <v>2.876760288467466</v>
       </c>
       <c r="L33">
-        <v>2.485028949545078</v>
+        <v>2.539411910669975</v>
       </c>
       <c r="M33">
-        <v>3.964215546234521</v>
+        <v>4.212953617481649</v>
       </c>
       <c r="N33">
-        <v>4.837016783825922</v>
+        <v>5.068702383231746</v>
       </c>
       <c r="O33">
-        <v>2.478659302677395</v>
+        <v>2.664299882565909</v>
       </c>
       <c r="P33">
-        <v>5.161076043592637</v>
+        <v>5.356594690997124</v>
       </c>
       <c r="Q33">
-        <v>6.407310336505767</v>
+        <v>6.702373711912122</v>
       </c>
       <c r="R33">
-        <v>5.742230173342845</v>
+        <v>6.095351194015644</v>
       </c>
       <c r="S33">
-        <v>2.071368828974626</v>
+        <v>2.08443688886423</v>
       </c>
       <c r="T33">
-        <v>2.69921130214939</v>
+        <v>2.766137900333453</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.523794227727964</v>
+        <v>4.736046087044869</v>
       </c>
       <c r="C34">
-        <v>4.221586362323506</v>
+        <v>4.452789887067003</v>
       </c>
       <c r="D34">
-        <v>7.497341564978316</v>
+        <v>7.708825017954072</v>
       </c>
       <c r="E34">
-        <v>4.664374277086048</v>
+        <v>4.882090805842976</v>
       </c>
       <c r="F34">
-        <v>6.183167365624635</v>
+        <v>6.334473108218742</v>
       </c>
       <c r="G34">
-        <v>3.443730320525789</v>
+        <v>3.604640491344922</v>
       </c>
       <c r="H34">
-        <v>4.749796149946828</v>
+        <v>5.065528723480115</v>
       </c>
       <c r="I34">
-        <v>3.583268466549223</v>
+        <v>3.685396370191322</v>
       </c>
       <c r="J34">
-        <v>5.206578523125036</v>
+        <v>5.472594066959029</v>
       </c>
       <c r="K34">
-        <v>5.53637792525323</v>
+        <v>5.719159273489347</v>
       </c>
       <c r="L34">
-        <v>4.014022403986562</v>
+        <v>4.101866219403854</v>
       </c>
       <c r="M34">
-        <v>4.687771694009247</v>
+        <v>4.98190991026298</v>
       </c>
       <c r="N34">
-        <v>5.439685952882412</v>
+        <v>5.700238470456302</v>
       </c>
       <c r="O34">
-        <v>4.936892252939698</v>
+        <v>5.306643569586108</v>
       </c>
       <c r="P34">
-        <v>5.987572148761768</v>
+        <v>6.214401204926529</v>
       </c>
       <c r="Q34">
-        <v>5.926489641610671</v>
+        <v>6.199410718650009</v>
       </c>
       <c r="R34">
-        <v>5.794961727840374</v>
+        <v>6.151325499114198</v>
       </c>
       <c r="S34">
-        <v>2.402467939088717</v>
+        <v>2.41762487032747</v>
       </c>
       <c r="T34">
-        <v>3.13160922919274</v>
+        <v>3.20925707854221</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>111.8893348535586</v>
+        <v>117.1390695154128</v>
       </c>
       <c r="C35">
-        <v>103.5555912134008</v>
+        <v>109.2270179332506</v>
       </c>
       <c r="D35">
-        <v>114.6736469207874</v>
+        <v>117.9083373248387</v>
       </c>
       <c r="E35">
-        <v>87.87857662495354</v>
+        <v>91.98043842212417</v>
       </c>
       <c r="F35">
-        <v>105.2121048520493</v>
+        <v>107.7867069472523</v>
       </c>
       <c r="G35">
-        <v>93.88479331040529</v>
+        <v>98.27161130217816</v>
       </c>
       <c r="H35">
-        <v>105.0930393345342</v>
+        <v>112.0788750887484</v>
       </c>
       <c r="I35">
-        <v>104.6329837355074</v>
+        <v>107.6151625425048</v>
       </c>
       <c r="J35">
-        <v>90.700246981744</v>
+        <v>95.33432201193185</v>
       </c>
       <c r="K35">
-        <v>107.7338764356598</v>
+        <v>111.2906681596844</v>
       </c>
       <c r="L35">
-        <v>113.8204617631141</v>
+        <v>116.3113356615507</v>
       </c>
       <c r="M35">
-        <v>97.05262110268964</v>
+        <v>103.1422702403335</v>
       </c>
       <c r="N35">
-        <v>103.6605888330854</v>
+        <v>108.6257702107605</v>
       </c>
       <c r="O35">
-        <v>107.5329610313687</v>
+        <v>115.586702512269</v>
       </c>
       <c r="P35">
-        <v>103.8496880758727</v>
+        <v>107.7838580773359</v>
       </c>
       <c r="Q35">
-        <v>106.8341359010045</v>
+        <v>111.7539601473766</v>
       </c>
       <c r="R35">
-        <v>111.9294142450831</v>
+        <v>118.8125637894913</v>
       </c>
       <c r="S35">
-        <v>99.7991899850412</v>
+        <v>100.4288131469887</v>
       </c>
       <c r="T35">
-        <v>107.4246789352999</v>
+        <v>110.0882600771059</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>8.638020477885751</v>
+        <v>9.04330768038735</v>
       </c>
       <c r="C36">
-        <v>13.96622051800727</v>
+        <v>14.73110820097084</v>
       </c>
       <c r="D36">
-        <v>8.164246591809247</v>
+        <v>8.39454196320418</v>
       </c>
       <c r="E36">
-        <v>7.111515855694599</v>
+        <v>7.443456316370696</v>
       </c>
       <c r="F36">
-        <v>7.390243061937144</v>
+        <v>7.571086656864545</v>
       </c>
       <c r="G36">
-        <v>6.119302613901035</v>
+        <v>6.405230354243503</v>
       </c>
       <c r="H36">
-        <v>13.51748149847616</v>
+        <v>14.41602726475084</v>
       </c>
       <c r="I36">
-        <v>10.77142857142857</v>
+        <v>11.07842857142857</v>
       </c>
       <c r="J36">
-        <v>7.764925852792979</v>
+        <v>8.161652986434971</v>
       </c>
       <c r="K36">
-        <v>7.638917425160773</v>
+        <v>7.891113291282283</v>
       </c>
       <c r="L36">
-        <v>13.54784384605173</v>
+        <v>13.84432806420978</v>
       </c>
       <c r="M36">
-        <v>9.78173618079828</v>
+        <v>10.39549952506727</v>
       </c>
       <c r="N36">
-        <v>10.72795873581622</v>
+        <v>11.24181131503812</v>
       </c>
       <c r="O36">
-        <v>6.75798013363897</v>
+        <v>7.26412284939206</v>
       </c>
       <c r="P36">
-        <v>14.03610584444619</v>
+        <v>14.56784000343797</v>
       </c>
       <c r="Q36">
-        <v>9.320157520735696</v>
+        <v>9.749360570526934</v>
       </c>
       <c r="R36">
-        <v>15.02613191741524</v>
+        <v>15.95017064091922</v>
       </c>
       <c r="S36">
-        <v>7.358557758839977</v>
+        <v>7.404982167737368</v>
       </c>
       <c r="T36">
-        <v>7.43347724199333</v>
+        <v>7.617789357198652</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>23.7209408292343</v>
+        <v>24.83390343148775</v>
       </c>
       <c r="C37">
-        <v>23.23816139407912</v>
+        <v>24.51084525311837</v>
       </c>
       <c r="D37">
-        <v>24.97056971161502</v>
+        <v>25.67493435335046</v>
       </c>
       <c r="E37">
-        <v>23.36457891734313</v>
+        <v>24.455154997985</v>
       </c>
       <c r="F37">
-        <v>26.77774807438472</v>
+        <v>27.43301532138143</v>
       </c>
       <c r="G37">
-        <v>28.34319861809241</v>
+        <v>29.66754997743507</v>
       </c>
       <c r="H37">
-        <v>24.07453936088745</v>
+        <v>25.67484304321</v>
       </c>
       <c r="I37">
-        <v>25.68755581957474</v>
+        <v>26.41968522880904</v>
       </c>
       <c r="J37">
-        <v>19.29680272438565</v>
+        <v>20.28271880116916</v>
       </c>
       <c r="K37">
-        <v>28.24117441597666</v>
+        <v>29.17354572538062</v>
       </c>
       <c r="L37">
-        <v>25.87182959082601</v>
+        <v>26.43801482706859</v>
       </c>
       <c r="M37">
-        <v>31.53283533293249</v>
+        <v>33.51138986665786</v>
       </c>
       <c r="N37">
-        <v>17.88689275141548</v>
+        <v>18.74364716303477</v>
       </c>
       <c r="O37">
-        <v>27.69342010122921</v>
+        <v>29.76753434562545</v>
       </c>
       <c r="P37">
-        <v>22.04014750527206</v>
+        <v>22.87510126150978</v>
       </c>
       <c r="Q37">
-        <v>20.2339700358829</v>
+        <v>21.16576562297078</v>
       </c>
       <c r="R37">
-        <v>25.5338779487064</v>
+        <v>27.10409522854297</v>
       </c>
       <c r="S37">
-        <v>32.34374447157986</v>
+        <v>32.5477979380105</v>
       </c>
       <c r="T37">
-        <v>27.01913789193412</v>
+        <v>27.68907395197258</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.200776464285824</v>
+        <v>4.397872656162607</v>
       </c>
       <c r="C38">
-        <v>4.995155134056819</v>
+        <v>5.268724682210957</v>
       </c>
       <c r="D38">
-        <v>4.774343816043489</v>
+        <v>4.909017514335003</v>
       </c>
       <c r="E38">
-        <v>3.489205357283047</v>
+        <v>3.652069148518582</v>
       </c>
       <c r="F38">
-        <v>3.900827680406342</v>
+        <v>3.996283228350403</v>
       </c>
       <c r="G38">
-        <v>3.400970032732121</v>
+        <v>3.559882205864807</v>
       </c>
       <c r="H38">
-        <v>4.941771743747307</v>
+        <v>5.270265485628182</v>
       </c>
       <c r="I38">
-        <v>4.122303248801671</v>
+        <v>4.239794358638206</v>
       </c>
       <c r="J38">
-        <v>3.82637836675946</v>
+        <v>4.021876450122122</v>
       </c>
       <c r="K38">
-        <v>4.794532678597111</v>
+        <v>4.95282229664482</v>
       </c>
       <c r="L38">
-        <v>4.518988246586813</v>
+        <v>4.617882853904359</v>
       </c>
       <c r="M38">
-        <v>5.111730374346001</v>
+        <v>5.432470238064543</v>
       </c>
       <c r="N38">
-        <v>3.4444631469095</v>
+        <v>3.609447587627479</v>
       </c>
       <c r="O38">
-        <v>5.047665933344615</v>
+        <v>5.42571370696861</v>
       </c>
       <c r="P38">
-        <v>5.130911952163108</v>
+        <v>5.325287883919409</v>
       </c>
       <c r="Q38">
-        <v>3.817961495158518</v>
+        <v>3.99378263488301</v>
       </c>
       <c r="R38">
-        <v>4.874914157577519</v>
+        <v>5.174699190752865</v>
       </c>
       <c r="S38">
-        <v>3.796443178047317</v>
+        <v>3.820394560400966</v>
       </c>
       <c r="T38">
-        <v>5.80051991903038</v>
+        <v>5.944343066766338</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.452591652239236</v>
+        <v>7.802259730690248</v>
       </c>
       <c r="C39">
-        <v>12.18584615894266</v>
+        <v>12.85322811968475</v>
       </c>
       <c r="D39">
-        <v>9.45929229634333</v>
+        <v>9.726118047871354</v>
       </c>
       <c r="E39">
-        <v>12.19655932212261</v>
+        <v>12.76585166459933</v>
       </c>
       <c r="F39">
-        <v>8.948816644667591</v>
+        <v>9.167799451972396</v>
       </c>
       <c r="G39">
-        <v>6.423206087863179</v>
+        <v>6.723333883191461</v>
       </c>
       <c r="H39">
-        <v>9.864345928114565</v>
+        <v>10.52005729504156</v>
       </c>
       <c r="I39">
-        <v>7.070004916219427</v>
+        <v>7.271509432996023</v>
       </c>
       <c r="J39">
-        <v>11.575704540713</v>
+        <v>12.16713273582858</v>
       </c>
       <c r="K39">
-        <v>8.562549567504263</v>
+        <v>8.845238786957328</v>
       </c>
       <c r="L39">
-        <v>6.86222875756926</v>
+        <v>7.012403394295868</v>
       </c>
       <c r="M39">
-        <v>5.87324091826516</v>
+        <v>6.241762407810967</v>
       </c>
       <c r="N39">
-        <v>12.06382566871248</v>
+        <v>12.64166420144799</v>
       </c>
       <c r="O39">
-        <v>8.847753111490592</v>
+        <v>9.510410547530038</v>
       </c>
       <c r="P39">
-        <v>9.71811615630893</v>
+        <v>10.08627057026299</v>
       </c>
       <c r="Q39">
-        <v>6.931037127404251</v>
+        <v>7.250218671995074</v>
       </c>
       <c r="R39">
-        <v>9.246123913984613</v>
+        <v>9.81471845220611</v>
       </c>
       <c r="S39">
-        <v>5.647079266945884</v>
+        <v>5.682706128289703</v>
       </c>
       <c r="T39">
-        <v>3.907960052747844</v>
+        <v>4.004857421235206</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.046851604600494</v>
+        <v>8.424401760232014</v>
       </c>
       <c r="C40">
-        <v>7.428592576795784</v>
+        <v>7.835434138291936</v>
       </c>
       <c r="D40">
-        <v>9.056617730913977</v>
+        <v>9.312084921973009</v>
       </c>
       <c r="E40">
-        <v>9.425552293174645</v>
+        <v>9.865503807564886</v>
       </c>
       <c r="F40">
-        <v>6.920514068269536</v>
+        <v>7.089863118410719</v>
       </c>
       <c r="G40">
-        <v>8.002282429957932</v>
+        <v>8.376193425564253</v>
       </c>
       <c r="H40">
-        <v>8.017380736092464</v>
+        <v>8.550319029208687</v>
       </c>
       <c r="I40">
-        <v>8.172786677045352</v>
+        <v>8.405721936580768</v>
       </c>
       <c r="J40">
-        <v>10.78234944545012</v>
+        <v>11.33324338449284</v>
       </c>
       <c r="K40">
-        <v>8.788429454911549</v>
+        <v>9.078576010355244</v>
       </c>
       <c r="L40">
-        <v>8.595198562223652</v>
+        <v>8.783297919921575</v>
       </c>
       <c r="M40">
-        <v>8.336238965935824</v>
+        <v>8.859303359800991</v>
       </c>
       <c r="N40">
-        <v>9.770997666633702</v>
+        <v>10.23901329534863</v>
       </c>
       <c r="O40">
-        <v>8.992308836274313</v>
+        <v>9.665792854468904</v>
       </c>
       <c r="P40">
-        <v>7.413579571092813</v>
+        <v>7.69443050952553</v>
       </c>
       <c r="Q40">
-        <v>8.069751294351281</v>
+        <v>8.441371823176736</v>
       </c>
       <c r="R40">
-        <v>7.794038569985497</v>
+        <v>8.273336468522057</v>
       </c>
       <c r="S40">
-        <v>6.357262865451469</v>
+        <v>6.397370204471724</v>
       </c>
       <c r="T40">
-        <v>6.707900417447106</v>
+        <v>6.874221948310472</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>10.74613640771867</v>
+        <v>11.25033428193474</v>
       </c>
       <c r="C41">
-        <v>11.21558100605505</v>
+        <v>11.82982447713234</v>
       </c>
       <c r="D41">
-        <v>7.741003188067197</v>
+        <v>7.959359797476057</v>
       </c>
       <c r="E41">
-        <v>6.680881575572966</v>
+        <v>6.992721547938681</v>
       </c>
       <c r="F41">
-        <v>7.679429959399174</v>
+        <v>7.867350127817411</v>
       </c>
       <c r="G41">
-        <v>16.75286989630506</v>
+        <v>17.53565684703051</v>
       </c>
       <c r="H41">
-        <v>10.18350535280786</v>
+        <v>10.86043216211272</v>
       </c>
       <c r="I41">
-        <v>5.946372239747634</v>
+        <v>6.115851735015771</v>
       </c>
       <c r="J41">
-        <v>5.036467739590204</v>
+        <v>5.29379194949097</v>
       </c>
       <c r="K41">
-        <v>7.424640956627149</v>
+        <v>7.669762569086315</v>
       </c>
       <c r="L41">
-        <v>6.64996068580298</v>
+        <v>6.795489997855589</v>
       </c>
       <c r="M41">
-        <v>5.87324091826516</v>
+        <v>6.241762407810967</v>
       </c>
       <c r="N41">
-        <v>7.703424725266633</v>
+        <v>8.072406817890124</v>
       </c>
       <c r="O41">
-        <v>10.88410332148736</v>
+        <v>11.69927434962539</v>
       </c>
       <c r="P41">
-        <v>4.446187076712769</v>
+        <v>4.614623363255267</v>
       </c>
       <c r="Q41">
-        <v>6.066785765050316</v>
+        <v>6.346167626032439</v>
       </c>
       <c r="R41">
-        <v>6.584360969049649</v>
+        <v>6.989269200813442</v>
       </c>
       <c r="S41">
-        <v>5.062457408266172</v>
+        <v>5.094395948459683</v>
       </c>
       <c r="T41">
-        <v>7.196804891774528</v>
+        <v>7.375248746398783</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.01137603305361</v>
+        <v>6.293423729265807</v>
       </c>
       <c r="C42">
-        <v>6.03383641951984</v>
+        <v>6.364291402122839</v>
       </c>
       <c r="D42">
-        <v>7.0907114537196</v>
+        <v>7.290724769011536</v>
       </c>
       <c r="E42">
-        <v>7.335730398237266</v>
+        <v>7.678136402413812</v>
       </c>
       <c r="F42">
-        <v>4.799543867270389</v>
+        <v>4.916991528963591</v>
       </c>
       <c r="G42">
-        <v>5.881066724764883</v>
+        <v>6.155862763711438</v>
       </c>
       <c r="H42">
-        <v>5.359318660263346</v>
+        <v>5.715567943300231</v>
       </c>
       <c r="I42">
-        <v>4.526193207423491</v>
+        <v>4.655195716743822</v>
       </c>
       <c r="J42">
-        <v>5.208807048673527</v>
+        <v>5.474936452777387</v>
       </c>
       <c r="K42">
-        <v>6.176886647079369</v>
+        <v>6.380814139836865</v>
       </c>
       <c r="L42">
-        <v>4.596930429188493</v>
+        <v>4.697530741659773</v>
       </c>
       <c r="M42">
-        <v>6.722773359625664</v>
+        <v>7.144599483710476</v>
       </c>
       <c r="N42">
-        <v>4.569246695099089</v>
+        <v>4.788106522695093</v>
       </c>
       <c r="O42">
-        <v>7.359771900945113</v>
+        <v>7.910986148931042</v>
       </c>
       <c r="P42">
-        <v>5.254584727024181</v>
+        <v>5.453645792938042</v>
       </c>
       <c r="Q42">
-        <v>4.680850759226631</v>
+        <v>4.896408856502127</v>
       </c>
       <c r="R42">
-        <v>4.083940840114586</v>
+        <v>4.335084614274558</v>
       </c>
       <c r="S42">
-        <v>5.198415980052151</v>
+        <v>5.231212269350385</v>
       </c>
       <c r="T42">
-        <v>6.120723686973466</v>
+        <v>6.272486246083809</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2025.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2025.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>145.6006515690921</v>
+        <v>142.9875905413673</v>
       </c>
       <c r="C2">
-        <v>136.8810572263557</v>
+        <v>136.5264109702337</v>
       </c>
       <c r="D2">
-        <v>132.9453046438109</v>
+        <v>131.5623203472529</v>
       </c>
       <c r="E2">
-        <v>113.2022233457374</v>
+        <v>113.1731813274206</v>
       </c>
       <c r="F2">
-        <v>137.5726434813119</v>
+        <v>136.575142707384</v>
       </c>
       <c r="G2">
-        <v>143.906679624644</v>
+        <v>142.8589219689051</v>
       </c>
       <c r="H2">
-        <v>159.88405598048</v>
+        <v>159.1672110565004</v>
       </c>
       <c r="I2">
-        <v>149.9479762792412</v>
+        <v>148.7313063637672</v>
       </c>
       <c r="J2">
-        <v>131.688149912861</v>
+        <v>131.5269518769482</v>
       </c>
       <c r="K2">
-        <v>133.2131797579668</v>
+        <v>132.2651693647879</v>
       </c>
       <c r="L2">
-        <v>176.2158677511258</v>
+        <v>174.2472163766265</v>
       </c>
       <c r="M2">
-        <v>153.1441681045285</v>
+        <v>152.3776216085737</v>
       </c>
       <c r="N2">
-        <v>114.0532288613636</v>
+        <v>113.2489992618387</v>
       </c>
       <c r="O2">
-        <v>148.6510440659887</v>
+        <v>148.7319039237757</v>
       </c>
       <c r="P2">
-        <v>122.2476029472405</v>
+        <v>121.8693990691391</v>
       </c>
       <c r="Q2">
-        <v>119.3682214391407</v>
+        <v>116.3220696597246</v>
       </c>
       <c r="R2">
-        <v>142.1956208850648</v>
+        <v>142.0576640453646</v>
       </c>
       <c r="S2">
-        <v>173.7293642670139</v>
+        <v>159.7786281127243</v>
       </c>
       <c r="T2">
-        <v>159.5396889725089</v>
+        <v>154.3106477558969</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>14.76879421233414</v>
+        <v>14.50374209775329</v>
       </c>
       <c r="C3">
-        <v>12.47519199851755</v>
+        <v>12.44286992104149</v>
       </c>
       <c r="D3">
-        <v>11.13659631959578</v>
+        <v>11.02074613693328</v>
       </c>
       <c r="E3">
-        <v>12.61535840307327</v>
+        <v>12.61212193422145</v>
       </c>
       <c r="F3">
-        <v>17.88711166062388</v>
+        <v>17.75741721503281</v>
       </c>
       <c r="G3">
-        <v>11.63235869424257</v>
+        <v>11.54766566325899</v>
       </c>
       <c r="H3">
-        <v>11.88582211253763</v>
+        <v>11.83253167531144</v>
       </c>
       <c r="I3">
-        <v>13.25551293580236</v>
+        <v>13.14795840786973</v>
       </c>
       <c r="J3">
-        <v>12.57158468713187</v>
+        <v>12.55619594667787</v>
       </c>
       <c r="K3">
-        <v>13.48960845267202</v>
+        <v>13.39360977569215</v>
       </c>
       <c r="L3">
-        <v>16.35069457464081</v>
+        <v>16.16802761190255</v>
       </c>
       <c r="M3">
-        <v>14.6110277729935</v>
+        <v>14.53789386080925</v>
       </c>
       <c r="N3">
-        <v>11.13629476581124</v>
+        <v>11.05776881815407</v>
       </c>
       <c r="O3">
-        <v>15.09910678297257</v>
+        <v>15.1073200561107</v>
       </c>
       <c r="P3">
-        <v>9.988436798145134</v>
+        <v>9.957535042673829</v>
       </c>
       <c r="Q3">
-        <v>8.8189502742092</v>
+        <v>8.593899915357527</v>
       </c>
       <c r="R3">
-        <v>10.25415851909923</v>
+        <v>10.24421003197794</v>
       </c>
       <c r="S3">
-        <v>19.55105225528137</v>
+        <v>17.98107257623902</v>
       </c>
       <c r="T3">
-        <v>19.99407443493453</v>
+        <v>19.33875261513145</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.79468308742561</v>
+        <v>14.52916635122511</v>
       </c>
       <c r="C4">
-        <v>11.4977103142848</v>
+        <v>11.46792080213782</v>
       </c>
       <c r="D4">
-        <v>10.97147112400174</v>
+        <v>10.85733868197766</v>
       </c>
       <c r="E4">
-        <v>13.54960865036872</v>
+        <v>13.54613249971568</v>
       </c>
       <c r="F4">
-        <v>13.20336623448229</v>
+        <v>13.10763231744712</v>
       </c>
       <c r="G4">
-        <v>12.41642794524243</v>
+        <v>12.32602625248924</v>
       </c>
       <c r="H4">
-        <v>12.37889648137756</v>
+        <v>12.32339533054219</v>
       </c>
       <c r="I4">
-        <v>13.65264616534884</v>
+        <v>13.54186931948426</v>
       </c>
       <c r="J4">
-        <v>13.31724417264277</v>
+        <v>13.30094267850058</v>
       </c>
       <c r="K4">
-        <v>12.19586542294179</v>
+        <v>12.10907365657328</v>
       </c>
       <c r="L4">
-        <v>13.42405835860675</v>
+        <v>13.27408723922745</v>
       </c>
       <c r="M4">
-        <v>15.64774563201119</v>
+        <v>15.56942254121204</v>
       </c>
       <c r="N4">
-        <v>11.27932831031878</v>
+        <v>11.19979378262081</v>
       </c>
       <c r="O4">
-        <v>19.21420450967421</v>
+        <v>19.2246562212912</v>
       </c>
       <c r="P4">
-        <v>10.29602617768369</v>
+        <v>10.26417281667248</v>
       </c>
       <c r="Q4">
-        <v>10.41047906591963</v>
+        <v>10.14481456200982</v>
       </c>
       <c r="R4">
-        <v>12.82312849190599</v>
+        <v>12.81068761453719</v>
       </c>
       <c r="S4">
-        <v>15.26387260007683</v>
+        <v>14.03816006590167</v>
       </c>
       <c r="T4">
-        <v>12.52986615654686</v>
+        <v>12.11918974747786</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.39230109901613</v>
+        <v>21.00837844693468</v>
       </c>
       <c r="C5">
-        <v>16.76889510140574</v>
+        <v>16.72544843327269</v>
       </c>
       <c r="D5">
-        <v>15.09390704159077</v>
+        <v>14.93689031604222</v>
       </c>
       <c r="E5">
-        <v>14.58443607739694</v>
+        <v>14.58069444187794</v>
       </c>
       <c r="F5">
-        <v>15.04723805784364</v>
+        <v>14.93813474174566</v>
       </c>
       <c r="G5">
-        <v>16.98417082950767</v>
+        <v>16.86051225396822</v>
       </c>
       <c r="H5">
-        <v>17.3855633857401</v>
+        <v>17.30761469481426</v>
       </c>
       <c r="I5">
-        <v>19.39360413167274</v>
+        <v>19.23624545778388</v>
       </c>
       <c r="J5">
-        <v>13.93953800505344</v>
+        <v>13.92247476778089</v>
       </c>
       <c r="K5">
-        <v>17.65371897022868</v>
+        <v>17.52808643827918</v>
       </c>
       <c r="L5">
-        <v>22.78946371350673</v>
+        <v>22.53486400216256</v>
       </c>
       <c r="M5">
-        <v>16.19785833700319</v>
+        <v>16.11678171682313</v>
       </c>
       <c r="N5">
-        <v>17.0608536038832</v>
+        <v>16.94055149934496</v>
       </c>
       <c r="O5">
-        <v>25.15504434290754</v>
+        <v>25.16872761920724</v>
       </c>
       <c r="P5">
-        <v>13.28113023254386</v>
+        <v>13.24004169715814</v>
       </c>
       <c r="Q5">
-        <v>12.53560457427782</v>
+        <v>12.21570909690856</v>
       </c>
       <c r="R5">
-        <v>17.68620953636392</v>
+        <v>17.66905054399324</v>
       </c>
       <c r="S5">
-        <v>22.82901034344508</v>
+        <v>20.99580556940666</v>
       </c>
       <c r="T5">
-        <v>25.63796927102144</v>
+        <v>24.79766427298735</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>26.23999295989293</v>
+        <v>25.76906990953329</v>
       </c>
       <c r="C6">
-        <v>26.45350809703397</v>
+        <v>26.38496948549776</v>
       </c>
       <c r="D6">
-        <v>26.29069678224053</v>
+        <v>26.01720370256523</v>
       </c>
       <c r="E6">
-        <v>19.47919215772478</v>
+        <v>19.47419477305581</v>
       </c>
       <c r="F6">
-        <v>19.15073265275434</v>
+        <v>19.0118760446453</v>
       </c>
       <c r="G6">
-        <v>27.68140105925499</v>
+        <v>27.4798579484205</v>
       </c>
       <c r="H6">
-        <v>26.74203341590681</v>
+        <v>26.62213471310292</v>
       </c>
       <c r="I6">
-        <v>27.80091460117169</v>
+        <v>27.57533945666345</v>
       </c>
       <c r="J6">
-        <v>21.04477498740857</v>
+        <v>21.01901430661504</v>
       </c>
       <c r="K6">
-        <v>23.48395315485608</v>
+        <v>23.31682981387601</v>
       </c>
       <c r="L6">
-        <v>29.27568265784395</v>
+        <v>28.94862009736462</v>
       </c>
       <c r="M6">
-        <v>31.78467104849264</v>
+        <v>31.62557633062739</v>
       </c>
       <c r="N6">
-        <v>21.01264377344676</v>
+        <v>20.86447620067757</v>
       </c>
       <c r="O6">
-        <v>28.73643762403655</v>
+        <v>28.75206902625229</v>
       </c>
       <c r="P6">
-        <v>28.45945297399728</v>
+        <v>28.37140645836905</v>
       </c>
       <c r="Q6">
-        <v>23.5708691148304</v>
+        <v>22.96936526371429</v>
       </c>
       <c r="R6">
-        <v>25.53597924839394</v>
+        <v>25.51120448406695</v>
       </c>
       <c r="S6">
-        <v>28.02239692407863</v>
+        <v>25.77215519005749</v>
       </c>
       <c r="T6">
-        <v>34.93927580906624</v>
+        <v>33.79411303194897</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.800641675997031</v>
+        <v>7.660645374228279</v>
       </c>
       <c r="C7">
-        <v>7.072801616197588</v>
+        <v>7.054476636362507</v>
       </c>
       <c r="D7">
-        <v>8.199320057083153</v>
+        <v>8.11402534952067</v>
       </c>
       <c r="E7">
-        <v>6.424274228412023</v>
+        <v>6.422626081544413</v>
       </c>
       <c r="F7">
-        <v>7.602186137240813</v>
+        <v>7.547064811055991</v>
       </c>
       <c r="G7">
-        <v>8.586397516301219</v>
+        <v>8.523881559735559</v>
       </c>
       <c r="H7">
-        <v>8.515343165675059</v>
+        <v>8.477164371130321</v>
       </c>
       <c r="I7">
-        <v>8.964091257323116</v>
+        <v>8.891357096963135</v>
       </c>
       <c r="J7">
-        <v>7.276231147095332</v>
+        <v>7.267324391472028</v>
       </c>
       <c r="K7">
-        <v>6.552620657064781</v>
+        <v>6.50598899121353</v>
       </c>
       <c r="L7">
-        <v>8.518087400055142</v>
+        <v>8.422924888970117</v>
       </c>
       <c r="M7">
-        <v>10.9027017226496</v>
+        <v>10.84812943363998</v>
       </c>
       <c r="N7">
-        <v>6.431819878429303</v>
+        <v>6.386466844791537</v>
       </c>
       <c r="O7">
-        <v>8.189660938549663</v>
+        <v>8.194115766451988</v>
       </c>
       <c r="P7">
-        <v>7.853312555444936</v>
+        <v>7.829016346825671</v>
       </c>
       <c r="Q7">
-        <v>7.071403216883474</v>
+        <v>6.890948425546394</v>
       </c>
       <c r="R7">
-        <v>7.579923435211613</v>
+        <v>7.572569465547977</v>
       </c>
       <c r="S7">
-        <v>8.010193187206827</v>
+        <v>7.366962308126083</v>
       </c>
       <c r="T7">
-        <v>9.877865014236876</v>
+        <v>9.554110068842222</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>211.67</v>
+        <v>225.817975148372</v>
       </c>
       <c r="C8">
-        <v>207.87</v>
+        <v>209.922336127104</v>
       </c>
       <c r="D8">
-        <v>208.28</v>
+        <v>216.515990960376</v>
       </c>
       <c r="E8">
-        <v>288.26</v>
+        <v>288.442596821033</v>
       </c>
       <c r="F8">
-        <v>216.28</v>
+        <v>221.962534599613</v>
       </c>
       <c r="G8">
-        <v>229.61</v>
+        <v>235.219065698063</v>
       </c>
       <c r="H8">
-        <v>174.55</v>
+        <v>178.250929644737</v>
       </c>
       <c r="I8">
-        <v>224.51</v>
+        <v>230.802284672078</v>
       </c>
       <c r="J8">
-        <v>258.98</v>
+        <v>259.887074544301</v>
       </c>
       <c r="K8">
-        <v>222.14</v>
+        <v>227.675633679625</v>
       </c>
       <c r="L8">
-        <v>170.23</v>
+        <v>179.500038344818</v>
       </c>
       <c r="M8">
-        <v>167.87</v>
+        <v>172.035136312886</v>
       </c>
       <c r="N8">
-        <v>257.04</v>
+        <v>262.27887336841</v>
       </c>
       <c r="O8">
-        <v>176.63</v>
+        <v>176.182121671769</v>
       </c>
       <c r="P8">
-        <v>235.08</v>
+        <v>237.446473480565</v>
       </c>
       <c r="Q8">
-        <v>303.33</v>
+        <v>321.108287508856</v>
       </c>
       <c r="R8">
-        <v>183.71</v>
+        <v>184.501956798514</v>
       </c>
       <c r="S8">
-        <v>231.18</v>
+        <v>292.917432905448</v>
       </c>
       <c r="T8">
-        <v>200.66</v>
+        <v>226.859009368803</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>8.913863304930024</v>
+        <v>8.753888273516614</v>
       </c>
       <c r="C9">
-        <v>7.589423647293762</v>
+        <v>7.569760147192466</v>
       </c>
       <c r="D9">
-        <v>8.729672902045277</v>
+        <v>8.638861116176173</v>
       </c>
       <c r="E9">
-        <v>8.850046800337054</v>
+        <v>8.847776321775029</v>
       </c>
       <c r="F9">
-        <v>11.66476036323537</v>
+        <v>11.58018244719357</v>
       </c>
       <c r="G9">
-        <v>10.60611514859138</v>
+        <v>10.52889400518392</v>
       </c>
       <c r="H9">
-        <v>7.821797383898479</v>
+        <v>7.78672812250991</v>
       </c>
       <c r="I9">
-        <v>7.427185658978245</v>
+        <v>7.366921869014911</v>
       </c>
       <c r="J9">
-        <v>7.337913973645447</v>
+        <v>7.328931712743224</v>
       </c>
       <c r="K9">
-        <v>5.901354091758953</v>
+        <v>5.859357158550234</v>
       </c>
       <c r="L9">
-        <v>9.303551144196307</v>
+        <v>9.199613576135668</v>
       </c>
       <c r="M9">
-        <v>8.9236691209155</v>
+        <v>8.879002664592926</v>
       </c>
       <c r="N9">
-        <v>6.206717906745303</v>
+        <v>6.162952146614364</v>
       </c>
       <c r="O9">
-        <v>9.099998584637158</v>
+        <v>9.10494859757544</v>
       </c>
       <c r="P9">
-        <v>10.52378319917407</v>
+        <v>10.49122521421347</v>
       </c>
       <c r="Q9">
-        <v>6.028431797427761</v>
+        <v>5.874592542511947</v>
       </c>
       <c r="R9">
-        <v>4.825486361929051</v>
+        <v>4.820804720930796</v>
       </c>
       <c r="S9">
-        <v>6.403808619572463</v>
+        <v>5.889572901211619</v>
       </c>
       <c r="T9">
-        <v>6.68203578957978</v>
+        <v>6.463026709271179</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>21.59860307240124</v>
+        <v>21.21097796678826</v>
       </c>
       <c r="C10">
-        <v>26.05005089179696</v>
+        <v>25.9825576008496</v>
       </c>
       <c r="D10">
-        <v>22.96297670748585</v>
+        <v>22.72410075565164</v>
       </c>
       <c r="E10">
-        <v>20.5162546331915</v>
+        <v>20.51099119025514</v>
       </c>
       <c r="F10">
-        <v>18.51974056406743</v>
+        <v>18.3854591031743</v>
       </c>
       <c r="G10">
-        <v>22.57256247373909</v>
+        <v>22.40821586242685</v>
       </c>
       <c r="H10">
-        <v>24.80471180408071</v>
+        <v>24.69349914038834</v>
       </c>
       <c r="I10">
-        <v>20.22520111434307</v>
+        <v>20.0610949067047</v>
       </c>
       <c r="J10">
-        <v>21.13378564850621</v>
+        <v>21.10791601072791</v>
       </c>
       <c r="K10">
-        <v>21.36873524275236</v>
+        <v>21.21666483098061</v>
       </c>
       <c r="L10">
-        <v>21.96841261526208</v>
+        <v>21.72298553629048</v>
       </c>
       <c r="M10">
-        <v>17.65509916863567</v>
+        <v>17.56672848778665</v>
       </c>
       <c r="N10">
-        <v>27.71255384731916</v>
+        <v>27.5171428422565</v>
       </c>
       <c r="O10">
-        <v>25.99866893329846</v>
+        <v>26.01281110556376</v>
       </c>
       <c r="P10">
-        <v>19.57536379551857</v>
+        <v>19.51480245669292</v>
       </c>
       <c r="Q10">
-        <v>22.74447099558954</v>
+        <v>22.16405595748481</v>
       </c>
       <c r="R10">
-        <v>26.37726469965131</v>
+        <v>26.3516737281766</v>
       </c>
       <c r="S10">
-        <v>22.29140268253338</v>
+        <v>20.50136863362567</v>
       </c>
       <c r="T10">
-        <v>17.55524047305072</v>
+        <v>16.97985339167728</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>36.28244941334152</v>
+        <v>35.63129673283714</v>
       </c>
       <c r="C11">
-        <v>43.98913589538402</v>
+        <v>43.87516408166887</v>
       </c>
       <c r="D11">
-        <v>41.1552180841391</v>
+        <v>40.72709449990062</v>
       </c>
       <c r="E11">
-        <v>32.61010173394673</v>
+        <v>32.6017356158275</v>
       </c>
       <c r="F11">
-        <v>25.9230537083758</v>
+        <v>25.73509289376667</v>
       </c>
       <c r="G11">
-        <v>38.12766518827453</v>
+        <v>37.85006477944942</v>
       </c>
       <c r="H11">
-        <v>50.32003078678369</v>
+        <v>50.09441943096216</v>
       </c>
       <c r="I11">
-        <v>47.74812245483223</v>
+        <v>47.36069672523799</v>
       </c>
       <c r="J11">
-        <v>38.74462302620073</v>
+        <v>38.69719615340969</v>
       </c>
       <c r="K11">
-        <v>38.30725964126482</v>
+        <v>38.03464637326759</v>
       </c>
       <c r="L11">
-        <v>44.44436868547621</v>
+        <v>43.947844345086</v>
       </c>
       <c r="M11">
-        <v>40.85251947430464</v>
+        <v>40.64803662626971</v>
       </c>
       <c r="N11">
-        <v>35.32225105674773</v>
+        <v>35.07318138896818</v>
       </c>
       <c r="O11">
-        <v>32.66406321954021</v>
+        <v>32.68183108335356</v>
       </c>
       <c r="P11">
-        <v>37.87732321315105</v>
+        <v>37.76014013400721</v>
       </c>
       <c r="Q11">
-        <v>34.79492288089923</v>
+        <v>33.90699295306381</v>
       </c>
       <c r="R11">
-        <v>50.23568566986769</v>
+        <v>50.18694748516096</v>
       </c>
       <c r="S11">
-        <v>27.55239262172468</v>
+        <v>25.33989295877589</v>
       </c>
       <c r="T11">
-        <v>31.95073907876059</v>
+        <v>30.90352798903078</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.79889702252732</v>
+        <v>10.60509172943363</v>
       </c>
       <c r="C12">
-        <v>12.22016112284945</v>
+        <v>12.18849980696511</v>
       </c>
       <c r="D12">
-        <v>11.75642587153004</v>
+        <v>11.63412781514109</v>
       </c>
       <c r="E12">
-        <v>10.35497941559767</v>
+        <v>10.35232284673383</v>
       </c>
       <c r="F12">
-        <v>9.175983525755624</v>
+        <v>9.10945103472492</v>
       </c>
       <c r="G12">
-        <v>10.18890398750888</v>
+        <v>10.11472048063938</v>
       </c>
       <c r="H12">
-        <v>11.61625204237601</v>
+        <v>11.56417023058321</v>
       </c>
       <c r="I12">
-        <v>10.47637459543611</v>
+        <v>10.39136984839126</v>
       </c>
       <c r="J12">
-        <v>9.374228045072064</v>
+        <v>9.362753154202506</v>
       </c>
       <c r="K12">
-        <v>10.52095165498963</v>
+        <v>10.44607939735577</v>
       </c>
       <c r="L12">
-        <v>11.19476481940998</v>
+        <v>11.06969895882554</v>
       </c>
       <c r="M12">
-        <v>13.43442165982028</v>
+        <v>13.36717712170972</v>
       </c>
       <c r="N12">
-        <v>9.913866002916185</v>
+        <v>9.843959832219694</v>
       </c>
       <c r="O12">
-        <v>12.16879914667979</v>
+        <v>12.17541845685431</v>
       </c>
       <c r="P12">
-        <v>12.5720310522336</v>
+        <v>12.53313629450476</v>
       </c>
       <c r="Q12">
-        <v>11.54891371639109</v>
+        <v>11.25419755455698</v>
       </c>
       <c r="R12">
-        <v>12.60675020801755</v>
+        <v>12.59451925880293</v>
       </c>
       <c r="S12">
-        <v>8.433518980080413</v>
+        <v>7.756294386300937</v>
       </c>
       <c r="T12">
-        <v>12.54245476956416</v>
+        <v>12.13136575861062</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.550863223855905</v>
+        <v>2.505083474895433</v>
       </c>
       <c r="C13">
-        <v>2.763517848879522</v>
+        <v>2.756357827772945</v>
       </c>
       <c r="D13">
-        <v>2.663152169334349</v>
+        <v>2.63544831292963</v>
       </c>
       <c r="E13">
-        <v>2.188112421297241</v>
+        <v>2.187551061289104</v>
       </c>
       <c r="F13">
-        <v>2.405299284890812</v>
+        <v>2.38785913227404</v>
       </c>
       <c r="G13">
-        <v>1.92061000015562</v>
+        <v>1.906626397472266</v>
       </c>
       <c r="H13">
-        <v>2.607834507861015</v>
+        <v>2.596142204222139</v>
       </c>
       <c r="I13">
-        <v>2.507499211356466</v>
+        <v>2.487153495934133</v>
       </c>
       <c r="J13">
-        <v>1.995712717241729</v>
+        <v>1.993269786951658</v>
       </c>
       <c r="K13">
-        <v>2.224694623081506</v>
+        <v>2.208862603846155</v>
       </c>
       <c r="L13">
-        <v>2.474168428146923</v>
+        <v>2.446527471977792</v>
       </c>
       <c r="M13">
-        <v>2.610675270804477</v>
+        <v>2.597607819358692</v>
       </c>
       <c r="N13">
-        <v>1.884447408785156</v>
+        <v>1.871159504531826</v>
       </c>
       <c r="O13">
-        <v>2.651632846674154</v>
+        <v>2.653075222381856</v>
       </c>
       <c r="P13">
-        <v>2.725257556115135</v>
+        <v>2.716826282603845</v>
       </c>
       <c r="Q13">
-        <v>2.293967193065161</v>
+        <v>2.23542755694735</v>
       </c>
       <c r="R13">
-        <v>2.385173747110014</v>
+        <v>2.382859674213543</v>
       </c>
       <c r="S13">
-        <v>2.07075525677516</v>
+        <v>1.9044704128211</v>
       </c>
       <c r="T13">
-        <v>3.234434304576799</v>
+        <v>3.128423127044854</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.105687185260519</v>
+        <v>6.978163070094065</v>
       </c>
       <c r="C14">
-        <v>6.379872066552724</v>
+        <v>6.363342403582645</v>
       </c>
       <c r="D14">
-        <v>6.256048666570092</v>
+        <v>6.190969143170978</v>
       </c>
       <c r="E14">
-        <v>6.711850460833111</v>
+        <v>6.710128536313768</v>
       </c>
       <c r="F14">
-        <v>4.744307572137473</v>
+        <v>4.709907924393539</v>
       </c>
       <c r="G14">
-        <v>5.737852347531085</v>
+        <v>5.696076116293547</v>
       </c>
       <c r="H14">
-        <v>6.984082798775967</v>
+        <v>6.95276945566459</v>
       </c>
       <c r="I14">
-        <v>5.717924239010199</v>
+        <v>5.67152930542598</v>
       </c>
       <c r="J14">
-        <v>5.471813271686242</v>
+        <v>5.465115284412058</v>
       </c>
       <c r="K14">
-        <v>7.260623328059831</v>
+        <v>7.208953167581237</v>
       </c>
       <c r="L14">
-        <v>6.559088288453879</v>
+        <v>6.485811356363042</v>
       </c>
       <c r="M14">
-        <v>6.682024213834206</v>
+        <v>6.648578067563043</v>
       </c>
       <c r="N14">
-        <v>5.017116514720828</v>
+        <v>4.98173905416416</v>
       </c>
       <c r="O14">
-        <v>7.792760480607989</v>
+        <v>7.79699941150948</v>
       </c>
       <c r="P14">
-        <v>6.496945138802912</v>
+        <v>6.476845195834152</v>
       </c>
       <c r="Q14">
-        <v>5.27541213187811</v>
+        <v>5.140789148818361</v>
       </c>
       <c r="R14">
-        <v>5.456241591024694</v>
+        <v>5.450947997299</v>
       </c>
       <c r="S14">
-        <v>5.676267713188964</v>
+        <v>5.220454652789437</v>
       </c>
       <c r="T14">
-        <v>5.997215241438974</v>
+        <v>5.800651703648813</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.469193661440636</v>
+        <v>1.442826384525882</v>
       </c>
       <c r="C15">
-        <v>1.62612934549795</v>
+        <v>1.621916193612389</v>
       </c>
       <c r="D15">
-        <v>1.354351973714628</v>
+        <v>1.340263115769039</v>
       </c>
       <c r="E15">
-        <v>1.178615543238759</v>
+        <v>1.17831316954694</v>
       </c>
       <c r="F15">
-        <v>1.683463977210071</v>
+        <v>1.671257650591256</v>
       </c>
       <c r="G15">
-        <v>1.68562900138502</v>
+        <v>1.673356251464423</v>
       </c>
       <c r="H15">
-        <v>1.681400659141008</v>
+        <v>1.673862049238416</v>
       </c>
       <c r="I15">
-        <v>1.230318745134991</v>
+        <v>1.220336004181809</v>
       </c>
       <c r="J15">
-        <v>1.350775821920262</v>
+        <v>1.349122351888251</v>
       </c>
       <c r="K15">
-        <v>1.534272153849315</v>
+        <v>1.5233535198939</v>
       </c>
       <c r="L15">
-        <v>1.402311215268204</v>
+        <v>1.38664485141207</v>
       </c>
       <c r="M15">
-        <v>2.353212226346442</v>
+        <v>2.341433478199058</v>
       </c>
       <c r="N15">
-        <v>1.062981532952224</v>
+        <v>1.055486074725543</v>
       </c>
       <c r="O15">
-        <v>1.940589898616944</v>
+        <v>1.941645497144428</v>
       </c>
       <c r="P15">
-        <v>1.8322308842233</v>
+        <v>1.826562414582309</v>
       </c>
       <c r="Q15">
-        <v>1.332210761190016</v>
+        <v>1.298214140214765</v>
       </c>
       <c r="R15">
-        <v>1.103612791569992</v>
+        <v>1.102542076930329</v>
       </c>
       <c r="S15">
-        <v>1.177425161547633</v>
+        <v>1.08287610336466</v>
       </c>
       <c r="T15">
-        <v>2.083835074796106</v>
+        <v>2.015535709510216</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.712668693177561</v>
+        <v>2.663985059094319</v>
       </c>
       <c r="C16">
-        <v>2.661833512600275</v>
+        <v>2.654936946276255</v>
       </c>
       <c r="D16">
-        <v>3.126804196371789</v>
+        <v>3.094277127337049</v>
       </c>
       <c r="E16">
-        <v>2.954734035704753</v>
+        <v>2.953975999003264</v>
       </c>
       <c r="F16">
-        <v>3.204064886133899</v>
+        <v>3.180833107469502</v>
       </c>
       <c r="G16">
-        <v>2.589586517063758</v>
+        <v>2.57073222131092</v>
       </c>
       <c r="H16">
-        <v>3.001099705153762</v>
+        <v>2.987644185297182</v>
       </c>
       <c r="I16">
-        <v>2.338320455569666</v>
+        <v>2.319347447586343</v>
       </c>
       <c r="J16">
-        <v>2.205746645621238</v>
+        <v>2.203046615077635</v>
       </c>
       <c r="K16">
-        <v>2.329376733578517</v>
+        <v>2.312799745047249</v>
       </c>
       <c r="L16">
-        <v>2.415703489262629</v>
+        <v>2.388715692674207</v>
       </c>
       <c r="M16">
-        <v>3.222579106466407</v>
+        <v>3.206448836848089</v>
       </c>
       <c r="N16">
-        <v>2.397961281689282</v>
+        <v>2.381052409748504</v>
       </c>
       <c r="O16">
-        <v>2.875417147428501</v>
+        <v>2.876981252296249</v>
       </c>
       <c r="P16">
-        <v>2.331574457112863</v>
+        <v>2.324361141837121</v>
       </c>
       <c r="Q16">
-        <v>2.24979763841608</v>
+        <v>2.192385162993705</v>
       </c>
       <c r="R16">
-        <v>2.669222459550436</v>
+        <v>2.666632805293264</v>
       </c>
       <c r="S16">
-        <v>1.941182152872789</v>
+        <v>1.785302229197238</v>
       </c>
       <c r="T16">
-        <v>2.055300885290239</v>
+        <v>1.987936750942617</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>19.25485084927706</v>
+        <v>18.9092885196674</v>
       </c>
       <c r="C17">
-        <v>19.79482414068331</v>
+        <v>19.74353756813386</v>
       </c>
       <c r="D17">
-        <v>17.53580771732129</v>
+        <v>17.35338873858796</v>
       </c>
       <c r="E17">
-        <v>20.09010539758305</v>
+        <v>20.0849512831876</v>
       </c>
       <c r="F17">
-        <v>19.16955602245576</v>
+        <v>19.03056293135585</v>
       </c>
       <c r="G17">
-        <v>16.38952503670044</v>
+        <v>16.27019596611164</v>
       </c>
       <c r="H17">
-        <v>20.12647678899737</v>
+        <v>20.03623913124401</v>
       </c>
       <c r="I17">
-        <v>17.69307964275471</v>
+        <v>17.54951893425047</v>
       </c>
       <c r="J17">
-        <v>17.33443585112818</v>
+        <v>17.31321695622604</v>
       </c>
       <c r="K17">
-        <v>20.83813278954614</v>
+        <v>20.68983840535064</v>
       </c>
       <c r="L17">
-        <v>19.41883288913396</v>
+        <v>19.2018892475298</v>
       </c>
       <c r="M17">
-        <v>19.60495262533119</v>
+        <v>19.50682216483562</v>
       </c>
       <c r="N17">
-        <v>20.25448782714995</v>
+        <v>20.11166627973362</v>
       </c>
       <c r="O17">
-        <v>20.63122359143193</v>
+        <v>20.64244610127743</v>
       </c>
       <c r="P17">
-        <v>16.81645142179489</v>
+        <v>16.76442547617065</v>
       </c>
       <c r="Q17">
-        <v>16.38263030177839</v>
+        <v>15.9645627638389</v>
       </c>
       <c r="R17">
-        <v>16.0203473816398</v>
+        <v>16.00480459289628</v>
       </c>
       <c r="S17">
-        <v>23.23463049479163</v>
+        <v>21.3688537964031</v>
       </c>
       <c r="T17">
-        <v>22.7140540875379</v>
+        <v>21.96958275388401</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.25399962233828</v>
+        <v>19.89050580209552</v>
       </c>
       <c r="C18">
-        <v>20.26142403860985</v>
+        <v>20.20892854855013</v>
       </c>
       <c r="D18">
-        <v>21.03841408297606</v>
+        <v>20.81955869444471</v>
       </c>
       <c r="E18">
-        <v>18.70735543029409</v>
+        <v>18.70255606025516</v>
       </c>
       <c r="F18">
-        <v>21.62805178693756</v>
+        <v>21.47123283042057</v>
       </c>
       <c r="G18">
-        <v>18.80887021792019</v>
+        <v>18.67192634694749</v>
       </c>
       <c r="H18">
-        <v>20.12221143978595</v>
+        <v>20.03199290585274</v>
       </c>
       <c r="I18">
-        <v>20.46745238436642</v>
+        <v>20.30138056278956</v>
       </c>
       <c r="J18">
-        <v>19.1935093956323</v>
+        <v>19.17001482896935</v>
       </c>
       <c r="K18">
-        <v>21.46382815228781</v>
+        <v>21.31108101268237</v>
       </c>
       <c r="L18">
-        <v>19.55525107986399</v>
+        <v>19.33678339923817</v>
       </c>
       <c r="M18">
-        <v>22.53316565096724</v>
+        <v>22.4203783382912</v>
       </c>
       <c r="N18">
-        <v>20.10989107450572</v>
+        <v>19.96808912986286</v>
       </c>
       <c r="O18">
-        <v>20.14818728942632</v>
+        <v>20.15914704802825</v>
       </c>
       <c r="P18">
-        <v>21.91398228422391</v>
+        <v>21.84618583762925</v>
       </c>
       <c r="Q18">
-        <v>15.64528370400745</v>
+        <v>15.24603247767725</v>
       </c>
       <c r="R18">
-        <v>23.20677980638247</v>
+        <v>23.18426480921324</v>
       </c>
       <c r="S18">
-        <v>20.1385576332238</v>
+        <v>18.521400365341</v>
       </c>
       <c r="T18">
-        <v>17.55943667738982</v>
+        <v>16.98391206205487</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>19.56470832302803</v>
+        <v>19.21358505340826</v>
       </c>
       <c r="C19">
-        <v>21.32910956954195</v>
+        <v>21.27384780426537</v>
       </c>
       <c r="D19">
-        <v>20.73500670387963</v>
+        <v>20.51930755799915</v>
       </c>
       <c r="E19">
-        <v>17.58387108187181</v>
+        <v>17.57935994162255</v>
       </c>
       <c r="F19">
-        <v>24.40900005847855</v>
+        <v>24.23201722357035</v>
       </c>
       <c r="G19">
-        <v>20.34903479149484</v>
+        <v>20.20087726993087</v>
       </c>
       <c r="H19">
-        <v>18.71464620001798</v>
+        <v>18.63073852673382</v>
       </c>
       <c r="I19">
-        <v>16.68912683846122</v>
+        <v>16.55371214968894</v>
       </c>
       <c r="J19">
-        <v>18.1409973679164</v>
+        <v>18.11879116981018</v>
       </c>
       <c r="K19">
-        <v>22.47468975365207</v>
+        <v>22.3147488265708</v>
       </c>
       <c r="L19">
-        <v>18.24953411144809</v>
+        <v>18.04565366145811</v>
       </c>
       <c r="M19">
-        <v>23.91917504029966</v>
+        <v>23.79945020820056</v>
       </c>
       <c r="N19">
-        <v>16.65363788427429</v>
+        <v>16.53620720160083</v>
       </c>
       <c r="O19">
-        <v>18.6222316989995</v>
+        <v>18.63236140253652</v>
       </c>
       <c r="P19">
-        <v>26.1310091975922</v>
+        <v>26.05016631168713</v>
       </c>
       <c r="Q19">
-        <v>17.1242513725799</v>
+        <v>16.6872584429638</v>
       </c>
       <c r="R19">
-        <v>26.60533910699317</v>
+        <v>26.57952685989649</v>
       </c>
       <c r="S19">
-        <v>17.25897647941831</v>
+        <v>15.87305402368772</v>
       </c>
       <c r="T19">
-        <v>12.44426358802926</v>
+        <v>12.03639287177506</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.26847048029745</v>
+        <v>3.209812000817491</v>
       </c>
       <c r="C20">
-        <v>4.618436951005776</v>
+        <v>4.606471004752886</v>
       </c>
       <c r="D20">
-        <v>8.22372279534828</v>
+        <v>8.13817423448948</v>
       </c>
       <c r="E20">
-        <v>5.664357759320028</v>
+        <v>5.662904568941455</v>
       </c>
       <c r="F20">
-        <v>3.739303311557032</v>
+        <v>3.712190668717282</v>
       </c>
       <c r="G20">
-        <v>8.193164008154499</v>
+        <v>8.133511111314272</v>
       </c>
       <c r="H20">
-        <v>3.12308869260032</v>
+        <v>3.109086231487488</v>
       </c>
       <c r="I20">
-        <v>3.565462134868286</v>
+        <v>3.536532164475236</v>
       </c>
       <c r="J20">
-        <v>9.573330839632563</v>
+        <v>9.561612229191814</v>
       </c>
       <c r="K20">
-        <v>7.342930636313206</v>
+        <v>7.290674736617211</v>
       </c>
       <c r="L20">
-        <v>7.323369083723922</v>
+        <v>7.24155374667947</v>
       </c>
       <c r="M20">
-        <v>6.152508552398848</v>
+        <v>6.121712839244728</v>
       </c>
       <c r="N20">
-        <v>7.007862076801207</v>
+        <v>6.958447166168541</v>
       </c>
       <c r="O20">
-        <v>4.143809674722953</v>
+        <v>4.146063731282728</v>
       </c>
       <c r="P20">
-        <v>8.257170366747467</v>
+        <v>8.231624721846803</v>
       </c>
       <c r="Q20">
-        <v>4.902108153876203</v>
+        <v>4.777011496694009</v>
       </c>
       <c r="R20">
-        <v>3.883948423928005</v>
+        <v>3.880180254087131</v>
       </c>
       <c r="S20">
-        <v>3.502497814801981</v>
+        <v>3.221241833112099</v>
       </c>
       <c r="T20">
-        <v>2.870203767943086</v>
+        <v>2.776130538270213</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>34.0139367334519</v>
+        <v>33.40349652236876</v>
       </c>
       <c r="C21">
-        <v>31.18839001377889</v>
+        <v>31.10758375777105</v>
       </c>
       <c r="D21">
-        <v>30.34399160807837</v>
+        <v>30.02833349588483</v>
       </c>
       <c r="E21">
-        <v>28.8120094207791</v>
+        <v>28.80461770283743</v>
       </c>
       <c r="F21">
-        <v>31.11257489432089</v>
+        <v>30.88698631253144</v>
       </c>
       <c r="G21">
-        <v>26.55764839166498</v>
+        <v>26.36428711411088</v>
       </c>
       <c r="H21">
-        <v>33.89758325298178</v>
+        <v>33.74560242949654</v>
       </c>
       <c r="I21">
-        <v>32.85721487975746</v>
+        <v>32.59061318333963</v>
       </c>
       <c r="J21">
-        <v>27.08266483186487</v>
+        <v>27.04951323560455</v>
       </c>
       <c r="K21">
-        <v>31.84253999301432</v>
+        <v>31.61593284413131</v>
       </c>
       <c r="L21">
-        <v>33.84781034218669</v>
+        <v>33.46966880927974</v>
       </c>
       <c r="M21">
-        <v>33.84008435341595</v>
+        <v>33.6707014875518</v>
       </c>
       <c r="N21">
-        <v>26.34083870736979</v>
+        <v>26.15510015023935</v>
       </c>
       <c r="O21">
-        <v>32.67504131731306</v>
+        <v>32.6928151527456</v>
       </c>
       <c r="P21">
-        <v>34.98613957952403</v>
+        <v>34.87790110817762</v>
       </c>
       <c r="Q21">
-        <v>24.2512227388606</v>
+        <v>23.63235697703252</v>
       </c>
       <c r="R21">
-        <v>31.19523212507458</v>
+        <v>31.16496680740234</v>
       </c>
       <c r="S21">
-        <v>20.82827285089046</v>
+        <v>19.15573038624566</v>
       </c>
       <c r="T21">
-        <v>26.13731758737411</v>
+        <v>25.28064604792032</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>74.53811652506062</v>
+        <v>73.20039828497967</v>
       </c>
       <c r="C22">
-        <v>67.34947208560092</v>
+        <v>67.17497578486407</v>
       </c>
       <c r="D22">
-        <v>73.1390737036341</v>
+        <v>72.3782330656896</v>
       </c>
       <c r="E22">
-        <v>73.35875984863947</v>
+        <v>73.33993966663019</v>
       </c>
       <c r="F22">
-        <v>79.13753826168318</v>
+        <v>78.56373409782336</v>
       </c>
       <c r="G22">
-        <v>79.08709118826415</v>
+        <v>78.51127284905456</v>
       </c>
       <c r="H22">
-        <v>73.91253034497939</v>
+        <v>73.58114131515171</v>
       </c>
       <c r="I22">
-        <v>80.23997476340692</v>
+        <v>79.58891186989224</v>
       </c>
       <c r="J22">
-        <v>66.25047889591575</v>
+        <v>66.16938240330524</v>
       </c>
       <c r="K22">
-        <v>73.71618329189867</v>
+        <v>73.1915827378606</v>
       </c>
       <c r="L22">
-        <v>74.61142983181693</v>
+        <v>73.77788461386179</v>
       </c>
       <c r="M22">
-        <v>91.51008989171946</v>
+        <v>91.05204607836882</v>
       </c>
       <c r="N22">
-        <v>64.18532609267402</v>
+        <v>63.73273268857468</v>
       </c>
       <c r="O22">
-        <v>82.02243527535474</v>
+        <v>82.06705199832081</v>
       </c>
       <c r="P22">
-        <v>61.99139136476143</v>
+        <v>61.79960531695507</v>
       </c>
       <c r="Q22">
-        <v>58.48405241624169</v>
+        <v>56.99160075542819</v>
       </c>
       <c r="R22">
-        <v>71.16840490194772</v>
+        <v>71.09935799202418</v>
       </c>
       <c r="S22">
-        <v>51.8429231930375</v>
+        <v>47.67985642545544</v>
       </c>
       <c r="T22">
-        <v>64.14737573179234</v>
+        <v>62.04489406218823</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.29317053171281</v>
+        <v>12.07254785951034</v>
       </c>
       <c r="C23">
-        <v>12.3882682916982</v>
+        <v>12.35617142556851</v>
       </c>
       <c r="D23">
-        <v>12.60238746472116</v>
+        <v>12.47128916072656</v>
       </c>
       <c r="E23">
-        <v>17.04373437589955</v>
+        <v>17.03936180766457</v>
       </c>
       <c r="F23">
-        <v>25.59078031277672</v>
+        <v>25.40522871965871</v>
       </c>
       <c r="G23">
-        <v>12.30453223154214</v>
+        <v>12.21494523058074</v>
       </c>
       <c r="H23">
-        <v>10.6582546094915</v>
+        <v>10.61046800770409</v>
       </c>
       <c r="I23">
-        <v>8.033210967266172</v>
+        <v>7.968029920138681</v>
       </c>
       <c r="J23">
-        <v>12.00863129545297</v>
+        <v>11.99393166013948</v>
       </c>
       <c r="K23">
-        <v>10.65839686877196</v>
+        <v>10.58254648351294</v>
       </c>
       <c r="L23">
-        <v>7.483512177189597</v>
+        <v>7.399907750858855</v>
       </c>
       <c r="M23">
-        <v>10.96706748376411</v>
+        <v>10.91217301892989</v>
       </c>
       <c r="N23">
-        <v>20.61793371893141</v>
+        <v>20.47254938616551</v>
       </c>
       <c r="O23">
-        <v>7.911830617990492</v>
+        <v>7.916134317992233</v>
       </c>
       <c r="P23">
-        <v>8.826171585384946</v>
+        <v>8.798865591304871</v>
       </c>
       <c r="Q23">
-        <v>10.74175072578773</v>
+        <v>10.46763251666215</v>
       </c>
       <c r="R23">
-        <v>7.802149780826768</v>
+        <v>7.794580209275053</v>
       </c>
       <c r="S23">
-        <v>25.60557685563874</v>
+        <v>23.5494095042037</v>
       </c>
       <c r="T23">
-        <v>28.99745046490336</v>
+        <v>28.04703577728433</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.504748665099234</v>
+        <v>2.459796523398751</v>
       </c>
       <c r="C24">
-        <v>2.529807882431253</v>
+        <v>2.523253382397488</v>
       </c>
       <c r="D24">
-        <v>3.182930494381585</v>
+        <v>3.149819562765315</v>
       </c>
       <c r="E24">
-        <v>1.897556124291479</v>
+        <v>1.897069306470326</v>
       </c>
       <c r="F24">
-        <v>2.652458313144308</v>
+        <v>2.633226079516898</v>
       </c>
       <c r="G24">
-        <v>1.642469226100624</v>
+        <v>1.630510714442574</v>
       </c>
       <c r="H24">
-        <v>2.832191876381607</v>
+        <v>2.819493659802912</v>
       </c>
       <c r="I24">
-        <v>2.022202404850669</v>
+        <v>2.005794361941179</v>
       </c>
       <c r="J24">
-        <v>2.707017210750029</v>
+        <v>2.703703580344835</v>
       </c>
       <c r="K24">
-        <v>3.441724045119271</v>
+        <v>3.417231046970326</v>
       </c>
       <c r="L24">
-        <v>3.416385993934381</v>
+        <v>3.378218755826869</v>
       </c>
       <c r="M24">
-        <v>2.729966481403367</v>
+        <v>2.716301930762656</v>
       </c>
       <c r="N24">
-        <v>1.966515835961615</v>
+        <v>1.952649238242254</v>
       </c>
       <c r="O24">
-        <v>2.634743465485146</v>
+        <v>2.63617665408643</v>
       </c>
       <c r="P24">
-        <v>3.152595472725952</v>
+        <v>3.142842121288997</v>
       </c>
       <c r="Q24">
-        <v>2.094491784972538</v>
+        <v>2.041042551995406</v>
       </c>
       <c r="R24">
-        <v>3.097801840379661</v>
+        <v>3.094796382481197</v>
       </c>
       <c r="S24">
-        <v>0.8546996046230937</v>
+        <v>0.7860659068853514</v>
       </c>
       <c r="T24">
-        <v>3.061550685805958</v>
+        <v>2.961205907488227</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>23.49819928223748</v>
+        <v>23.07648256528318</v>
       </c>
       <c r="C25">
-        <v>24.05982601962171</v>
+        <v>23.99748921865229</v>
       </c>
       <c r="D25">
-        <v>25.00223220184175</v>
+        <v>24.74214257621199</v>
       </c>
       <c r="E25">
-        <v>23.48737902411196</v>
+        <v>23.48135333953023</v>
       </c>
       <c r="F25">
-        <v>23.91468200197156</v>
+        <v>23.74128332908463</v>
       </c>
       <c r="G25">
-        <v>22.22648501636606</v>
+        <v>22.06465813038129</v>
       </c>
       <c r="H25">
-        <v>25.94100083400249</v>
+        <v>25.82469358462252</v>
       </c>
       <c r="I25">
-        <v>22.7811505797042</v>
+        <v>22.59630553385581</v>
       </c>
       <c r="J25">
-        <v>22.83201536681636</v>
+        <v>22.80406694446025</v>
       </c>
       <c r="K25">
-        <v>24.23830363049866</v>
+        <v>24.06581196115717</v>
       </c>
       <c r="L25">
-        <v>26.5685017921147</v>
+        <v>26.27168336004645</v>
       </c>
       <c r="M25">
-        <v>24.41350408565909</v>
+        <v>24.29130494322706</v>
       </c>
       <c r="N25">
-        <v>23.34807672966826</v>
+        <v>23.18344119426574</v>
       </c>
       <c r="O25">
-        <v>22.24078161874433</v>
+        <v>22.25287965983151</v>
       </c>
       <c r="P25">
-        <v>20.96460335959219</v>
+        <v>20.89974405681407</v>
       </c>
       <c r="Q25">
-        <v>20.23464291448129</v>
+        <v>19.71827605589303</v>
       </c>
       <c r="R25">
-        <v>25.9194450101885</v>
+        <v>25.89429821102458</v>
       </c>
       <c r="S25">
-        <v>27.38660343288065</v>
+        <v>25.18741689774164</v>
       </c>
       <c r="T25">
-        <v>24.10635468725064</v>
+        <v>23.31624958516772</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.727062387047844</v>
+        <v>6.606333363068673</v>
       </c>
       <c r="C26">
-        <v>7.568922773043912</v>
+        <v>7.549312388826197</v>
       </c>
       <c r="D26">
-        <v>7.237852169437092</v>
+        <v>7.162559281749495</v>
       </c>
       <c r="E26">
-        <v>5.774620148952986</v>
+        <v>5.773138670770121</v>
       </c>
       <c r="F26">
-        <v>7.382852959850294</v>
+        <v>7.329321957211336</v>
       </c>
       <c r="G26">
-        <v>6.132684365873522</v>
+        <v>6.088033436456385</v>
       </c>
       <c r="H26">
-        <v>6.943135446346354</v>
+        <v>6.912005691908404</v>
       </c>
       <c r="I26">
-        <v>5.781465555737636</v>
+        <v>5.734555051284305</v>
       </c>
       <c r="J26">
-        <v>7.193466848179986</v>
+        <v>7.184661403437255</v>
       </c>
       <c r="K26">
-        <v>6.800341681905037</v>
+        <v>6.751947111613066</v>
       </c>
       <c r="L26">
-        <v>6.84802371105597</v>
+        <v>6.771518845385108</v>
       </c>
       <c r="M26">
-        <v>6.601352459904023</v>
+        <v>6.568310107333025</v>
       </c>
       <c r="N26">
-        <v>6.828874745149693</v>
+        <v>6.780721937409607</v>
       </c>
       <c r="O26">
-        <v>6.019375455762218</v>
+        <v>6.022649740489768</v>
       </c>
       <c r="P26">
-        <v>7.411886575649147</v>
+        <v>7.388956029942107</v>
       </c>
       <c r="Q26">
-        <v>6.650367623373689</v>
+        <v>6.480657218665685</v>
       </c>
       <c r="R26">
-        <v>7.071142064987447</v>
+        <v>7.064281710172828</v>
       </c>
       <c r="S26">
-        <v>6.549477761226681</v>
+        <v>6.023544585906769</v>
       </c>
       <c r="T26">
-        <v>6.822189014505656</v>
+        <v>6.598586299882619</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>12.55853150140032</v>
+        <v>12.33314645759651</v>
       </c>
       <c r="C27">
-        <v>13.07873773643308</v>
+        <v>13.04485192734442</v>
       </c>
       <c r="D27">
-        <v>13.3059997513657</v>
+        <v>13.16758201066063</v>
       </c>
       <c r="E27">
-        <v>16.63621054394532</v>
+        <v>16.63194252590592</v>
       </c>
       <c r="F27">
-        <v>19.69333674458237</v>
+        <v>19.55054586591025</v>
       </c>
       <c r="G27">
-        <v>13.96218730450209</v>
+        <v>13.86053122656804</v>
       </c>
       <c r="H27">
-        <v>11.71776735360775</v>
+        <v>11.66523039489542</v>
       </c>
       <c r="I27">
-        <v>11.55737124626162</v>
+        <v>11.46359534980601</v>
       </c>
       <c r="J27">
-        <v>14.98580367058705</v>
+        <v>14.96745971086196</v>
       </c>
       <c r="K27">
-        <v>13.81324398512461</v>
+        <v>13.71494215879477</v>
       </c>
       <c r="L27">
-        <v>10.92023380204025</v>
+        <v>10.79823495166088</v>
       </c>
       <c r="M27">
-        <v>15.11050607924209</v>
+        <v>15.03487208265894</v>
       </c>
       <c r="N27">
-        <v>12.66902034384015</v>
+        <v>12.57968660678406</v>
       </c>
       <c r="O27">
-        <v>13.20749608980374</v>
+        <v>13.214680407023</v>
       </c>
       <c r="P27">
-        <v>12.80604943513953</v>
+        <v>12.76643068235615</v>
       </c>
       <c r="Q27">
-        <v>12.41306968073521</v>
+        <v>12.09630116529522</v>
       </c>
       <c r="R27">
-        <v>10.79218019795697</v>
+        <v>10.78170972731718</v>
       </c>
       <c r="S27">
-        <v>14.31983998593098</v>
+        <v>13.16993472807067</v>
       </c>
       <c r="T27">
-        <v>14.31660996413483</v>
+        <v>13.84737159425484</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>22.98851205387426</v>
+        <v>22.57594257505668</v>
       </c>
       <c r="C28">
-        <v>28.74796594307697</v>
+        <v>28.67348260185048</v>
       </c>
       <c r="D28">
-        <v>29.00265442810514</v>
+        <v>28.70094978543249</v>
       </c>
       <c r="E28">
-        <v>24.40747396463021</v>
+        <v>24.4012122297897</v>
       </c>
       <c r="F28">
-        <v>28.22441525621961</v>
+        <v>28.01976791246507</v>
       </c>
       <c r="G28">
-        <v>25.35556872448477</v>
+        <v>25.17095956446532</v>
       </c>
       <c r="H28">
-        <v>25.57844615103196</v>
+        <v>25.46376442636461</v>
       </c>
       <c r="I28">
-        <v>22.18942206767995</v>
+        <v>22.00937827555016</v>
       </c>
       <c r="J28">
-        <v>32.64192717410317</v>
+        <v>32.60197054510994</v>
       </c>
       <c r="K28">
-        <v>29.14397902241581</v>
+        <v>28.93657615835959</v>
       </c>
       <c r="L28">
-        <v>22.7852271237325</v>
+        <v>22.53067474279274</v>
       </c>
       <c r="M28">
-        <v>25.58925198868412</v>
+        <v>25.46116776785605</v>
       </c>
       <c r="N28">
-        <v>32.43344242013639</v>
+        <v>32.20474276236111</v>
       </c>
       <c r="O28">
-        <v>24.11888080696194</v>
+        <v>24.13200045428286</v>
       </c>
       <c r="P28">
-        <v>34.11581034276354</v>
+        <v>34.0102644550313</v>
       </c>
       <c r="Q28">
-        <v>27.80544706376808</v>
+        <v>27.09588122597983</v>
       </c>
       <c r="R28">
-        <v>32.36066728346984</v>
+        <v>32.32927127168531</v>
       </c>
       <c r="S28">
-        <v>25.59028561977449</v>
+        <v>23.53534617818599</v>
       </c>
       <c r="T28">
-        <v>25.30562988736487</v>
+        <v>24.47621757908237</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>4.450459433692146</v>
+        <v>4.370588073390351</v>
       </c>
       <c r="C29">
-        <v>4.374886564917581</v>
+        <v>4.36355163536162</v>
       </c>
       <c r="D29">
-        <v>4.732504374217241</v>
+        <v>4.683273758284846</v>
       </c>
       <c r="E29">
-        <v>3.478480386461293</v>
+        <v>3.477587982689419</v>
       </c>
       <c r="F29">
-        <v>4.791775200080199</v>
+        <v>4.757031377837532</v>
       </c>
       <c r="G29">
-        <v>3.929138061075751</v>
+        <v>3.900530740729778</v>
       </c>
       <c r="H29">
-        <v>4.525535513314585</v>
+        <v>4.505245140136882</v>
       </c>
       <c r="I29">
-        <v>3.644888780777582</v>
+        <v>3.615314346798142</v>
       </c>
       <c r="J29">
-        <v>4.021095654849336</v>
+        <v>4.016173475274273</v>
       </c>
       <c r="K29">
-        <v>4.35429633662756</v>
+        <v>4.323309025990552</v>
       </c>
       <c r="L29">
-        <v>3.860380602273075</v>
+        <v>3.817253137784527</v>
       </c>
       <c r="M29">
-        <v>4.719297604915785</v>
+        <v>4.695675673456097</v>
       </c>
       <c r="N29">
-        <v>4.644291374119203</v>
+        <v>4.611542835308216</v>
       </c>
       <c r="O29">
-        <v>4.665691553463279</v>
+        <v>4.668229491611387</v>
       </c>
       <c r="P29">
-        <v>4.343036811856084</v>
+        <v>4.329600529054778</v>
       </c>
       <c r="Q29">
-        <v>3.759399030374178</v>
+        <v>3.663463111183591</v>
       </c>
       <c r="R29">
-        <v>4.355135111623293</v>
+        <v>4.350909800937022</v>
       </c>
       <c r="S29">
-        <v>4.337077372235266</v>
+        <v>3.988803363658341</v>
       </c>
       <c r="T29">
-        <v>4.449655081179603</v>
+        <v>4.303814068394347</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>10.26170286437942</v>
+        <v>10.07753846989333</v>
       </c>
       <c r="C30">
-        <v>15.15342621051771</v>
+        <v>15.11416507401076</v>
       </c>
       <c r="D30">
-        <v>16.47347517817937</v>
+        <v>16.30210727961236</v>
       </c>
       <c r="E30">
-        <v>10.48088714430017</v>
+        <v>10.47819827382197</v>
       </c>
       <c r="F30">
-        <v>12.58792388598352</v>
+        <v>12.4966523693457</v>
       </c>
       <c r="G30">
-        <v>14.06768897741951</v>
+        <v>13.96526476151034</v>
       </c>
       <c r="H30">
-        <v>14.31195274399223</v>
+        <v>14.2477846778655</v>
       </c>
       <c r="I30">
-        <v>11.87825489573518</v>
+        <v>11.78187536639055</v>
       </c>
       <c r="J30">
-        <v>18.91164230215646</v>
+        <v>18.88849276594527</v>
       </c>
       <c r="K30">
-        <v>14.04977760884305</v>
+        <v>13.94979249311174</v>
       </c>
       <c r="L30">
-        <v>10.7075569953742</v>
+        <v>10.58793413129567</v>
       </c>
       <c r="M30">
-        <v>11.96945693685406</v>
+        <v>11.9095451205114</v>
       </c>
       <c r="N30">
-        <v>18.84134767157817</v>
+        <v>18.70849067451024</v>
       </c>
       <c r="O30">
-        <v>16.89782587960185</v>
+        <v>16.90701757957355</v>
       </c>
       <c r="P30">
-        <v>21.41072536044964</v>
+        <v>21.34448586643044</v>
       </c>
       <c r="Q30">
-        <v>16.45387151895433</v>
+        <v>16.03398597989316</v>
       </c>
       <c r="R30">
-        <v>19.52166548116277</v>
+        <v>19.50272574688191</v>
       </c>
       <c r="S30">
-        <v>11.06763555817023</v>
+        <v>10.17888733661709</v>
       </c>
       <c r="T30">
-        <v>16.97196806991609</v>
+        <v>16.41569820919255</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.605110255670826</v>
+        <v>1.576303715252946</v>
       </c>
       <c r="C31">
-        <v>2.046807285104832</v>
+        <v>2.041504195288211</v>
       </c>
       <c r="D31">
-        <v>1.676468118814323</v>
+        <v>1.659028397357351</v>
       </c>
       <c r="E31">
-        <v>2.784125338232139</v>
+        <v>2.783411071173776</v>
       </c>
       <c r="F31">
-        <v>2.646729461496048</v>
+        <v>2.62753876617021</v>
       </c>
       <c r="G31">
-        <v>1.615294552773412</v>
+        <v>1.603533894836225</v>
       </c>
       <c r="H31">
-        <v>1.964619846779169</v>
+        <v>1.955811415218706</v>
       </c>
       <c r="I31">
-        <v>1.389172036953582</v>
+        <v>1.377900368827621</v>
       </c>
       <c r="J31">
-        <v>3.262162649701073</v>
+        <v>3.258169471785613</v>
       </c>
       <c r="K31">
-        <v>1.821149082615932</v>
+        <v>1.808188891582394</v>
       </c>
       <c r="L31">
-        <v>1.303175014551359</v>
+        <v>1.288616182158166</v>
       </c>
       <c r="M31">
-        <v>2.070861087590796</v>
+        <v>2.060495617393992</v>
       </c>
       <c r="N31">
-        <v>3.787653315210646</v>
+        <v>3.76094523391175</v>
       </c>
       <c r="O31">
-        <v>1.156078142387553</v>
+        <v>1.156706999821898</v>
       </c>
       <c r="P31">
-        <v>2.784740489562795</v>
+        <v>2.776125190552694</v>
       </c>
       <c r="Q31">
-        <v>2.506266020249452</v>
+        <v>2.44230874078906</v>
       </c>
       <c r="R31">
-        <v>1.380142567504639</v>
+        <v>1.378803566304999</v>
       </c>
       <c r="S31">
-        <v>1.083263340699326</v>
+        <v>0.9962756220976298</v>
       </c>
       <c r="T31">
-        <v>1.437619606575002</v>
+        <v>1.390500471361659</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.715137974809553</v>
+        <v>1.684356792508189</v>
       </c>
       <c r="C32">
-        <v>2.187033264973793</v>
+        <v>2.181366862513485</v>
       </c>
       <c r="D32">
-        <v>1.791160988660427</v>
+        <v>1.772528156710765</v>
       </c>
       <c r="E32">
-        <v>2.974849471651306</v>
+        <v>2.974086274336872</v>
       </c>
       <c r="F32">
-        <v>2.827597492105395</v>
+        <v>2.807095373258526</v>
       </c>
       <c r="G32">
-        <v>1.725591756277979</v>
+        <v>1.713028045003171</v>
       </c>
       <c r="H32">
-        <v>2.100257951702264</v>
+        <v>2.090841382661075</v>
       </c>
       <c r="I32">
-        <v>1.484484012044737</v>
+        <v>1.472438987615107</v>
       </c>
       <c r="J32">
-        <v>3.485470097717949</v>
+        <v>3.481203571577544</v>
       </c>
       <c r="K32">
-        <v>1.945808695116189</v>
+        <v>1.931961365073774</v>
       </c>
       <c r="L32">
-        <v>1.392990717764911</v>
+        <v>1.377428480798455</v>
       </c>
       <c r="M32">
-        <v>2.212465762042716</v>
+        <v>2.201391505031791</v>
       </c>
       <c r="N32">
-        <v>4.047927469970272</v>
+        <v>4.019384103679107</v>
       </c>
       <c r="O32">
-        <v>1.235458233975887</v>
+        <v>1.2361302708104</v>
       </c>
       <c r="P32">
-        <v>2.975712012736859</v>
+        <v>2.966505895020052</v>
       </c>
       <c r="Q32">
-        <v>2.678669765815219</v>
+        <v>2.610312923640383</v>
       </c>
       <c r="R32">
-        <v>1.474546992521602</v>
+        <v>1.473116401046201</v>
       </c>
       <c r="S32">
-        <v>1.157305114357824</v>
+        <v>1.064371727025551</v>
       </c>
       <c r="T32">
-        <v>1.536650028977717</v>
+        <v>1.486285092272737</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.883373463311909</v>
+        <v>2.831626230424143</v>
       </c>
       <c r="C33">
-        <v>3.950108450460728</v>
+        <v>3.939874082012545</v>
       </c>
       <c r="D33">
-        <v>4.170427969510449</v>
+        <v>4.127044441169888</v>
       </c>
       <c r="E33">
-        <v>3.623013518818007</v>
+        <v>3.622084035086453</v>
       </c>
       <c r="F33">
-        <v>4.26390244106197</v>
+        <v>4.232986076606924</v>
       </c>
       <c r="G33">
-        <v>3.10670456537865</v>
+        <v>3.084085229702329</v>
       </c>
       <c r="H33">
-        <v>5.199460688718642</v>
+        <v>5.176148751957454</v>
       </c>
       <c r="I33">
-        <v>3.043629071244213</v>
+        <v>3.018933226613746</v>
       </c>
       <c r="J33">
-        <v>6.400959646301914</v>
+        <v>6.393124301028831</v>
       </c>
       <c r="K33">
-        <v>2.876760288467466</v>
+        <v>2.856287849801062</v>
       </c>
       <c r="L33">
-        <v>2.539411910669975</v>
+        <v>2.511042066273096</v>
       </c>
       <c r="M33">
-        <v>4.212953617481649</v>
+        <v>4.191866135842149</v>
       </c>
       <c r="N33">
-        <v>5.068702383231746</v>
+        <v>5.03296117249643</v>
       </c>
       <c r="O33">
-        <v>2.664299882565909</v>
+        <v>2.665749148603425</v>
       </c>
       <c r="P33">
-        <v>5.356594690997124</v>
+        <v>5.340022710551613</v>
       </c>
       <c r="Q33">
-        <v>6.702373711912122</v>
+        <v>6.531336166385299</v>
       </c>
       <c r="R33">
-        <v>6.095351194015644</v>
+        <v>6.089437542228374</v>
       </c>
       <c r="S33">
-        <v>2.08443688886423</v>
+        <v>1.917053388731695</v>
       </c>
       <c r="T33">
-        <v>2.766137900333453</v>
+        <v>2.67547551290603</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.736046087044869</v>
+        <v>4.651049369501385</v>
       </c>
       <c r="C34">
-        <v>4.452789887067003</v>
+        <v>4.441253117153439</v>
       </c>
       <c r="D34">
-        <v>7.708825017954072</v>
+        <v>7.628632761647558</v>
       </c>
       <c r="E34">
-        <v>4.882090805842976</v>
+        <v>4.880838305967823</v>
       </c>
       <c r="F34">
-        <v>6.334473108218742</v>
+        <v>6.288543614767292</v>
       </c>
       <c r="G34">
-        <v>3.604640491344922</v>
+        <v>3.578395777195138</v>
       </c>
       <c r="H34">
-        <v>5.065528723480115</v>
+        <v>5.042817274671593</v>
       </c>
       <c r="I34">
-        <v>3.685396370191322</v>
+        <v>3.655493259782824</v>
       </c>
       <c r="J34">
-        <v>5.472594066959029</v>
+        <v>5.46589512392182</v>
       </c>
       <c r="K34">
-        <v>5.719159273489347</v>
+        <v>5.678458928062834</v>
       </c>
       <c r="L34">
-        <v>4.101866219403854</v>
+        <v>4.056040921864551</v>
       </c>
       <c r="M34">
-        <v>4.98190991026298</v>
+        <v>4.956973501438924</v>
       </c>
       <c r="N34">
-        <v>5.700238470456302</v>
+        <v>5.660044075715723</v>
       </c>
       <c r="O34">
-        <v>5.306643569586108</v>
+        <v>5.309530158422797</v>
       </c>
       <c r="P34">
-        <v>6.214401204926529</v>
+        <v>6.19517538307712</v>
       </c>
       <c r="Q34">
-        <v>6.199410718650009</v>
+        <v>6.041208261042185</v>
       </c>
       <c r="R34">
-        <v>6.151325499114198</v>
+        <v>6.145357541588202</v>
       </c>
       <c r="S34">
-        <v>2.41762487032747</v>
+        <v>2.22348586090734</v>
       </c>
       <c r="T34">
-        <v>3.20925707854221</v>
+        <v>3.104071104779326</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.1390695154128</v>
+        <v>115.0368018807833</v>
       </c>
       <c r="C35">
-        <v>109.2270179332506</v>
+        <v>108.9440207548073</v>
       </c>
       <c r="D35">
-        <v>117.9083373248387</v>
+        <v>116.6817774294712</v>
       </c>
       <c r="E35">
-        <v>91.98043842212417</v>
+        <v>91.95684085046443</v>
       </c>
       <c r="F35">
-        <v>107.7867069472523</v>
+        <v>107.0051756712786</v>
       </c>
       <c r="G35">
-        <v>98.27161130217816</v>
+        <v>97.55611405526631</v>
       </c>
       <c r="H35">
-        <v>112.0788750887484</v>
+        <v>111.5763661162307</v>
       </c>
       <c r="I35">
-        <v>107.6151625425048</v>
+        <v>106.7419788293049</v>
       </c>
       <c r="J35">
-        <v>95.33432201193185</v>
+        <v>95.21762430242977</v>
       </c>
       <c r="K35">
-        <v>111.2906681596844</v>
+        <v>110.4986691227205</v>
       </c>
       <c r="L35">
-        <v>116.3113356615507</v>
+        <v>115.0119267391752</v>
       </c>
       <c r="M35">
-        <v>103.1422702403335</v>
+        <v>102.6260028119611</v>
       </c>
       <c r="N35">
-        <v>108.6257702107605</v>
+        <v>107.8598115391224</v>
       </c>
       <c r="O35">
-        <v>115.586702512269</v>
+        <v>115.6495767718206</v>
       </c>
       <c r="P35">
-        <v>107.7838580773359</v>
+        <v>107.4504014521032</v>
       </c>
       <c r="Q35">
-        <v>111.7539601473766</v>
+        <v>108.9021163278447</v>
       </c>
       <c r="R35">
-        <v>118.8125637894913</v>
+        <v>118.6972929695107</v>
       </c>
       <c r="S35">
-        <v>100.4288131469887</v>
+        <v>92.3642244091359</v>
       </c>
       <c r="T35">
-        <v>110.0882600771059</v>
+        <v>106.4800290900975</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>9.04330768038735</v>
+        <v>8.881009540875723</v>
       </c>
       <c r="C36">
-        <v>14.73110820097084</v>
+        <v>14.69294125166563</v>
       </c>
       <c r="D36">
-        <v>8.39454196320418</v>
+        <v>8.307216429271163</v>
       </c>
       <c r="E36">
-        <v>7.443456316370696</v>
+        <v>7.441546698447202</v>
       </c>
       <c r="F36">
-        <v>7.571086656864545</v>
+        <v>7.516190824316825</v>
       </c>
       <c r="G36">
-        <v>6.405230354243503</v>
+        <v>6.358595068390651</v>
       </c>
       <c r="H36">
-        <v>14.41602726475084</v>
+        <v>14.35139257741247</v>
       </c>
       <c r="I36">
-        <v>11.07842857142857</v>
+        <v>10.98853879039888</v>
       </c>
       <c r="J36">
-        <v>8.161652986434971</v>
+        <v>8.151662395542129</v>
       </c>
       <c r="K36">
-        <v>7.891113291282283</v>
+        <v>7.834956254662635</v>
       </c>
       <c r="L36">
-        <v>13.84432806420978</v>
+        <v>13.68966176871409</v>
       </c>
       <c r="M36">
-        <v>10.39549952506727</v>
+        <v>10.3434659815555</v>
       </c>
       <c r="N36">
-        <v>11.24181131503812</v>
+        <v>11.16254133292462</v>
       </c>
       <c r="O36">
-        <v>7.26412284939206</v>
+        <v>7.268074223862652</v>
       </c>
       <c r="P36">
-        <v>14.56784000343797</v>
+        <v>14.5227707059464</v>
       </c>
       <c r="Q36">
-        <v>9.749360570526934</v>
+        <v>9.500567117026234</v>
       </c>
       <c r="R36">
-        <v>15.95017064091922</v>
+        <v>15.93469593698247</v>
       </c>
       <c r="S36">
-        <v>7.404982167737368</v>
+        <v>6.810350667845685</v>
       </c>
       <c r="T36">
-        <v>7.617789357198652</v>
+        <v>7.36811020347331</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>24.83390343148775</v>
+        <v>24.38821514284498</v>
       </c>
       <c r="C37">
-        <v>24.51084525311837</v>
+        <v>24.44733990271019</v>
       </c>
       <c r="D37">
-        <v>25.67493435335046</v>
+        <v>25.40784683851889</v>
       </c>
       <c r="E37">
-        <v>24.455154997985</v>
+        <v>24.44888103058047</v>
       </c>
       <c r="F37">
-        <v>27.43301532138143</v>
+        <v>27.23410619728678</v>
       </c>
       <c r="G37">
-        <v>29.66754997743507</v>
+        <v>29.45154608729631</v>
       </c>
       <c r="H37">
-        <v>25.67484304321</v>
+        <v>25.5597291202073</v>
       </c>
       <c r="I37">
-        <v>26.41968522880904</v>
+        <v>26.20531730606811</v>
       </c>
       <c r="J37">
-        <v>20.28271880116916</v>
+        <v>20.25789094508733</v>
       </c>
       <c r="K37">
-        <v>29.17354572538062</v>
+        <v>28.96593245014922</v>
       </c>
       <c r="L37">
-        <v>26.43801482706859</v>
+        <v>26.14265417145584</v>
       </c>
       <c r="M37">
-        <v>33.51138986665786</v>
+        <v>33.34365224533801</v>
       </c>
       <c r="N37">
-        <v>18.74364716303477</v>
+        <v>18.61147908675974</v>
       </c>
       <c r="O37">
-        <v>29.76753434562545</v>
+        <v>29.78372662068804</v>
       </c>
       <c r="P37">
-        <v>22.87510126150978</v>
+        <v>22.80433135027645</v>
       </c>
       <c r="Q37">
-        <v>21.16576562297078</v>
+        <v>20.62563748972228</v>
       </c>
       <c r="R37">
-        <v>27.10409522854297</v>
+        <v>27.07779909299823</v>
       </c>
       <c r="S37">
-        <v>32.5477979380105</v>
+        <v>29.93415951624988</v>
       </c>
       <c r="T37">
-        <v>27.68907395197258</v>
+        <v>26.78154235355238</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.397872656162607</v>
+        <v>4.318945058525713</v>
       </c>
       <c r="C38">
-        <v>5.268724682210957</v>
+        <v>5.255073900130911</v>
       </c>
       <c r="D38">
-        <v>4.909017514335003</v>
+        <v>4.857950692892584</v>
       </c>
       <c r="E38">
-        <v>3.652069148518582</v>
+        <v>3.65113221056833</v>
       </c>
       <c r="F38">
-        <v>3.996283228350403</v>
+        <v>3.967307295983034</v>
       </c>
       <c r="G38">
-        <v>3.559882205864807</v>
+        <v>3.53396336843174</v>
       </c>
       <c r="H38">
-        <v>5.270265485628182</v>
+        <v>5.246636093452527</v>
       </c>
       <c r="I38">
-        <v>4.239794358638206</v>
+        <v>4.205392892396706</v>
       </c>
       <c r="J38">
-        <v>4.021876450122122</v>
+        <v>4.016953314784034</v>
       </c>
       <c r="K38">
-        <v>4.95282229664482</v>
+        <v>4.917575581407496</v>
       </c>
       <c r="L38">
-        <v>4.617882853904359</v>
+        <v>4.566292713109235</v>
       </c>
       <c r="M38">
-        <v>5.432470238064543</v>
+        <v>5.405278598468284</v>
       </c>
       <c r="N38">
-        <v>3.609447587627479</v>
+        <v>3.583996097854821</v>
       </c>
       <c r="O38">
-        <v>5.42571370696861</v>
+        <v>5.428665064905549</v>
       </c>
       <c r="P38">
-        <v>5.325287883919409</v>
+        <v>5.308812758999587</v>
       </c>
       <c r="Q38">
-        <v>3.99378263488301</v>
+        <v>3.891865492002125</v>
       </c>
       <c r="R38">
-        <v>5.174699190752865</v>
+        <v>5.169678746787629</v>
       </c>
       <c r="S38">
-        <v>3.820394560400966</v>
+        <v>3.513610979270021</v>
       </c>
       <c r="T38">
-        <v>5.944343066766338</v>
+        <v>5.749512456891204</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.802259730690248</v>
+        <v>7.662234390070268</v>
       </c>
       <c r="C39">
-        <v>12.85322811968475</v>
+        <v>12.81992658531547</v>
       </c>
       <c r="D39">
-        <v>9.726118047871354</v>
+        <v>9.624940585735978</v>
       </c>
       <c r="E39">
-        <v>12.76585166459933</v>
+        <v>12.76257658671733</v>
       </c>
       <c r="F39">
-        <v>9.167799451972396</v>
+        <v>9.101326301372508</v>
       </c>
       <c r="G39">
-        <v>6.723333883191461</v>
+        <v>6.674382544959093</v>
       </c>
       <c r="H39">
-        <v>10.52005729504156</v>
+        <v>10.47289030502696</v>
       </c>
       <c r="I39">
-        <v>7.271509432996023</v>
+        <v>7.212508791662016</v>
       </c>
       <c r="J39">
-        <v>12.16713273582858</v>
+        <v>12.15223908062116</v>
       </c>
       <c r="K39">
-        <v>8.845238786957328</v>
+        <v>8.782291724846655</v>
       </c>
       <c r="L39">
-        <v>7.012403394295868</v>
+        <v>6.934062108934317</v>
       </c>
       <c r="M39">
-        <v>6.241762407810967</v>
+        <v>6.210519944180068</v>
       </c>
       <c r="N39">
-        <v>12.64166420144799</v>
+        <v>12.55252336221392</v>
       </c>
       <c r="O39">
-        <v>9.510410547530038</v>
+        <v>9.515583807154288</v>
       </c>
       <c r="P39">
-        <v>10.08627057026299</v>
+        <v>10.05506614127391</v>
       </c>
       <c r="Q39">
-        <v>7.250218671995074</v>
+        <v>7.065200697842601</v>
       </c>
       <c r="R39">
-        <v>9.81471845220611</v>
+        <v>9.805196305660489</v>
       </c>
       <c r="S39">
-        <v>5.682706128289703</v>
+        <v>5.226376053217952</v>
       </c>
       <c r="T39">
-        <v>4.004857421235206</v>
+        <v>3.873595008370017</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.424401760232014</v>
+        <v>8.273210981314984</v>
       </c>
       <c r="C40">
-        <v>7.835434138291936</v>
+        <v>7.815133247587682</v>
       </c>
       <c r="D40">
-        <v>9.312084921973009</v>
+        <v>9.215214504098475</v>
       </c>
       <c r="E40">
-        <v>9.865503807564886</v>
+        <v>9.862972813616041</v>
       </c>
       <c r="F40">
-        <v>7.089863118410719</v>
+        <v>7.038456503194968</v>
       </c>
       <c r="G40">
-        <v>8.376193425564253</v>
+        <v>8.315207925721742</v>
       </c>
       <c r="H40">
-        <v>8.550319029208687</v>
+        <v>8.51198341933873</v>
       </c>
       <c r="I40">
-        <v>8.405721936580768</v>
+        <v>8.337518355233108</v>
       </c>
       <c r="J40">
-        <v>11.33324338449284</v>
+        <v>11.31937048419535</v>
       </c>
       <c r="K40">
-        <v>9.078576010355244</v>
+        <v>9.013968405997186</v>
       </c>
       <c r="L40">
-        <v>8.783297919921575</v>
+        <v>8.68517252552116</v>
       </c>
       <c r="M40">
-        <v>8.859303359800991</v>
+        <v>8.814959079303017</v>
       </c>
       <c r="N40">
-        <v>10.23901329534863</v>
+        <v>10.16681439625339</v>
       </c>
       <c r="O40">
-        <v>9.665792854468904</v>
+        <v>9.671050635472206</v>
       </c>
       <c r="P40">
-        <v>7.69443050952553</v>
+        <v>7.670625842699138</v>
       </c>
       <c r="Q40">
-        <v>8.441371823176736</v>
+        <v>8.22595687026992</v>
       </c>
       <c r="R40">
-        <v>8.273336468522057</v>
+        <v>8.265309756124942</v>
       </c>
       <c r="S40">
-        <v>6.397370204471724</v>
+        <v>5.883651500783104</v>
       </c>
       <c r="T40">
-        <v>6.874221948310472</v>
+        <v>6.648913812564712</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>11.25033428193474</v>
+        <v>11.04842714934852</v>
       </c>
       <c r="C41">
-        <v>11.82982447713234</v>
+        <v>11.79917448767137</v>
       </c>
       <c r="D41">
-        <v>7.959359797476057</v>
+        <v>7.876561313994023</v>
       </c>
       <c r="E41">
-        <v>6.992721547938681</v>
+        <v>6.990927565971919</v>
       </c>
       <c r="F41">
-        <v>7.867350127817411</v>
+        <v>7.810306171674157</v>
       </c>
       <c r="G41">
-        <v>17.53565684703051</v>
+        <v>17.40798300480296</v>
       </c>
       <c r="H41">
-        <v>10.86043216211272</v>
+        <v>10.81173909125026</v>
       </c>
       <c r="I41">
-        <v>6.115851735015771</v>
+        <v>6.066228038863738</v>
       </c>
       <c r="J41">
-        <v>5.29379194949097</v>
+        <v>5.287311876186323</v>
       </c>
       <c r="K41">
-        <v>7.669762569086315</v>
+        <v>7.615180772886276</v>
       </c>
       <c r="L41">
-        <v>6.795489997855589</v>
+        <v>6.719572029199276</v>
       </c>
       <c r="M41">
-        <v>6.241762407810967</v>
+        <v>6.210519944180068</v>
       </c>
       <c r="N41">
-        <v>8.072406817890124</v>
+        <v>8.015485426298092</v>
       </c>
       <c r="O41">
-        <v>11.69927434962539</v>
+        <v>11.70563825824147</v>
       </c>
       <c r="P41">
-        <v>4.614623363255267</v>
+        <v>4.600346858768601</v>
       </c>
       <c r="Q41">
-        <v>6.346167626032439</v>
+        <v>6.184220086113971</v>
       </c>
       <c r="R41">
-        <v>6.989269200813442</v>
+        <v>6.982488278273379</v>
       </c>
       <c r="S41">
-        <v>5.094395948459683</v>
+        <v>4.685308089062405</v>
       </c>
       <c r="T41">
-        <v>7.375248746398783</v>
+        <v>7.133519055648723</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.293423729265807</v>
+        <v>6.180477117415658</v>
       </c>
       <c r="C42">
-        <v>6.364291402122839</v>
+        <v>6.347802107224281</v>
       </c>
       <c r="D42">
-        <v>7.290724769011536</v>
+        <v>7.214881865848588</v>
       </c>
       <c r="E42">
-        <v>7.678136402413812</v>
+        <v>7.676166577339291</v>
       </c>
       <c r="F42">
-        <v>4.916991528963591</v>
+        <v>4.881339798129443</v>
       </c>
       <c r="G42">
-        <v>6.155862763711438</v>
+        <v>6.111043076708859</v>
       </c>
       <c r="H42">
-        <v>5.715567943300231</v>
+        <v>5.689942024301057</v>
       </c>
       <c r="I42">
-        <v>4.655195716743822</v>
+        <v>4.617423705945502</v>
       </c>
       <c r="J42">
-        <v>5.474936452777387</v>
+        <v>5.468234642451105</v>
       </c>
       <c r="K42">
-        <v>6.380814139836865</v>
+        <v>6.335405133517078</v>
       </c>
       <c r="L42">
-        <v>4.697530741659773</v>
+        <v>4.645050789261943</v>
       </c>
       <c r="M42">
-        <v>7.144599483710476</v>
+        <v>7.108837967179851</v>
       </c>
       <c r="N42">
-        <v>4.788106522695093</v>
+        <v>4.754343892476967</v>
       </c>
       <c r="O42">
-        <v>7.910986148931042</v>
+        <v>7.915289389577461</v>
       </c>
       <c r="P42">
-        <v>5.453645792938042</v>
+        <v>5.436773560362893</v>
       </c>
       <c r="Q42">
-        <v>4.896408856502127</v>
+        <v>4.771457639409668</v>
       </c>
       <c r="R42">
-        <v>4.335084614274558</v>
+        <v>4.330878756390218</v>
       </c>
       <c r="S42">
-        <v>5.231212269350385</v>
+        <v>4.811137848168346</v>
       </c>
       <c r="T42">
-        <v>6.272486246083809</v>
+        <v>6.066900480418588</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2025.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2025.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>145.6006515690921</v>
+        <v>142.2318137922471</v>
       </c>
       <c r="C2">
-        <v>136.8810572263557</v>
+        <v>136.5268146559265</v>
       </c>
       <c r="D2">
-        <v>132.9453046438109</v>
+        <v>131.5616471509282</v>
       </c>
       <c r="E2">
-        <v>113.2022233457374</v>
+        <v>113.1735943517195</v>
       </c>
       <c r="F2">
-        <v>137.5726434813119</v>
+        <v>136.4948401446927</v>
       </c>
       <c r="G2">
-        <v>143.906679624644</v>
+        <v>142.8587474439378</v>
       </c>
       <c r="H2">
-        <v>159.88405598048</v>
+        <v>159.1673911223689</v>
       </c>
       <c r="I2">
-        <v>149.9479762792412</v>
+        <v>148.7317481256914</v>
       </c>
       <c r="J2">
-        <v>131.688149912861</v>
+        <v>131.2971835019567</v>
       </c>
       <c r="K2">
-        <v>133.2131797579668</v>
+        <v>132.2644216062953</v>
       </c>
       <c r="L2">
-        <v>176.2158677511258</v>
+        <v>174.2472245198052</v>
       </c>
       <c r="M2">
-        <v>153.1441681045285</v>
+        <v>152.3767265016589</v>
       </c>
       <c r="N2">
-        <v>114.0532288613636</v>
+        <v>113.2488263104408</v>
       </c>
       <c r="O2">
-        <v>148.6510440659887</v>
+        <v>148.7322869699441</v>
       </c>
       <c r="P2">
-        <v>122.2476029472405</v>
+        <v>121.8688354696154</v>
       </c>
       <c r="Q2">
-        <v>119.3682214391407</v>
+        <v>116.3217762395657</v>
       </c>
       <c r="R2">
-        <v>142.1956208850648</v>
+        <v>142.0388431972375</v>
       </c>
       <c r="S2">
-        <v>173.7293642670139</v>
+        <v>159.7780480293439</v>
       </c>
       <c r="T2">
-        <v>159.5396889725089</v>
+        <v>153.8014973920055</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>14.76879421233414</v>
+        <v>14.42708096225743</v>
       </c>
       <c r="C3">
-        <v>12.47519199851755</v>
+        <v>12.44290671252036</v>
       </c>
       <c r="D3">
-        <v>11.13659631959578</v>
+        <v>11.02068974445119</v>
       </c>
       <c r="E3">
-        <v>12.61535840307327</v>
+        <v>12.61216796202379</v>
       </c>
       <c r="F3">
-        <v>17.88711166062388</v>
+        <v>17.74697632453927</v>
       </c>
       <c r="G3">
-        <v>11.63235869424257</v>
+        <v>11.54765155594288</v>
       </c>
       <c r="H3">
-        <v>11.88582211253763</v>
+        <v>11.83254506145472</v>
       </c>
       <c r="I3">
-        <v>13.25551293580236</v>
+        <v>13.1479974599533</v>
       </c>
       <c r="J3">
-        <v>12.57158468713187</v>
+        <v>12.53426115158399</v>
       </c>
       <c r="K3">
-        <v>13.48960845267202</v>
+        <v>13.39353405518686</v>
       </c>
       <c r="L3">
-        <v>16.35069457464081</v>
+        <v>16.16802836749073</v>
       </c>
       <c r="M3">
-        <v>14.6110277729935</v>
+        <v>14.5378084613314</v>
       </c>
       <c r="N3">
-        <v>11.13629476581124</v>
+        <v>11.05775193097107</v>
       </c>
       <c r="O3">
-        <v>15.09910678297257</v>
+        <v>15.10735896370825</v>
       </c>
       <c r="P3">
-        <v>9.988436798145134</v>
+        <v>9.957488992869282</v>
       </c>
       <c r="Q3">
-        <v>8.8189502742092</v>
+        <v>8.593878237412094</v>
       </c>
       <c r="R3">
-        <v>10.25415851909923</v>
+        <v>10.24285280340115</v>
       </c>
       <c r="S3">
-        <v>19.55105225528137</v>
+        <v>17.98100729515927</v>
       </c>
       <c r="T3">
-        <v>19.99407443493453</v>
+        <v>19.27494410240473</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.79468308742561</v>
+        <v>14.45237083302118</v>
       </c>
       <c r="C4">
-        <v>11.4977103142848</v>
+        <v>11.46795471085571</v>
       </c>
       <c r="D4">
-        <v>10.97147112400174</v>
+        <v>10.85728312564149</v>
       </c>
       <c r="E4">
-        <v>13.54960865036872</v>
+        <v>13.54618193617946</v>
       </c>
       <c r="F4">
-        <v>13.20336623448229</v>
+        <v>13.09992537718668</v>
       </c>
       <c r="G4">
-        <v>12.41642794524243</v>
+        <v>12.32601119428148</v>
       </c>
       <c r="H4">
-        <v>12.37889648137756</v>
+        <v>12.32340927199953</v>
       </c>
       <c r="I4">
-        <v>13.65264616534884</v>
+        <v>13.54190954156254</v>
       </c>
       <c r="J4">
-        <v>13.31724417264277</v>
+        <v>13.27770686301575</v>
       </c>
       <c r="K4">
-        <v>12.19586542294179</v>
+        <v>12.10900519816729</v>
       </c>
       <c r="L4">
-        <v>13.42405835860675</v>
+        <v>13.27408785957173</v>
       </c>
       <c r="M4">
-        <v>15.64774563201119</v>
+        <v>15.56933108225876</v>
       </c>
       <c r="N4">
-        <v>11.27932831031878</v>
+        <v>11.19977667854039</v>
       </c>
       <c r="O4">
-        <v>19.21420450967421</v>
+        <v>19.22470573273231</v>
       </c>
       <c r="P4">
-        <v>10.29602617768369</v>
+        <v>10.2641253487851</v>
       </c>
       <c r="Q4">
-        <v>10.41047906591963</v>
+        <v>10.14478897191235</v>
       </c>
       <c r="R4">
-        <v>12.82312849190599</v>
+        <v>12.80899036006227</v>
       </c>
       <c r="S4">
-        <v>15.26387260007683</v>
+        <v>14.03810909974029</v>
       </c>
       <c r="T4">
-        <v>12.52986615654686</v>
+        <v>12.07920229385924</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.39230109901613</v>
+        <v>20.89733633547034</v>
       </c>
       <c r="C5">
-        <v>16.76889510140574</v>
+        <v>16.72549788761775</v>
       </c>
       <c r="D5">
-        <v>15.09390704159077</v>
+        <v>14.93681388489053</v>
       </c>
       <c r="E5">
-        <v>14.58443607739694</v>
+        <v>14.58074765396432</v>
       </c>
       <c r="F5">
-        <v>15.04723805784364</v>
+        <v>14.92935151459458</v>
       </c>
       <c r="G5">
-        <v>16.98417082950767</v>
+        <v>16.8604916561623</v>
       </c>
       <c r="H5">
-        <v>17.3855633857401</v>
+        <v>17.30763427491905</v>
       </c>
       <c r="I5">
-        <v>19.39360413167274</v>
+        <v>19.23630259330575</v>
       </c>
       <c r="J5">
-        <v>13.93953800505344</v>
+        <v>13.89815317925775</v>
       </c>
       <c r="K5">
-        <v>17.65371897022868</v>
+        <v>17.52798734359269</v>
       </c>
       <c r="L5">
-        <v>22.78946371350673</v>
+        <v>22.53486505529516</v>
       </c>
       <c r="M5">
-        <v>16.19785833700319</v>
+        <v>16.11668704253561</v>
       </c>
       <c r="N5">
-        <v>17.0608536038832</v>
+        <v>16.94052562810475</v>
       </c>
       <c r="O5">
-        <v>25.15504434290754</v>
+        <v>25.16879243909068</v>
       </c>
       <c r="P5">
-        <v>13.28113023254386</v>
+        <v>13.23998046701135</v>
       </c>
       <c r="Q5">
-        <v>12.53560457427782</v>
+        <v>12.21567828301989</v>
       </c>
       <c r="R5">
-        <v>17.68620953636392</v>
+        <v>17.66670961772872</v>
       </c>
       <c r="S5">
-        <v>22.82901034344508</v>
+        <v>20.99572934320537</v>
       </c>
       <c r="T5">
-        <v>25.63796927102144</v>
+        <v>24.71584399699304</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>26.23999295989293</v>
+        <v>25.63286463598234</v>
       </c>
       <c r="C6">
-        <v>26.45350809703397</v>
+        <v>26.38504750142603</v>
       </c>
       <c r="D6">
-        <v>26.29069678224053</v>
+        <v>26.01707057412949</v>
       </c>
       <c r="E6">
-        <v>19.47919215772478</v>
+        <v>19.47426584391863</v>
       </c>
       <c r="F6">
-        <v>19.15073265275434</v>
+        <v>19.00069756562129</v>
       </c>
       <c r="G6">
-        <v>27.68140105925499</v>
+        <v>27.47982437738942</v>
       </c>
       <c r="H6">
-        <v>26.74203341590681</v>
+        <v>26.62216483072436</v>
       </c>
       <c r="I6">
-        <v>27.80091460117169</v>
+        <v>27.57542136097341</v>
       </c>
       <c r="J6">
-        <v>21.04477498740857</v>
+        <v>20.98229556043993</v>
       </c>
       <c r="K6">
-        <v>23.48395315485608</v>
+        <v>23.31669799264449</v>
       </c>
       <c r="L6">
-        <v>29.27568265784395</v>
+        <v>28.94862145023436</v>
       </c>
       <c r="M6">
-        <v>31.78467104849264</v>
+        <v>31.62539055353126</v>
       </c>
       <c r="N6">
-        <v>21.01264377344676</v>
+        <v>20.86444433690527</v>
       </c>
       <c r="O6">
-        <v>28.73643762403655</v>
+        <v>28.75214307472193</v>
       </c>
       <c r="P6">
-        <v>28.45945297399728</v>
+        <v>28.37127525142711</v>
       </c>
       <c r="Q6">
-        <v>23.5708691148304</v>
+        <v>22.96930732393704</v>
       </c>
       <c r="R6">
-        <v>25.53597924839394</v>
+        <v>25.50782457135079</v>
       </c>
       <c r="S6">
-        <v>28.02239692407863</v>
+        <v>25.77206162310751</v>
       </c>
       <c r="T6">
-        <v>34.93927580906624</v>
+        <v>33.68260883442385</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.800641675997031</v>
+        <v>7.620154184502118</v>
       </c>
       <c r="C7">
-        <v>7.072801616197588</v>
+        <v>7.054497495266421</v>
       </c>
       <c r="D7">
-        <v>8.199320057083153</v>
+        <v>8.11398383055058</v>
       </c>
       <c r="E7">
-        <v>6.424274228412023</v>
+        <v>6.422649520848707</v>
       </c>
       <c r="F7">
-        <v>7.602186137240813</v>
+        <v>7.542627337053682</v>
       </c>
       <c r="G7">
-        <v>8.586397516301219</v>
+        <v>8.523871146454193</v>
       </c>
       <c r="H7">
-        <v>8.515343165675059</v>
+        <v>8.477173961346516</v>
       </c>
       <c r="I7">
-        <v>8.964091257323116</v>
+        <v>8.891383506083821</v>
       </c>
       <c r="J7">
-        <v>7.276231147095332</v>
+        <v>7.254628884641403</v>
       </c>
       <c r="K7">
-        <v>6.552620657064781</v>
+        <v>6.505952209734748</v>
       </c>
       <c r="L7">
-        <v>8.518087400055142</v>
+        <v>8.422925282602703</v>
       </c>
       <c r="M7">
-        <v>10.9027017226496</v>
+        <v>10.8480657088255</v>
       </c>
       <c r="N7">
-        <v>6.431819878429303</v>
+        <v>6.386457091518876</v>
       </c>
       <c r="O7">
-        <v>8.189660938549663</v>
+        <v>8.194136869689185</v>
       </c>
       <c r="P7">
-        <v>7.853312555444936</v>
+        <v>7.828980140608869</v>
       </c>
       <c r="Q7">
-        <v>7.071403216883474</v>
+        <v>6.890931043262982</v>
       </c>
       <c r="R7">
-        <v>7.579923435211613</v>
+        <v>7.571566195637823</v>
       </c>
       <c r="S7">
-        <v>8.010193187206827</v>
+        <v>7.366935562043397</v>
       </c>
       <c r="T7">
-        <v>9.877865014236876</v>
+        <v>9.522586135212546</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>211.67</v>
+        <v>229.91</v>
       </c>
       <c r="C8">
-        <v>207.87</v>
+        <v>209.92</v>
       </c>
       <c r="D8">
-        <v>208.28</v>
+        <v>216.52</v>
       </c>
       <c r="E8">
-        <v>288.26</v>
+        <v>288.44</v>
       </c>
       <c r="F8">
-        <v>216.28</v>
+        <v>222.42</v>
       </c>
       <c r="G8">
-        <v>229.61</v>
+        <v>235.22</v>
       </c>
       <c r="H8">
-        <v>174.55</v>
+        <v>178.25</v>
       </c>
       <c r="I8">
-        <v>224.51</v>
+        <v>230.8</v>
       </c>
       <c r="J8">
-        <v>258.98</v>
+        <v>261.18</v>
       </c>
       <c r="K8">
-        <v>222.14</v>
+        <v>227.68</v>
       </c>
       <c r="L8">
-        <v>170.23</v>
+        <v>179.5</v>
       </c>
       <c r="M8">
-        <v>167.87</v>
+        <v>172.04</v>
       </c>
       <c r="N8">
-        <v>257.04</v>
+        <v>262.28</v>
       </c>
       <c r="O8">
-        <v>176.63</v>
+        <v>176.18</v>
       </c>
       <c r="P8">
-        <v>235.08</v>
+        <v>237.45</v>
       </c>
       <c r="Q8">
-        <v>303.33</v>
+        <v>321.11</v>
       </c>
       <c r="R8">
-        <v>183.71</v>
+        <v>184.61</v>
       </c>
       <c r="S8">
-        <v>231.18</v>
+        <v>292.92</v>
       </c>
       <c r="T8">
-        <v>200.66</v>
+        <v>229.41</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>8.913863304930024</v>
+        <v>8.707618627343324</v>
       </c>
       <c r="C9">
-        <v>7.589423647293762</v>
+        <v>7.569782529703274</v>
       </c>
       <c r="D9">
-        <v>8.729672902045277</v>
+        <v>8.638816911653654</v>
       </c>
       <c r="E9">
-        <v>8.850046800337054</v>
+        <v>8.847808611638849</v>
       </c>
       <c r="F9">
-        <v>11.66476036323537</v>
+        <v>11.57337360695728</v>
       </c>
       <c r="G9">
-        <v>10.60611514859138</v>
+        <v>10.52888114245994</v>
       </c>
       <c r="H9">
-        <v>7.821797383898479</v>
+        <v>7.786736931635564</v>
       </c>
       <c r="I9">
-        <v>7.427185658978245</v>
+        <v>7.366943750256054</v>
       </c>
       <c r="J9">
-        <v>7.337913973645447</v>
+        <v>7.31612858223628</v>
       </c>
       <c r="K9">
-        <v>5.901354091758953</v>
+        <v>5.8593240327916</v>
       </c>
       <c r="L9">
-        <v>9.303551144196307</v>
+        <v>9.19961400606562</v>
       </c>
       <c r="M9">
-        <v>8.9236691209155</v>
+        <v>8.878950506955883</v>
       </c>
       <c r="N9">
-        <v>6.206717906745303</v>
+        <v>6.162942734688468</v>
       </c>
       <c r="O9">
-        <v>9.099998584637158</v>
+        <v>9.104972046583898</v>
       </c>
       <c r="P9">
-        <v>10.52378319917407</v>
+        <v>10.49117669629528</v>
       </c>
       <c r="Q9">
-        <v>6.028431797427761</v>
+        <v>5.874577723966487</v>
       </c>
       <c r="R9">
-        <v>4.825486361929051</v>
+        <v>4.820166025129953</v>
       </c>
       <c r="S9">
-        <v>6.403808619572463</v>
+        <v>5.889551518856557</v>
       </c>
       <c r="T9">
-        <v>6.68203578957978</v>
+        <v>6.441701852893991</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>21.59860307240124</v>
+        <v>21.09886499311896</v>
       </c>
       <c r="C10">
-        <v>26.05005089179696</v>
+        <v>25.98263442691344</v>
       </c>
       <c r="D10">
-        <v>22.96297670748585</v>
+        <v>22.72398447782172</v>
       </c>
       <c r="E10">
-        <v>20.5162546331915</v>
+        <v>20.51106604489524</v>
       </c>
       <c r="F10">
-        <v>18.51974056406743</v>
+        <v>18.37464894070274</v>
       </c>
       <c r="G10">
-        <v>22.57256247373909</v>
+        <v>22.4081884872158</v>
       </c>
       <c r="H10">
-        <v>24.80471180408071</v>
+        <v>24.69352707614433</v>
       </c>
       <c r="I10">
-        <v>20.22520111434307</v>
+        <v>20.0611544921955</v>
       </c>
       <c r="J10">
-        <v>21.13378564850621</v>
+        <v>21.07104195950089</v>
       </c>
       <c r="K10">
-        <v>21.36873524275236</v>
+        <v>21.21654488298987</v>
       </c>
       <c r="L10">
-        <v>21.96841261526208</v>
+        <v>21.72298655148117</v>
       </c>
       <c r="M10">
-        <v>17.65509916863567</v>
+        <v>17.56662529612391</v>
       </c>
       <c r="N10">
-        <v>27.71255384731916</v>
+        <v>27.51710081867703</v>
       </c>
       <c r="O10">
-        <v>25.99866893329846</v>
+        <v>26.01287809931129</v>
       </c>
       <c r="P10">
-        <v>19.57536379551857</v>
+        <v>19.51471220816906</v>
       </c>
       <c r="Q10">
-        <v>22.74447099558954</v>
+        <v>22.16400004908462</v>
       </c>
       <c r="R10">
-        <v>26.37726469965131</v>
+        <v>26.34818246388989</v>
       </c>
       <c r="S10">
-        <v>22.29140268253338</v>
+        <v>20.50129420249955</v>
       </c>
       <c r="T10">
-        <v>17.55524047305072</v>
+        <v>16.92382810334546</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>36.28244941334152</v>
+        <v>35.44296356693285</v>
       </c>
       <c r="C11">
-        <v>43.98913589538402</v>
+        <v>43.87529381316831</v>
       </c>
       <c r="D11">
-        <v>41.1552180841391</v>
+        <v>40.72688610185582</v>
       </c>
       <c r="E11">
-        <v>32.61010173394673</v>
+        <v>32.60185459550838</v>
       </c>
       <c r="F11">
-        <v>25.9230537083758</v>
+        <v>25.71996134149805</v>
       </c>
       <c r="G11">
-        <v>38.12766518827453</v>
+        <v>37.85001853955607</v>
       </c>
       <c r="H11">
-        <v>50.32003078678369</v>
+        <v>50.09447610277969</v>
       </c>
       <c r="I11">
-        <v>47.74812245483223</v>
+        <v>47.36083739604245</v>
       </c>
       <c r="J11">
-        <v>38.74462302620073</v>
+        <v>38.62959486143102</v>
       </c>
       <c r="K11">
-        <v>38.30725964126482</v>
+        <v>38.0344313451542</v>
       </c>
       <c r="L11">
-        <v>44.44436868547621</v>
+        <v>43.94784639892168</v>
       </c>
       <c r="M11">
-        <v>40.85251947430464</v>
+        <v>40.64779784882803</v>
       </c>
       <c r="N11">
-        <v>35.32225105674773</v>
+        <v>35.0731278259717</v>
       </c>
       <c r="O11">
-        <v>32.66406321954021</v>
+        <v>32.68191525258586</v>
       </c>
       <c r="P11">
-        <v>37.87732321315105</v>
+        <v>37.75996550775027</v>
       </c>
       <c r="Q11">
-        <v>34.79492288089923</v>
+        <v>33.90690742333339</v>
       </c>
       <c r="R11">
-        <v>50.23568566986769</v>
+        <v>50.180298347834</v>
       </c>
       <c r="S11">
-        <v>27.55239262172468</v>
+        <v>25.33980096117308</v>
       </c>
       <c r="T11">
-        <v>31.95073907876059</v>
+        <v>30.80156132146787</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.79889702252732</v>
+        <v>10.5490373423288</v>
       </c>
       <c r="C12">
-        <v>12.22016112284945</v>
+        <v>12.18853584631423</v>
       </c>
       <c r="D12">
-        <v>11.75642587153004</v>
+        <v>11.63406828402257</v>
       </c>
       <c r="E12">
-        <v>10.35497941559767</v>
+        <v>10.35236062742389</v>
       </c>
       <c r="F12">
-        <v>9.175983525755624</v>
+        <v>9.104094919048972</v>
       </c>
       <c r="G12">
-        <v>10.18890398750888</v>
+        <v>10.11470812389445</v>
       </c>
       <c r="H12">
-        <v>11.61625204237601</v>
+        <v>11.56418331312918</v>
       </c>
       <c r="I12">
-        <v>10.47637459543611</v>
+        <v>10.39140071285182</v>
       </c>
       <c r="J12">
-        <v>9.374228045072064</v>
+        <v>9.346397080052009</v>
       </c>
       <c r="K12">
-        <v>10.52095165498963</v>
+        <v>10.4460203406546</v>
       </c>
       <c r="L12">
-        <v>11.19476481940998</v>
+        <v>11.06969947615109</v>
       </c>
       <c r="M12">
-        <v>13.43442165982028</v>
+        <v>13.3670985993352</v>
       </c>
       <c r="N12">
-        <v>9.913866002916185</v>
+        <v>9.843944798739267</v>
       </c>
       <c r="O12">
-        <v>12.16879914667979</v>
+        <v>12.17544981359261</v>
       </c>
       <c r="P12">
-        <v>12.5720310522336</v>
+        <v>12.53307833352603</v>
       </c>
       <c r="Q12">
-        <v>11.54891371639109</v>
+        <v>11.25416916606248</v>
       </c>
       <c r="R12">
-        <v>12.60675020801755</v>
+        <v>12.59285064390772</v>
       </c>
       <c r="S12">
-        <v>8.433518980080413</v>
+        <v>7.756266226730911</v>
       </c>
       <c r="T12">
-        <v>12.54245476956416</v>
+        <v>12.09133813005535</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.550863223855905</v>
+        <v>2.491842578690643</v>
       </c>
       <c r="C13">
-        <v>2.763517848879522</v>
+        <v>2.756365977860619</v>
       </c>
       <c r="D13">
-        <v>2.663152169334349</v>
+        <v>2.635434827502242</v>
       </c>
       <c r="E13">
-        <v>2.188112421297241</v>
+        <v>2.187559044732999</v>
       </c>
       <c r="F13">
-        <v>2.405299284890812</v>
+        <v>2.386455134417136</v>
       </c>
       <c r="G13">
-        <v>1.92061000015562</v>
+        <v>1.906624068223906</v>
       </c>
       <c r="H13">
-        <v>2.607834507861015</v>
+        <v>2.596145141237858</v>
       </c>
       <c r="I13">
-        <v>2.507499211356466</v>
+        <v>2.487160883280757</v>
       </c>
       <c r="J13">
-        <v>1.995712717241729</v>
+        <v>1.989787684208973</v>
       </c>
       <c r="K13">
-        <v>2.224694623081506</v>
+        <v>2.208850116085554</v>
       </c>
       <c r="L13">
-        <v>2.474168428146923</v>
+        <v>2.446527586312532</v>
       </c>
       <c r="M13">
-        <v>2.610675270804477</v>
+        <v>2.597592560315426</v>
       </c>
       <c r="N13">
-        <v>1.884447408785156</v>
+        <v>1.871156646937904</v>
       </c>
       <c r="O13">
-        <v>2.651632846674154</v>
+        <v>2.653082055147869</v>
       </c>
       <c r="P13">
-        <v>2.725257556115135</v>
+        <v>2.716813718317728</v>
       </c>
       <c r="Q13">
-        <v>2.293967193065161</v>
+        <v>2.235421918124804</v>
       </c>
       <c r="R13">
-        <v>2.385173747110014</v>
+        <v>2.382543975371541</v>
       </c>
       <c r="S13">
-        <v>2.07075525677516</v>
+        <v>1.904463498556984</v>
       </c>
       <c r="T13">
-        <v>3.234434304576799</v>
+        <v>3.118100846653284</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.105687185260519</v>
+        <v>6.941279216187731</v>
       </c>
       <c r="C14">
-        <v>6.379872066552724</v>
+        <v>6.36336121891858</v>
       </c>
       <c r="D14">
-        <v>6.256048666570092</v>
+        <v>6.190937464361559</v>
       </c>
       <c r="E14">
-        <v>6.711850460833111</v>
+        <v>6.710153024855155</v>
       </c>
       <c r="F14">
-        <v>4.744307572137473</v>
+        <v>4.707138623414813</v>
       </c>
       <c r="G14">
-        <v>5.737852347531085</v>
+        <v>5.696069157627725</v>
       </c>
       <c r="H14">
-        <v>6.984082798775967</v>
+        <v>6.952777321332791</v>
       </c>
       <c r="I14">
-        <v>5.717924239010199</v>
+        <v>5.671546151009873</v>
       </c>
       <c r="J14">
-        <v>5.471813271686242</v>
+        <v>5.455568110695025</v>
       </c>
       <c r="K14">
-        <v>7.260623328059831</v>
+        <v>7.208912411908528</v>
       </c>
       <c r="L14">
-        <v>6.559088288453879</v>
+        <v>6.485811659467573</v>
       </c>
       <c r="M14">
-        <v>6.682024213834206</v>
+        <v>6.648539012036786</v>
       </c>
       <c r="N14">
-        <v>5.017116514720828</v>
+        <v>4.981731446161097</v>
       </c>
       <c r="O14">
-        <v>7.792760480607989</v>
+        <v>7.797019492007816</v>
       </c>
       <c r="P14">
-        <v>6.496945138802912</v>
+        <v>6.476815242893584</v>
       </c>
       <c r="Q14">
-        <v>5.27541213187811</v>
+        <v>5.140776181277693</v>
       </c>
       <c r="R14">
-        <v>5.456241591024694</v>
+        <v>5.450225815464633</v>
       </c>
       <c r="S14">
-        <v>5.676267713188964</v>
+        <v>5.220435699697788</v>
       </c>
       <c r="T14">
-        <v>5.997215241438974</v>
+        <v>5.781512363825731</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.469193661440636</v>
+        <v>1.435200165842755</v>
       </c>
       <c r="C15">
-        <v>1.62612934549795</v>
+        <v>1.621920989346471</v>
       </c>
       <c r="D15">
-        <v>1.354351973714628</v>
+        <v>1.340256257724873</v>
       </c>
       <c r="E15">
-        <v>1.178615543238759</v>
+        <v>1.178317469788085</v>
       </c>
       <c r="F15">
-        <v>1.683463977210071</v>
+        <v>1.670274995405256</v>
       </c>
       <c r="G15">
-        <v>1.68562900138502</v>
+        <v>1.673354207192767</v>
       </c>
       <c r="H15">
-        <v>1.681400659141008</v>
+        <v>1.67386394287858</v>
       </c>
       <c r="I15">
-        <v>1.230318745134991</v>
+        <v>1.220339628825433</v>
       </c>
       <c r="J15">
-        <v>1.350775821920262</v>
+        <v>1.34676552960936</v>
       </c>
       <c r="K15">
-        <v>1.534272153849315</v>
+        <v>1.523344907645209</v>
       </c>
       <c r="L15">
-        <v>1.402311215268204</v>
+        <v>1.386644916214809</v>
       </c>
       <c r="M15">
-        <v>2.353212226346442</v>
+        <v>2.341419723992405</v>
       </c>
       <c r="N15">
-        <v>1.062981532952224</v>
+        <v>1.055484462810265</v>
       </c>
       <c r="O15">
-        <v>1.940589898616944</v>
+        <v>1.941650497684651</v>
       </c>
       <c r="P15">
-        <v>1.8322308842233</v>
+        <v>1.826553967427283</v>
       </c>
       <c r="Q15">
-        <v>1.332210761190016</v>
+        <v>1.298210865494839</v>
       </c>
       <c r="R15">
-        <v>1.103612791569992</v>
+        <v>1.102396004016044</v>
       </c>
       <c r="S15">
-        <v>1.177425161547633</v>
+        <v>1.082872171935044</v>
       </c>
       <c r="T15">
-        <v>2.083835074796106</v>
+        <v>2.008885418329036</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.712668693177561</v>
+        <v>2.649904270964074</v>
       </c>
       <c r="C16">
-        <v>2.661833512600275</v>
+        <v>2.654944796479398</v>
       </c>
       <c r="D16">
-        <v>3.126804196371789</v>
+        <v>3.094261294110757</v>
       </c>
       <c r="E16">
-        <v>2.954734035704753</v>
+        <v>2.953986779506665</v>
       </c>
       <c r="F16">
-        <v>3.204064886133899</v>
+        <v>3.178962861940485</v>
       </c>
       <c r="G16">
-        <v>2.589586517063758</v>
+        <v>2.570729080751335</v>
       </c>
       <c r="H16">
-        <v>3.001099705153762</v>
+        <v>2.987647565219099</v>
       </c>
       <c r="I16">
-        <v>2.338320455569666</v>
+        <v>2.31935433651522</v>
       </c>
       <c r="J16">
-        <v>2.205746645621238</v>
+        <v>2.199198046905458</v>
       </c>
       <c r="K16">
-        <v>2.329376733578517</v>
+        <v>2.312786669680097</v>
       </c>
       <c r="L16">
-        <v>2.415703489262629</v>
+        <v>2.388715804307202</v>
       </c>
       <c r="M16">
-        <v>3.222579106466407</v>
+        <v>3.206430001309804</v>
       </c>
       <c r="N16">
-        <v>2.397961281689282</v>
+        <v>2.381048773457275</v>
       </c>
       <c r="O16">
-        <v>2.875417147428501</v>
+        <v>2.876988661712896</v>
       </c>
       <c r="P16">
-        <v>2.331574457112863</v>
+        <v>2.324350392552703</v>
       </c>
       <c r="Q16">
-        <v>2.24979763841608</v>
+        <v>2.192379632744761</v>
       </c>
       <c r="R16">
-        <v>2.669222459550436</v>
+        <v>2.666279510091794</v>
       </c>
       <c r="S16">
-        <v>1.941182152872789</v>
+        <v>1.785295747578486</v>
       </c>
       <c r="T16">
-        <v>2.055300885290239</v>
+        <v>1.981377522951191</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>19.25485084927706</v>
+        <v>18.80934138053831</v>
       </c>
       <c r="C17">
-        <v>19.79482414068331</v>
+        <v>19.74359594646216</v>
       </c>
       <c r="D17">
-        <v>17.53580771732129</v>
+        <v>17.35329994236205</v>
       </c>
       <c r="E17">
-        <v>20.09010539758305</v>
+        <v>20.08502458299968</v>
       </c>
       <c r="F17">
-        <v>19.16955602245576</v>
+        <v>19.01937346493793</v>
       </c>
       <c r="G17">
-        <v>16.38952503670044</v>
+        <v>16.27017608947125</v>
       </c>
       <c r="H17">
-        <v>20.12647678899737</v>
+        <v>20.03626179824167</v>
       </c>
       <c r="I17">
-        <v>17.69307964275471</v>
+        <v>17.54957105985497</v>
       </c>
       <c r="J17">
-        <v>17.33443585112818</v>
+        <v>17.28297197853029</v>
       </c>
       <c r="K17">
-        <v>20.83813278954614</v>
+        <v>20.68972143576257</v>
       </c>
       <c r="L17">
-        <v>19.41883288913396</v>
+        <v>19.2018901449009</v>
       </c>
       <c r="M17">
-        <v>19.60495262533119</v>
+        <v>19.50670757654358</v>
       </c>
       <c r="N17">
-        <v>20.25448782714995</v>
+        <v>20.11163556563619</v>
       </c>
       <c r="O17">
-        <v>20.63122359143193</v>
+        <v>20.64249926411388</v>
       </c>
       <c r="P17">
-        <v>16.81645142179489</v>
+        <v>16.7643479470921</v>
       </c>
       <c r="Q17">
-        <v>16.38263030177839</v>
+        <v>15.96452249353974</v>
       </c>
       <c r="R17">
-        <v>16.0203473816398</v>
+        <v>16.00268415822229</v>
       </c>
       <c r="S17">
-        <v>23.23463049479163</v>
+        <v>21.36877621583371</v>
       </c>
       <c r="T17">
-        <v>22.7140540875379</v>
+        <v>21.89709377651041</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.25399962233828</v>
+        <v>19.78537233032675</v>
       </c>
       <c r="C18">
-        <v>20.26142403860985</v>
+        <v>20.20898830296148</v>
       </c>
       <c r="D18">
-        <v>21.03841408297606</v>
+        <v>20.81945216203971</v>
       </c>
       <c r="E18">
-        <v>18.70735543029409</v>
+        <v>18.70262431503085</v>
       </c>
       <c r="F18">
-        <v>21.62805178693756</v>
+        <v>21.45860831481512</v>
       </c>
       <c r="G18">
-        <v>18.80887021792019</v>
+        <v>18.67190353621023</v>
       </c>
       <c r="H18">
-        <v>20.12221143978595</v>
+        <v>20.03201556804665</v>
       </c>
       <c r="I18">
-        <v>20.46745238436642</v>
+        <v>20.30144086197714</v>
       </c>
       <c r="J18">
-        <v>19.1935093956323</v>
+        <v>19.13652615540884</v>
       </c>
       <c r="K18">
-        <v>21.46382815228781</v>
+        <v>21.31096053091163</v>
       </c>
       <c r="L18">
-        <v>19.55525107986399</v>
+        <v>19.33678430291334</v>
       </c>
       <c r="M18">
-        <v>22.53316565096724</v>
+        <v>22.42024663499074</v>
       </c>
       <c r="N18">
-        <v>20.10989107450572</v>
+        <v>19.96805863503332</v>
       </c>
       <c r="O18">
-        <v>20.14818728942632</v>
+        <v>20.15919896616975</v>
       </c>
       <c r="P18">
-        <v>21.91398228422391</v>
+        <v>21.84608480734579</v>
       </c>
       <c r="Q18">
-        <v>15.64528370400745</v>
+        <v>15.24599401985678</v>
       </c>
       <c r="R18">
-        <v>23.20677980638247</v>
+        <v>23.18119318664471</v>
       </c>
       <c r="S18">
-        <v>20.1385576332238</v>
+        <v>18.52133312257731</v>
       </c>
       <c r="T18">
-        <v>17.55943667738982</v>
+        <v>16.92787338207749</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>19.56470832302803</v>
+        <v>19.11202952124193</v>
       </c>
       <c r="C19">
-        <v>21.32910956954195</v>
+        <v>21.2739107074643</v>
       </c>
       <c r="D19">
-        <v>20.73500670387963</v>
+        <v>20.5192025619608</v>
       </c>
       <c r="E19">
-        <v>17.58387108187181</v>
+        <v>17.57942409730618</v>
       </c>
       <c r="F19">
-        <v>24.40900005847855</v>
+        <v>24.21776943994252</v>
       </c>
       <c r="G19">
-        <v>20.34903479149484</v>
+        <v>20.2008525913361</v>
       </c>
       <c r="H19">
-        <v>18.71464620001798</v>
+        <v>18.63075960368862</v>
       </c>
       <c r="I19">
-        <v>16.68912683846122</v>
+        <v>16.55376131754681</v>
       </c>
       <c r="J19">
-        <v>18.1409973679164</v>
+        <v>18.08713891037218</v>
       </c>
       <c r="K19">
-        <v>22.47468975365207</v>
+        <v>22.31462267058412</v>
       </c>
       <c r="L19">
-        <v>18.24953411144809</v>
+        <v>18.04565450479429</v>
       </c>
       <c r="M19">
-        <v>23.91917504029966</v>
+        <v>23.79931040386299</v>
       </c>
       <c r="N19">
-        <v>16.65363788427429</v>
+        <v>16.53618194786641</v>
       </c>
       <c r="O19">
-        <v>18.6222316989995</v>
+        <v>18.63240938857351</v>
       </c>
       <c r="P19">
-        <v>26.1310091975922</v>
+        <v>26.0500458395962</v>
       </c>
       <c r="Q19">
-        <v>17.1242513725799</v>
+        <v>16.68721634967885</v>
       </c>
       <c r="R19">
-        <v>26.60533910699317</v>
+        <v>26.57600540794468</v>
       </c>
       <c r="S19">
-        <v>17.25897647941831</v>
+        <v>15.87299639586262</v>
       </c>
       <c r="T19">
-        <v>12.44426358802926</v>
+        <v>11.99667860772571</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.26847048029745</v>
+        <v>3.19284618392331</v>
       </c>
       <c r="C20">
-        <v>4.618436951005776</v>
+        <v>4.606484625314839</v>
       </c>
       <c r="D20">
-        <v>8.22372279534828</v>
+        <v>8.138132591951029</v>
       </c>
       <c r="E20">
-        <v>5.664357759320028</v>
+        <v>5.66292523565032</v>
       </c>
       <c r="F20">
-        <v>3.739303311557032</v>
+        <v>3.710007999030926</v>
       </c>
       <c r="G20">
-        <v>8.193164008154499</v>
+        <v>8.133501174932693</v>
       </c>
       <c r="H20">
-        <v>3.12308869260032</v>
+        <v>3.109089748796794</v>
       </c>
       <c r="I20">
-        <v>3.565462134868286</v>
+        <v>3.536542668687779</v>
       </c>
       <c r="J20">
-        <v>9.573330839632563</v>
+        <v>9.544908762162057</v>
       </c>
       <c r="K20">
-        <v>7.342930636313206</v>
+        <v>7.290633518933245</v>
       </c>
       <c r="L20">
-        <v>7.323369083723922</v>
+        <v>7.241554085102472</v>
       </c>
       <c r="M20">
-        <v>6.152508552398848</v>
+        <v>6.121676878665775</v>
       </c>
       <c r="N20">
-        <v>7.007862076801207</v>
+        <v>6.958436539380028</v>
       </c>
       <c r="O20">
-        <v>4.143809674722953</v>
+        <v>4.146074409111654</v>
       </c>
       <c r="P20">
-        <v>8.257170366747467</v>
+        <v>8.23158665371971</v>
       </c>
       <c r="Q20">
-        <v>4.902108153876203</v>
+        <v>4.776999446775395</v>
       </c>
       <c r="R20">
-        <v>3.883948423928005</v>
+        <v>3.879666179160171</v>
       </c>
       <c r="S20">
-        <v>3.502497814801981</v>
+        <v>3.221230138251067</v>
       </c>
       <c r="T20">
-        <v>2.870203767943086</v>
+        <v>2.766970652712566</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>34.0139367334519</v>
+        <v>33.22693864125934</v>
       </c>
       <c r="C21">
-        <v>31.18839001377889</v>
+        <v>31.10767573767743</v>
       </c>
       <c r="D21">
-        <v>30.34399160807837</v>
+        <v>30.02817984274394</v>
       </c>
       <c r="E21">
-        <v>28.8120094207791</v>
+        <v>28.80472282497762</v>
       </c>
       <c r="F21">
-        <v>31.11257489432089</v>
+        <v>30.86882558353243</v>
       </c>
       <c r="G21">
-        <v>26.55764839166498</v>
+        <v>26.36425490592758</v>
       </c>
       <c r="H21">
-        <v>33.89758325298178</v>
+        <v>33.74564060589712</v>
       </c>
       <c r="I21">
-        <v>32.85721487975746</v>
+        <v>32.59070998402229</v>
       </c>
       <c r="J21">
-        <v>27.08266483186487</v>
+        <v>27.0022596300753</v>
       </c>
       <c r="K21">
-        <v>31.84253999301432</v>
+        <v>31.61575410408662</v>
       </c>
       <c r="L21">
-        <v>33.84781034218669</v>
+        <v>33.46967037343381</v>
       </c>
       <c r="M21">
-        <v>33.84008435341595</v>
+        <v>33.67050369684338</v>
       </c>
       <c r="N21">
-        <v>26.34083870736979</v>
+        <v>26.15506020674172</v>
       </c>
       <c r="O21">
-        <v>32.67504131731306</v>
+        <v>32.6928993502664</v>
       </c>
       <c r="P21">
-        <v>34.98613957952403</v>
+        <v>34.8777398111777</v>
       </c>
       <c r="Q21">
-        <v>24.2512227388606</v>
+        <v>23.63229736487157</v>
       </c>
       <c r="R21">
-        <v>31.19523212507458</v>
+        <v>31.16083784251255</v>
       </c>
       <c r="S21">
-        <v>20.82827285089046</v>
+        <v>19.15566084051875</v>
       </c>
       <c r="T21">
-        <v>26.13731758737411</v>
+        <v>25.19723216610531</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>74.53811652506062</v>
+        <v>72.81348947114017</v>
       </c>
       <c r="C22">
-        <v>67.34947208560092</v>
+        <v>67.17517440999781</v>
       </c>
       <c r="D22">
-        <v>73.1390737036341</v>
+        <v>72.37786271070988</v>
       </c>
       <c r="E22">
-        <v>73.35875984863947</v>
+        <v>73.34020731994534</v>
       </c>
       <c r="F22">
-        <v>79.13753826168318</v>
+        <v>78.51754070525136</v>
       </c>
       <c r="G22">
-        <v>79.08709118826415</v>
+        <v>78.5111769350078</v>
       </c>
       <c r="H22">
-        <v>73.91253034497939</v>
+        <v>73.5812245574981</v>
       </c>
       <c r="I22">
-        <v>80.23997476340692</v>
+        <v>79.58914826498423</v>
       </c>
       <c r="J22">
-        <v>66.25047889591575</v>
+        <v>66.05378912563826</v>
       </c>
       <c r="K22">
-        <v>73.71618329189867</v>
+        <v>73.19116895070985</v>
       </c>
       <c r="L22">
-        <v>74.61142983181693</v>
+        <v>73.77788806175903</v>
       </c>
       <c r="M22">
-        <v>91.51008989171946</v>
+        <v>91.0515112142911</v>
       </c>
       <c r="N22">
-        <v>64.18532609267402</v>
+        <v>63.73263535733749</v>
       </c>
       <c r="O22">
-        <v>82.02243527535474</v>
+        <v>82.06726335492274</v>
       </c>
       <c r="P22">
-        <v>61.99139136476143</v>
+        <v>61.7993195173336</v>
       </c>
       <c r="Q22">
-        <v>58.48405241624169</v>
+        <v>56.99145699522345</v>
       </c>
       <c r="R22">
-        <v>71.16840490194772</v>
+        <v>71.08993822415951</v>
       </c>
       <c r="S22">
-        <v>51.8429231930375</v>
+        <v>47.6796833216266</v>
       </c>
       <c r="T22">
-        <v>64.14737573179234</v>
+        <v>61.84017597663305</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.29317053171281</v>
+        <v>12.00873707047393</v>
       </c>
       <c r="C23">
-        <v>12.3882682916982</v>
+        <v>12.35620796069447</v>
       </c>
       <c r="D23">
-        <v>12.60238746472116</v>
+        <v>12.47122534590478</v>
       </c>
       <c r="E23">
-        <v>17.04373437589955</v>
+        <v>17.03942399263086</v>
       </c>
       <c r="F23">
-        <v>25.59078031277672</v>
+        <v>25.39029111877829</v>
       </c>
       <c r="G23">
-        <v>12.30453223154214</v>
+        <v>12.21493030807617</v>
       </c>
       <c r="H23">
-        <v>10.6582546094915</v>
+        <v>10.61048001132673</v>
       </c>
       <c r="I23">
-        <v>8.033210967266172</v>
+        <v>7.968053586791758</v>
       </c>
       <c r="J23">
-        <v>12.00863129545297</v>
+        <v>11.97297910138263</v>
       </c>
       <c r="K23">
-        <v>10.65839686877196</v>
+        <v>10.58248665529781</v>
       </c>
       <c r="L23">
-        <v>7.483512177189597</v>
+        <v>7.399908096682291</v>
       </c>
       <c r="M23">
-        <v>10.96706748376411</v>
+        <v>10.91210891790625</v>
       </c>
       <c r="N23">
-        <v>20.61793371893141</v>
+        <v>20.47251812093528</v>
       </c>
       <c r="O23">
-        <v>7.911830617990492</v>
+        <v>7.916154705312226</v>
       </c>
       <c r="P23">
-        <v>8.826171585384946</v>
+        <v>8.798824899904943</v>
       </c>
       <c r="Q23">
-        <v>10.74175072578773</v>
+        <v>10.46760611226267</v>
       </c>
       <c r="R23">
-        <v>7.802149780826768</v>
+        <v>7.793547525742492</v>
       </c>
       <c r="S23">
-        <v>25.60557685563874</v>
+        <v>23.54932400703031</v>
       </c>
       <c r="T23">
-        <v>28.99745046490336</v>
+        <v>27.95449414986099</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.504748665099234</v>
+        <v>2.446794996392715</v>
       </c>
       <c r="C24">
-        <v>2.529807882431253</v>
+        <v>2.523260843234424</v>
       </c>
       <c r="D24">
-        <v>3.182930494381585</v>
+        <v>3.149803445331788</v>
       </c>
       <c r="E24">
-        <v>1.897556124291479</v>
+        <v>1.897076229804205</v>
       </c>
       <c r="F24">
-        <v>2.652458313144308</v>
+        <v>2.631677812400795</v>
       </c>
       <c r="G24">
-        <v>1.642469226100624</v>
+        <v>1.630508722513578</v>
       </c>
       <c r="H24">
-        <v>2.832191876381607</v>
+        <v>2.819496849496136</v>
       </c>
       <c r="I24">
-        <v>2.022202404850669</v>
+        <v>2.005800319554262</v>
       </c>
       <c r="J24">
-        <v>2.707017210750029</v>
+        <v>2.698980399511937</v>
       </c>
       <c r="K24">
-        <v>3.441724045119271</v>
+        <v>3.417211727722874</v>
       </c>
       <c r="L24">
-        <v>3.416385993934381</v>
+        <v>3.378218913702785</v>
       </c>
       <c r="M24">
-        <v>2.729966481403367</v>
+        <v>2.716285974478425</v>
       </c>
       <c r="N24">
-        <v>1.966515835961615</v>
+        <v>1.952646256198991</v>
       </c>
       <c r="O24">
-        <v>2.634743465485146</v>
+        <v>2.636183443331641</v>
       </c>
       <c r="P24">
-        <v>3.152595472725952</v>
+        <v>3.142827586841989</v>
       </c>
       <c r="Q24">
-        <v>2.094491784972538</v>
+        <v>2.041037403505255</v>
       </c>
       <c r="R24">
-        <v>3.097801840379661</v>
+        <v>3.094386361007941</v>
       </c>
       <c r="S24">
-        <v>0.8546996046230937</v>
+        <v>0.7860630530382888</v>
       </c>
       <c r="T24">
-        <v>3.061550685805958</v>
+        <v>2.951435362893404</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>23.49819928223748</v>
+        <v>22.95450926040905</v>
       </c>
       <c r="C25">
-        <v>24.05982601962171</v>
+        <v>23.99756017520195</v>
       </c>
       <c r="D25">
-        <v>25.00223220184175</v>
+        <v>24.74201597218583</v>
       </c>
       <c r="E25">
-        <v>23.48737902411196</v>
+        <v>23.48143903447481</v>
       </c>
       <c r="F25">
-        <v>23.91468200197156</v>
+        <v>23.7273240839752</v>
       </c>
       <c r="G25">
-        <v>22.22648501636606</v>
+        <v>22.06463117488082</v>
       </c>
       <c r="H25">
-        <v>25.94100083400249</v>
+        <v>25.8247228000988</v>
       </c>
       <c r="I25">
-        <v>22.7811505797042</v>
+        <v>22.59637264943259</v>
       </c>
       <c r="J25">
-        <v>22.83201536681636</v>
+        <v>22.76422983632191</v>
       </c>
       <c r="K25">
-        <v>24.23830363049866</v>
+        <v>24.06567590557005</v>
       </c>
       <c r="L25">
-        <v>26.5685017921147</v>
+        <v>26.27168458781362</v>
       </c>
       <c r="M25">
-        <v>24.41350408565909</v>
+        <v>24.29116224960319</v>
       </c>
       <c r="N25">
-        <v>23.34807672966826</v>
+        <v>23.18340578902077</v>
       </c>
       <c r="O25">
-        <v>22.24078161874433</v>
+        <v>22.25293697020046</v>
       </c>
       <c r="P25">
-        <v>20.96460335959219</v>
+        <v>20.89964740346314</v>
       </c>
       <c r="Q25">
-        <v>20.23464291448129</v>
+        <v>19.71822631692509</v>
       </c>
       <c r="R25">
-        <v>25.9194450101885</v>
+        <v>25.89086754322313</v>
       </c>
       <c r="S25">
-        <v>27.38660343288065</v>
+        <v>25.18732545370992</v>
       </c>
       <c r="T25">
-        <v>24.10635468725064</v>
+        <v>23.23931725979993</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.727062387047844</v>
+        <v>6.571414856267902</v>
       </c>
       <c r="C26">
-        <v>7.568922773043912</v>
+        <v>7.549334710876414</v>
       </c>
       <c r="D26">
-        <v>7.237852169437092</v>
+        <v>7.162522631372923</v>
       </c>
       <c r="E26">
-        <v>5.774620148952986</v>
+        <v>5.773159739777146</v>
       </c>
       <c r="F26">
-        <v>7.382852959850294</v>
+        <v>7.325012510233747</v>
       </c>
       <c r="G26">
-        <v>6.132684365873522</v>
+        <v>6.088025998952157</v>
       </c>
       <c r="H26">
-        <v>6.943135446346354</v>
+        <v>6.912013511460558</v>
       </c>
       <c r="I26">
-        <v>5.781465555737636</v>
+        <v>5.734572084067353</v>
       </c>
       <c r="J26">
-        <v>7.193466848179986</v>
+        <v>7.1721103030584</v>
       </c>
       <c r="K26">
-        <v>6.800341681905037</v>
+        <v>6.751908939614965</v>
       </c>
       <c r="L26">
-        <v>6.84802371105597</v>
+        <v>6.771519161841744</v>
       </c>
       <c r="M26">
-        <v>6.601352459904023</v>
+        <v>6.568271523322241</v>
       </c>
       <c r="N26">
-        <v>6.828874745149693</v>
+        <v>6.780711582039181</v>
       </c>
       <c r="O26">
-        <v>6.019375455762218</v>
+        <v>6.022665251303826</v>
       </c>
       <c r="P26">
-        <v>7.411886575649147</v>
+        <v>7.388921858836555</v>
       </c>
       <c r="Q26">
-        <v>6.650367623373689</v>
+        <v>6.480640871333865</v>
       </c>
       <c r="R26">
-        <v>7.071142064987447</v>
+        <v>7.063345781977134</v>
       </c>
       <c r="S26">
-        <v>6.549477761226681</v>
+        <v>6.023522717161576</v>
       </c>
       <c r="T26">
-        <v>6.822189014505656</v>
+        <v>6.57681416254399</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>12.55853150140032</v>
+        <v>12.26795824580236</v>
       </c>
       <c r="C27">
-        <v>13.07873773643308</v>
+        <v>13.04489049878309</v>
       </c>
       <c r="D27">
-        <v>13.3059997513657</v>
+        <v>13.16751463295103</v>
       </c>
       <c r="E27">
-        <v>16.63621054394532</v>
+        <v>16.63200322399996</v>
       </c>
       <c r="F27">
-        <v>19.69333674458237</v>
+        <v>19.53905066331389</v>
       </c>
       <c r="G27">
-        <v>13.96218730450209</v>
+        <v>13.86051429371761</v>
       </c>
       <c r="H27">
-        <v>11.71776735360775</v>
+        <v>11.66524359177076</v>
       </c>
       <c r="I27">
-        <v>11.55737124626162</v>
+        <v>11.46362939899218</v>
       </c>
       <c r="J27">
-        <v>14.98580367058705</v>
+        <v>14.94131260681644</v>
       </c>
       <c r="K27">
-        <v>13.81324398512461</v>
+        <v>13.71486462164328</v>
       </c>
       <c r="L27">
-        <v>10.92023380204025</v>
+        <v>10.79823545629997</v>
       </c>
       <c r="M27">
-        <v>15.11050607924209</v>
+        <v>15.03478376379806</v>
       </c>
       <c r="N27">
-        <v>12.66902034384015</v>
+        <v>12.57966739536146</v>
       </c>
       <c r="O27">
-        <v>13.20749608980374</v>
+        <v>13.21471444029066</v>
       </c>
       <c r="P27">
-        <v>12.80604943513953</v>
+        <v>12.7663716424798</v>
       </c>
       <c r="Q27">
-        <v>12.41306968073521</v>
+        <v>12.09627065261074</v>
       </c>
       <c r="R27">
-        <v>10.79218019795697</v>
+        <v>10.78028128681245</v>
       </c>
       <c r="S27">
-        <v>14.31983998593098</v>
+        <v>13.1698869140398</v>
       </c>
       <c r="T27">
-        <v>14.31660996413483</v>
+        <v>13.80168197796014</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>22.98851205387426</v>
+        <v>22.45661492974773</v>
       </c>
       <c r="C28">
-        <v>28.74796594307697</v>
+        <v>28.67356738452811</v>
       </c>
       <c r="D28">
-        <v>29.00265442810514</v>
+        <v>28.70080292443264</v>
       </c>
       <c r="E28">
-        <v>24.40747396463021</v>
+        <v>24.40130128174933</v>
       </c>
       <c r="F28">
-        <v>28.22441525621961</v>
+        <v>28.00329303186246</v>
       </c>
       <c r="G28">
-        <v>25.35556872448477</v>
+        <v>25.17092881412202</v>
       </c>
       <c r="H28">
-        <v>25.57844615103196</v>
+        <v>25.46379323352173</v>
       </c>
       <c r="I28">
-        <v>22.18942206767995</v>
+        <v>22.00944364783482</v>
       </c>
       <c r="J28">
-        <v>32.64192717410317</v>
+        <v>32.54501718546179</v>
       </c>
       <c r="K28">
-        <v>29.14397902241581</v>
+        <v>28.93641256600439</v>
       </c>
       <c r="L28">
-        <v>22.7852271237325</v>
+        <v>22.53067579572956</v>
       </c>
       <c r="M28">
-        <v>25.58925198868412</v>
+        <v>25.46101820214498</v>
       </c>
       <c r="N28">
-        <v>32.43344242013639</v>
+        <v>32.20469357998144</v>
       </c>
       <c r="O28">
-        <v>24.11888080696194</v>
+        <v>24.13206260416506</v>
       </c>
       <c r="P28">
-        <v>34.11581034276354</v>
+        <v>34.01010717052022</v>
       </c>
       <c r="Q28">
-        <v>27.80544706376808</v>
+        <v>27.0958128771463</v>
       </c>
       <c r="R28">
-        <v>32.36066728346984</v>
+        <v>32.32498805114417</v>
       </c>
       <c r="S28">
-        <v>25.59028561977449</v>
+        <v>23.53526073207012</v>
       </c>
       <c r="T28">
-        <v>25.30562988736487</v>
+        <v>24.39545792141579</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>4.450459433692146</v>
+        <v>4.347486845980725</v>
       </c>
       <c r="C29">
-        <v>4.374886564917581</v>
+        <v>4.363564537651752</v>
       </c>
       <c r="D29">
-        <v>4.732504374217241</v>
+        <v>4.683249794260246</v>
       </c>
       <c r="E29">
-        <v>3.478480386461293</v>
+        <v>3.477600674109081</v>
       </c>
       <c r="F29">
-        <v>4.791775200080199</v>
+        <v>4.754234369517635</v>
       </c>
       <c r="G29">
-        <v>3.929138061075751</v>
+        <v>3.900525975609123</v>
       </c>
       <c r="H29">
-        <v>4.525535513314585</v>
+        <v>4.505250236920784</v>
       </c>
       <c r="I29">
-        <v>3.644888780777582</v>
+        <v>3.615325085009628</v>
       </c>
       <c r="J29">
-        <v>4.021095654849336</v>
+        <v>4.009157501438268</v>
       </c>
       <c r="K29">
-        <v>4.35429633662756</v>
+        <v>4.323284584249347</v>
       </c>
       <c r="L29">
-        <v>3.860380602273075</v>
+        <v>3.817253316178048</v>
       </c>
       <c r="M29">
-        <v>4.719297604915785</v>
+        <v>4.695648089800962</v>
       </c>
       <c r="N29">
-        <v>4.644291374119203</v>
+        <v>4.611535792660733</v>
       </c>
       <c r="O29">
-        <v>4.665691553463279</v>
+        <v>4.668241514233114</v>
       </c>
       <c r="P29">
-        <v>4.343036811856084</v>
+        <v>4.329580506302433</v>
       </c>
       <c r="Q29">
-        <v>3.759399030374178</v>
+        <v>3.663453870169127</v>
       </c>
       <c r="R29">
-        <v>4.355135111623293</v>
+        <v>4.350333360284357</v>
       </c>
       <c r="S29">
-        <v>4.337077372235266</v>
+        <v>3.988788882131204</v>
       </c>
       <c r="T29">
-        <v>4.449655081179603</v>
+        <v>4.289613567450885</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>10.26170286437942</v>
+        <v>10.02427252398101</v>
       </c>
       <c r="C30">
-        <v>15.15342621051771</v>
+        <v>15.11420976406124</v>
       </c>
       <c r="D30">
-        <v>16.47347517817937</v>
+        <v>16.3020238627292</v>
       </c>
       <c r="E30">
-        <v>10.48088714430017</v>
+        <v>10.47823651389303</v>
       </c>
       <c r="F30">
-        <v>12.58792388598352</v>
+        <v>12.48930466909492</v>
       </c>
       <c r="G30">
-        <v>14.06768897741951</v>
+        <v>13.96524770071118</v>
       </c>
       <c r="H30">
-        <v>14.31195274399223</v>
+        <v>14.24780079638454</v>
       </c>
       <c r="I30">
-        <v>11.87825489573518</v>
+        <v>11.78191036093244</v>
       </c>
       <c r="J30">
-        <v>18.91164230215646</v>
+        <v>18.85549589171578</v>
       </c>
       <c r="K30">
-        <v>14.04977760884305</v>
+        <v>13.94971362823858</v>
       </c>
       <c r="L30">
-        <v>10.7075569953742</v>
+        <v>10.58793462610667</v>
       </c>
       <c r="M30">
-        <v>11.96945693685406</v>
+        <v>11.90947516065721</v>
       </c>
       <c r="N30">
-        <v>18.84134767157817</v>
+        <v>18.70846210331195</v>
       </c>
       <c r="O30">
-        <v>16.89782587960185</v>
+        <v>16.90706112213658</v>
       </c>
       <c r="P30">
-        <v>21.41072536044964</v>
+        <v>21.34438715631814</v>
       </c>
       <c r="Q30">
-        <v>16.45387151895433</v>
+        <v>16.0339455344753</v>
       </c>
       <c r="R30">
-        <v>19.52166548116277</v>
+        <v>19.50014188178872</v>
       </c>
       <c r="S30">
-        <v>11.06763555817023</v>
+        <v>10.17885038171615</v>
       </c>
       <c r="T30">
-        <v>16.97196806991609</v>
+        <v>16.36153435959246</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.605110255670826</v>
+        <v>1.567971987352437</v>
       </c>
       <c r="C31">
-        <v>2.046807285104832</v>
+        <v>2.041510231673622</v>
       </c>
       <c r="D31">
-        <v>1.676468118814323</v>
+        <v>1.659019908210788</v>
       </c>
       <c r="E31">
-        <v>2.784125338232139</v>
+        <v>2.783421229202322</v>
       </c>
       <c r="F31">
-        <v>2.646729461496048</v>
+        <v>2.625993843043558</v>
       </c>
       <c r="G31">
-        <v>1.615294552773412</v>
+        <v>1.603531935863718</v>
       </c>
       <c r="H31">
-        <v>1.964619846779169</v>
+        <v>1.955813627828193</v>
       </c>
       <c r="I31">
-        <v>1.389172036953582</v>
+        <v>1.37790446146913</v>
       </c>
       <c r="J31">
-        <v>3.262162649701073</v>
+        <v>3.252477677865841</v>
       </c>
       <c r="K31">
-        <v>1.821149082615932</v>
+        <v>1.808178669022621</v>
       </c>
       <c r="L31">
-        <v>1.303175014551359</v>
+        <v>1.288616242379683</v>
       </c>
       <c r="M31">
-        <v>2.070861087590796</v>
+        <v>2.060483513491493</v>
       </c>
       <c r="N31">
-        <v>3.787653315210646</v>
+        <v>3.760939490278342</v>
       </c>
       <c r="O31">
-        <v>1.156078142387553</v>
+        <v>1.156709978820839</v>
       </c>
       <c r="P31">
-        <v>2.784740489562795</v>
+        <v>2.776112352031727</v>
       </c>
       <c r="Q31">
-        <v>2.506266020249452</v>
+        <v>2.442302580112751</v>
       </c>
       <c r="R31">
-        <v>1.380142567504639</v>
+        <v>1.378620892228996</v>
       </c>
       <c r="S31">
-        <v>1.083263340699326</v>
+        <v>0.9962720050748933</v>
       </c>
       <c r="T31">
-        <v>1.437619606575002</v>
+        <v>1.385912493595505</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.715137974809553</v>
+        <v>1.675453938098371</v>
       </c>
       <c r="C32">
-        <v>2.187033264973793</v>
+        <v>2.181373312449339</v>
       </c>
       <c r="D32">
-        <v>1.791160988660427</v>
+        <v>1.772519086792895</v>
       </c>
       <c r="E32">
-        <v>2.974849471651306</v>
+        <v>2.974097128232505</v>
       </c>
       <c r="F32">
-        <v>2.827597492105395</v>
+        <v>2.805444875607759</v>
       </c>
       <c r="G32">
-        <v>1.725591756277979</v>
+        <v>1.71302595226609</v>
       </c>
       <c r="H32">
-        <v>2.100257951702264</v>
+        <v>2.090843748029966</v>
       </c>
       <c r="I32">
-        <v>1.484484012044737</v>
+        <v>1.472443361055348</v>
       </c>
       <c r="J32">
-        <v>3.485470097717949</v>
+        <v>3.475122152702996</v>
       </c>
       <c r="K32">
-        <v>1.945808695116189</v>
+        <v>1.931950442768794</v>
       </c>
       <c r="L32">
-        <v>1.392990717764911</v>
+        <v>1.377428545170481</v>
       </c>
       <c r="M32">
-        <v>2.212465762042716</v>
+        <v>2.201378573469154</v>
       </c>
       <c r="N32">
-        <v>4.047927469970272</v>
+        <v>4.019377965363502</v>
       </c>
       <c r="O32">
-        <v>1.235458233975887</v>
+        <v>1.236133454357112</v>
       </c>
       <c r="P32">
-        <v>2.975712012736859</v>
+        <v>2.966492176060885</v>
       </c>
       <c r="Q32">
-        <v>2.678669765815219</v>
+        <v>2.610306339176789</v>
       </c>
       <c r="R32">
-        <v>1.474546992521602</v>
+        <v>1.472921231709551</v>
       </c>
       <c r="S32">
-        <v>1.157305114357824</v>
+        <v>1.064367862776892</v>
       </c>
       <c r="T32">
-        <v>1.536650028977717</v>
+        <v>1.481381071671552</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.883373463311909</v>
+        <v>2.816659356312544</v>
       </c>
       <c r="C33">
-        <v>3.950108450460728</v>
+        <v>3.939885731559229</v>
       </c>
       <c r="D33">
-        <v>4.170427969510449</v>
+        <v>4.127023323336591</v>
       </c>
       <c r="E33">
-        <v>3.623013518818007</v>
+        <v>3.622097253842893</v>
       </c>
       <c r="F33">
-        <v>4.26390244106197</v>
+        <v>4.230497193029356</v>
       </c>
       <c r="G33">
-        <v>3.10670456537865</v>
+        <v>3.084081462000134</v>
       </c>
       <c r="H33">
-        <v>5.199460688718642</v>
+        <v>5.176154607734624</v>
       </c>
       <c r="I33">
-        <v>3.043629071244213</v>
+        <v>3.018942193453235</v>
       </c>
       <c r="J33">
-        <v>6.400959646301914</v>
+        <v>6.381955960541926</v>
       </c>
       <c r="K33">
-        <v>2.876760288467466</v>
+        <v>2.856271701834768</v>
       </c>
       <c r="L33">
-        <v>2.539411910669975</v>
+        <v>2.511042183622829</v>
       </c>
       <c r="M33">
-        <v>4.212953617481649</v>
+        <v>4.191841511699022</v>
       </c>
       <c r="N33">
-        <v>5.068702383231746</v>
+        <v>5.032953486268067</v>
       </c>
       <c r="O33">
-        <v>2.664299882565909</v>
+        <v>2.66575601401004</v>
       </c>
       <c r="P33">
-        <v>5.356594690997124</v>
+        <v>5.339998014981771</v>
       </c>
       <c r="Q33">
-        <v>6.702373711912122</v>
+        <v>6.531319691216817</v>
       </c>
       <c r="R33">
-        <v>6.095351194015644</v>
+        <v>6.088630768585205</v>
       </c>
       <c r="S33">
-        <v>2.08443688886423</v>
+        <v>1.917046428784527</v>
       </c>
       <c r="T33">
-        <v>2.766137900333453</v>
+        <v>2.666647740158075</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.736046087044869</v>
+        <v>4.626465732843331</v>
       </c>
       <c r="C34">
-        <v>4.452789887067003</v>
+        <v>4.441266249193816</v>
       </c>
       <c r="D34">
-        <v>7.708825017954072</v>
+        <v>7.628593726401574</v>
       </c>
       <c r="E34">
-        <v>4.882090805842976</v>
+        <v>4.880856118534336</v>
       </c>
       <c r="F34">
-        <v>6.334473108218742</v>
+        <v>6.28484611785935</v>
       </c>
       <c r="G34">
-        <v>3.604640491344922</v>
+        <v>3.57839140561374</v>
       </c>
       <c r="H34">
-        <v>5.065528723480115</v>
+        <v>5.04282297961086</v>
       </c>
       <c r="I34">
-        <v>3.685396370191322</v>
+        <v>3.65550411733377</v>
       </c>
       <c r="J34">
-        <v>5.472594066959029</v>
+        <v>5.456346587879771</v>
       </c>
       <c r="K34">
-        <v>5.719159273489347</v>
+        <v>5.678426825008732</v>
       </c>
       <c r="L34">
-        <v>4.101866219403854</v>
+        <v>4.056041111417456</v>
       </c>
       <c r="M34">
-        <v>4.98190991026298</v>
+        <v>4.956944382850442</v>
       </c>
       <c r="N34">
-        <v>5.700238470456302</v>
+        <v>5.660035431820047</v>
       </c>
       <c r="O34">
-        <v>5.306643569586108</v>
+        <v>5.309543832658984</v>
       </c>
       <c r="P34">
-        <v>6.214401204926529</v>
+        <v>6.195146732752085</v>
       </c>
       <c r="Q34">
-        <v>6.199410718650009</v>
+        <v>6.041193022211814</v>
       </c>
       <c r="R34">
-        <v>6.151325499114198</v>
+        <v>6.144543359250666</v>
       </c>
       <c r="S34">
-        <v>2.41762487032747</v>
+        <v>2.223477788443521</v>
       </c>
       <c r="T34">
-        <v>3.20925707854221</v>
+        <v>3.093829174261068</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.1390695154128</v>
+        <v>114.4287621213505</v>
       </c>
       <c r="C35">
-        <v>109.2270179332506</v>
+        <v>108.9443428839996</v>
       </c>
       <c r="D35">
-        <v>117.9083373248387</v>
+        <v>116.6811803759721</v>
       </c>
       <c r="E35">
-        <v>91.98043842212417</v>
+        <v>91.95717644595874</v>
       </c>
       <c r="F35">
-        <v>107.7867069472523</v>
+        <v>106.9422594651718</v>
       </c>
       <c r="G35">
-        <v>98.27161130217816</v>
+        <v>97.55599487490727</v>
       </c>
       <c r="H35">
-        <v>112.0788750887484</v>
+        <v>111.5764923425756</v>
       </c>
       <c r="I35">
-        <v>107.6151625425048</v>
+        <v>106.7422958744725</v>
       </c>
       <c r="J35">
-        <v>95.33432201193185</v>
+        <v>95.05128578021574</v>
       </c>
       <c r="K35">
-        <v>111.2906681596844</v>
+        <v>110.4980444207023</v>
       </c>
       <c r="L35">
-        <v>116.3113356615507</v>
+        <v>115.0119321140827</v>
       </c>
       <c r="M35">
-        <v>103.1422702403335</v>
+        <v>102.6253999593652</v>
       </c>
       <c r="N35">
-        <v>108.6257702107605</v>
+        <v>107.8596468179743</v>
       </c>
       <c r="O35">
-        <v>115.586702512269</v>
+        <v>115.6498746173136</v>
       </c>
       <c r="P35">
-        <v>107.7838580773359</v>
+        <v>107.4499045349481</v>
       </c>
       <c r="Q35">
-        <v>111.7539601473766</v>
+        <v>108.9018416243738</v>
       </c>
       <c r="R35">
-        <v>118.8125637894913</v>
+        <v>118.6815670758105</v>
       </c>
       <c r="S35">
-        <v>100.4288131469887</v>
+        <v>92.36388907673158</v>
       </c>
       <c r="T35">
-        <v>110.0882600771059</v>
+        <v>106.1286965907086</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>9.04330768038735</v>
+        <v>8.83406798116207</v>
       </c>
       <c r="C36">
-        <v>14.73110820097084</v>
+        <v>14.69298469622794</v>
       </c>
       <c r="D36">
-        <v>8.39454196320418</v>
+        <v>8.307173921754167</v>
       </c>
       <c r="E36">
-        <v>7.443456316370696</v>
+        <v>7.441573856291247</v>
       </c>
       <c r="F36">
-        <v>7.571086656864545</v>
+        <v>7.51177150340011</v>
       </c>
       <c r="G36">
-        <v>6.405230354243503</v>
+        <v>6.35858730035222</v>
       </c>
       <c r="H36">
-        <v>14.41602726475084</v>
+        <v>14.35140881314313</v>
       </c>
       <c r="I36">
-        <v>11.07842857142857</v>
+        <v>10.98857142857143</v>
       </c>
       <c r="J36">
-        <v>8.161652986434971</v>
+        <v>8.137422012142565</v>
       </c>
       <c r="K36">
-        <v>7.891113291282283</v>
+        <v>7.83491195989398</v>
       </c>
       <c r="L36">
-        <v>13.84432806420978</v>
+        <v>13.68966240847961</v>
       </c>
       <c r="M36">
-        <v>10.39549952506727</v>
+        <v>10.34340522126915</v>
       </c>
       <c r="N36">
-        <v>11.24181131503812</v>
+        <v>11.16252428573532</v>
       </c>
       <c r="O36">
-        <v>7.26412284939206</v>
+        <v>7.268092942159864</v>
       </c>
       <c r="P36">
-        <v>14.56784000343797</v>
+        <v>14.52270354366682</v>
       </c>
       <c r="Q36">
-        <v>9.749360570526934</v>
+        <v>9.500543152030415</v>
       </c>
       <c r="R36">
-        <v>15.95017064091922</v>
+        <v>15.93258479082082</v>
       </c>
       <c r="S36">
-        <v>7.404982167737368</v>
+        <v>6.810325942566191</v>
       </c>
       <c r="T36">
-        <v>7.617789357198652</v>
+        <v>7.343799010138</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>24.83390343148775</v>
+        <v>24.25930853012622</v>
       </c>
       <c r="C37">
-        <v>24.51084525311837</v>
+        <v>24.44741218939285</v>
       </c>
       <c r="D37">
-        <v>25.67493435335046</v>
+        <v>25.40771682812485</v>
       </c>
       <c r="E37">
-        <v>24.455154997985</v>
+        <v>24.44897025650688</v>
       </c>
       <c r="F37">
-        <v>27.43301532138143</v>
+        <v>27.21809326494127</v>
       </c>
       <c r="G37">
-        <v>29.66754997743507</v>
+        <v>29.45151010753358</v>
       </c>
       <c r="H37">
-        <v>25.67484304321</v>
+        <v>25.55975803592928</v>
       </c>
       <c r="I37">
-        <v>26.41968522880904</v>
+        <v>26.20539514113646</v>
       </c>
       <c r="J37">
-        <v>20.28271880116916</v>
+        <v>20.22250182812852</v>
       </c>
       <c r="K37">
-        <v>29.17354572538062</v>
+        <v>28.96576869182881</v>
       </c>
       <c r="L37">
-        <v>26.43801482706859</v>
+        <v>26.14265539319303</v>
       </c>
       <c r="M37">
-        <v>33.51138986665786</v>
+        <v>33.34345637580432</v>
       </c>
       <c r="N37">
-        <v>18.74364716303477</v>
+        <v>18.61145066371542</v>
       </c>
       <c r="O37">
-        <v>29.76753434562545</v>
+        <v>29.78380332610267</v>
       </c>
       <c r="P37">
-        <v>22.87510126150978</v>
+        <v>22.80422588893516</v>
       </c>
       <c r="Q37">
-        <v>21.16576562297078</v>
+        <v>20.62558546195277</v>
       </c>
       <c r="R37">
-        <v>27.10409522854297</v>
+        <v>27.0742116262623</v>
       </c>
       <c r="S37">
-        <v>32.5477979380105</v>
+        <v>29.93405083895901</v>
       </c>
       <c r="T37">
-        <v>27.68907395197258</v>
+        <v>26.6931762412122</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.397872656162607</v>
+        <v>4.29611679599186</v>
       </c>
       <c r="C38">
-        <v>5.268724682210957</v>
+        <v>5.255089438502812</v>
       </c>
       <c r="D38">
-        <v>4.909017514335003</v>
+        <v>4.857925835056822</v>
       </c>
       <c r="E38">
-        <v>3.652069148518582</v>
+        <v>3.651145535335772</v>
       </c>
       <c r="F38">
-        <v>3.996283228350403</v>
+        <v>3.964974624484135</v>
       </c>
       <c r="G38">
-        <v>3.559882205864807</v>
+        <v>3.533959051131618</v>
       </c>
       <c r="H38">
-        <v>5.270265485628182</v>
+        <v>5.246642028972027</v>
       </c>
       <c r="I38">
-        <v>4.239794358638206</v>
+        <v>4.205405383260273</v>
       </c>
       <c r="J38">
-        <v>4.021876450122122</v>
+        <v>4.009935978623012</v>
       </c>
       <c r="K38">
-        <v>4.95282229664482</v>
+        <v>4.917547779992193</v>
       </c>
       <c r="L38">
-        <v>4.617882853904359</v>
+        <v>4.56629292650798</v>
       </c>
       <c r="M38">
-        <v>5.432470238064543</v>
+        <v>5.405246846415728</v>
       </c>
       <c r="N38">
-        <v>3.609447587627479</v>
+        <v>3.583990624454268</v>
       </c>
       <c r="O38">
-        <v>5.42571370696861</v>
+        <v>5.428679045963395</v>
       </c>
       <c r="P38">
-        <v>5.325287883919409</v>
+        <v>5.308788207763877</v>
       </c>
       <c r="Q38">
-        <v>3.99378263488301</v>
+        <v>3.891855674847096</v>
       </c>
       <c r="R38">
-        <v>5.174699190752865</v>
+        <v>5.168993829580147</v>
       </c>
       <c r="S38">
-        <v>3.820394560400966</v>
+        <v>3.513598222949865</v>
       </c>
       <c r="T38">
-        <v>5.944343066766338</v>
+        <v>5.730541851802078</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.802259730690248</v>
+        <v>7.621734801424852</v>
       </c>
       <c r="C39">
-        <v>12.85322811968475</v>
+        <v>12.81996449168764</v>
       </c>
       <c r="D39">
-        <v>9.726118047871354</v>
+        <v>9.624891335505289</v>
       </c>
       <c r="E39">
-        <v>12.76585166459933</v>
+        <v>12.7626231636023</v>
       </c>
       <c r="F39">
-        <v>9.167799451972396</v>
+        <v>9.095974962824346</v>
       </c>
       <c r="G39">
-        <v>6.723333883191461</v>
+        <v>6.674374391135872</v>
       </c>
       <c r="H39">
-        <v>10.52005729504156</v>
+        <v>10.47290215300794</v>
       </c>
       <c r="I39">
-        <v>7.271509432996023</v>
+        <v>7.212530214265231</v>
       </c>
       <c r="J39">
-        <v>12.16713273582858</v>
+        <v>12.13100996988593</v>
       </c>
       <c r="K39">
-        <v>8.845238786957328</v>
+        <v>8.782242074335846</v>
       </c>
       <c r="L39">
-        <v>7.012403394295868</v>
+        <v>6.934062432987165</v>
       </c>
       <c r="M39">
-        <v>6.241762407810967</v>
+        <v>6.210483461924421</v>
       </c>
       <c r="N39">
-        <v>12.64166420144799</v>
+        <v>12.55250419227443</v>
       </c>
       <c r="O39">
-        <v>9.510410547530038</v>
+        <v>9.51560831371825</v>
       </c>
       <c r="P39">
-        <v>10.08627057026299</v>
+        <v>10.0550196404252</v>
       </c>
       <c r="Q39">
-        <v>7.250218671995074</v>
+        <v>7.065182876011219</v>
       </c>
       <c r="R39">
-        <v>9.81471845220611</v>
+        <v>9.803897240863346</v>
       </c>
       <c r="S39">
-        <v>5.682706128289703</v>
+        <v>5.226357078628396</v>
       </c>
       <c r="T39">
-        <v>4.004857421235206</v>
+        <v>3.860814021855078</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.424401760232014</v>
+        <v>8.229482008216195</v>
       </c>
       <c r="C40">
-        <v>7.835434138291936</v>
+        <v>7.815156355625583</v>
       </c>
       <c r="D40">
-        <v>9.312084921973009</v>
+        <v>9.215167350411017</v>
       </c>
       <c r="E40">
-        <v>9.865503807564886</v>
+        <v>9.863008808428457</v>
       </c>
       <c r="F40">
-        <v>7.089863118410719</v>
+        <v>7.034318077392189</v>
       </c>
       <c r="G40">
-        <v>8.376193425564253</v>
+        <v>8.315197767368515</v>
       </c>
       <c r="H40">
-        <v>8.550319029208687</v>
+        <v>8.511993048945714</v>
       </c>
       <c r="I40">
-        <v>8.405721936580768</v>
+        <v>8.337543119341227</v>
       </c>
       <c r="J40">
-        <v>11.33324338449284</v>
+        <v>11.29959633657795</v>
       </c>
       <c r="K40">
-        <v>9.078576010355244</v>
+        <v>9.013917445706888</v>
       </c>
       <c r="L40">
-        <v>8.783297919921575</v>
+        <v>8.68517293140949</v>
       </c>
       <c r="M40">
-        <v>8.859303359800991</v>
+        <v>8.814907297875129</v>
       </c>
       <c r="N40">
-        <v>10.23901329534863</v>
+        <v>10.16679886971652</v>
       </c>
       <c r="O40">
-        <v>9.665792854468904</v>
+        <v>9.671075542427552</v>
       </c>
       <c r="P40">
-        <v>7.69443050952553</v>
+        <v>7.670590368978051</v>
       </c>
       <c r="Q40">
-        <v>8.441371823176736</v>
+        <v>8.225936120453664</v>
       </c>
       <c r="R40">
-        <v>8.273336468522057</v>
+        <v>8.264214706866676</v>
       </c>
       <c r="S40">
-        <v>6.397370204471724</v>
+        <v>5.883630139925948</v>
       </c>
       <c r="T40">
-        <v>6.874221948310472</v>
+        <v>6.626975618821238</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>11.25033428193474</v>
+        <v>10.99002946377167</v>
       </c>
       <c r="C41">
-        <v>11.82982447713234</v>
+        <v>11.79920937585083</v>
       </c>
       <c r="D41">
-        <v>7.959359797476057</v>
+        <v>7.876521010112842</v>
       </c>
       <c r="E41">
-        <v>6.992721547938681</v>
+        <v>6.990953079286323</v>
       </c>
       <c r="F41">
-        <v>7.867350127817411</v>
+        <v>7.805713918731516</v>
       </c>
       <c r="G41">
-        <v>17.53565684703051</v>
+        <v>17.40796173817416</v>
       </c>
       <c r="H41">
-        <v>10.86043216211272</v>
+        <v>10.81175132257088</v>
       </c>
       <c r="I41">
-        <v>6.115851735015771</v>
+        <v>6.066246056782334</v>
       </c>
       <c r="J41">
-        <v>5.29379194949097</v>
+        <v>5.278075312573098</v>
       </c>
       <c r="K41">
-        <v>7.669762569086315</v>
+        <v>7.615137720613917</v>
       </c>
       <c r="L41">
-        <v>6.795489997855589</v>
+        <v>6.719572343228257</v>
       </c>
       <c r="M41">
-        <v>6.241762407810967</v>
+        <v>6.210483461924421</v>
       </c>
       <c r="N41">
-        <v>8.072406817890124</v>
+        <v>8.015473185223838</v>
       </c>
       <c r="O41">
-        <v>11.69927434962539</v>
+        <v>11.70566840510146</v>
       </c>
       <c r="P41">
-        <v>4.614623363255267</v>
+        <v>4.600325583917669</v>
       </c>
       <c r="Q41">
-        <v>6.346167626032439</v>
+        <v>6.184204486539053</v>
       </c>
       <c r="R41">
-        <v>6.989269200813442</v>
+        <v>6.981563186675413</v>
       </c>
       <c r="S41">
-        <v>5.094395948459683</v>
+        <v>4.685291078844037</v>
       </c>
       <c r="T41">
-        <v>7.375248746398783</v>
+        <v>7.109981899426326</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.293423729265807</v>
+        <v>6.147809520975105</v>
       </c>
       <c r="C42">
-        <v>6.364291402122839</v>
+        <v>6.347820876610167</v>
       </c>
       <c r="D42">
-        <v>7.290724769011536</v>
+        <v>7.214844947740561</v>
       </c>
       <c r="E42">
-        <v>7.678136402413812</v>
+        <v>7.676194591426042</v>
       </c>
       <c r="F42">
-        <v>4.916991528963591</v>
+        <v>4.878469699754389</v>
       </c>
       <c r="G42">
-        <v>6.155862763711438</v>
+        <v>6.111035611094684</v>
       </c>
       <c r="H42">
-        <v>5.715567943300231</v>
+        <v>5.689948461332564</v>
       </c>
       <c r="I42">
-        <v>4.655195716743822</v>
+        <v>4.61743742062354</v>
       </c>
       <c r="J42">
-        <v>5.474936452777387</v>
+        <v>5.458682019434007</v>
       </c>
       <c r="K42">
-        <v>6.380814139836865</v>
+        <v>6.335369316430728</v>
       </c>
       <c r="L42">
-        <v>4.697530741659773</v>
+        <v>4.645051006341329</v>
       </c>
       <c r="M42">
-        <v>7.144599483710476</v>
+        <v>7.108796207963811</v>
       </c>
       <c r="N42">
-        <v>4.788106522695093</v>
+        <v>4.754336631746827</v>
       </c>
       <c r="O42">
-        <v>7.910986148931042</v>
+        <v>7.915309774721414</v>
       </c>
       <c r="P42">
-        <v>5.453645792938042</v>
+        <v>5.436748417357244</v>
       </c>
       <c r="Q42">
-        <v>4.896408856502127</v>
+        <v>4.771445603500552</v>
       </c>
       <c r="R42">
-        <v>4.335084614274558</v>
+        <v>4.330304969598221</v>
       </c>
       <c r="S42">
-        <v>5.231212269350385</v>
+        <v>4.81112038111947</v>
       </c>
       <c r="T42">
-        <v>6.272486246083809</v>
+        <v>6.046882648647287</v>
       </c>
     </row>
   </sheetData>
